--- a/Bases_de_Dados_(2022-2023)/Turkey 1. Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey 1. Lig_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="325">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -700,6 +700,9 @@
     <t>['-1', '-1', '-1']</t>
   </si>
   <si>
+    <t>['20']</t>
+  </si>
+  <si>
     <t>['22', '88']</t>
   </si>
   <si>
@@ -725,9 +728,6 @@
   </si>
   <si>
     <t>['42', '83']</t>
-  </si>
-  <si>
-    <t>['20']</t>
   </si>
   <si>
     <t>['36', '38']</t>
@@ -1350,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK225"/>
+  <dimension ref="A1:BK226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1594,7 +1594,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1785,7 +1785,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1875,7 +1875,7 @@
         <v>1.75</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2167,7 +2167,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2549,7 +2549,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2740,7 +2740,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2931,7 +2931,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3313,7 +3313,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3504,7 +3504,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT12">
         <v>1.33</v>
@@ -3695,7 +3695,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -7029,7 +7029,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT30">
         <v>0.83</v>
@@ -7605,7 +7605,7 @@
         <v>1.75</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU33">
         <v>1.7</v>
@@ -11231,7 +11231,7 @@
         <v>1.67</v>
       </c>
       <c r="AS52">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT52">
         <v>1.83</v>
@@ -13908,7 +13908,7 @@
         <v>1.83</v>
       </c>
       <c r="AT66">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU66">
         <v>1.6</v>
@@ -14669,7 +14669,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT70">
         <v>0.73</v>
@@ -14964,7 +14964,7 @@
         <v>84</v>
       </c>
       <c r="P72" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -18492,7 +18492,7 @@
         <v>2.25</v>
       </c>
       <c r="AT90">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU90">
         <v>1.71</v>
@@ -19826,7 +19826,7 @@
         <v>2.2</v>
       </c>
       <c r="AS97">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT97">
         <v>1.75</v>
@@ -20975,7 +20975,7 @@
         <v>1.83</v>
       </c>
       <c r="AT103">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU103">
         <v>1.54</v>
@@ -22882,7 +22882,7 @@
         <v>1.5</v>
       </c>
       <c r="AS113">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT113">
         <v>1.75</v>
@@ -22986,7 +22986,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -25177,7 +25177,7 @@
         <v>2</v>
       </c>
       <c r="AT125">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU125">
         <v>1.42</v>
@@ -25938,7 +25938,7 @@
         <v>1</v>
       </c>
       <c r="AS129">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT129">
         <v>0.77</v>
@@ -28615,7 +28615,7 @@
         <v>1.25</v>
       </c>
       <c r="AT143">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU143">
         <v>1.04</v>
@@ -29185,7 +29185,7 @@
         <v>1.63</v>
       </c>
       <c r="AS146">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT146">
         <v>1.5</v>
@@ -31671,7 +31671,7 @@
         <v>2.58</v>
       </c>
       <c r="AT159">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU159">
         <v>1.8</v>
@@ -32432,7 +32432,7 @@
         <v>1.29</v>
       </c>
       <c r="AS163">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT163">
         <v>0.91</v>
@@ -35106,7 +35106,7 @@
         <v>0.22</v>
       </c>
       <c r="AS177">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT177">
         <v>0.67</v>
@@ -36446,7 +36446,7 @@
         <v>0.67</v>
       </c>
       <c r="AT184">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU184">
         <v>1.26</v>
@@ -37780,7 +37780,7 @@
         <v>0.67</v>
       </c>
       <c r="AS191">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT191">
         <v>1.09</v>
@@ -37974,7 +37974,7 @@
         <v>0.75</v>
       </c>
       <c r="AT192">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU192">
         <v>1.33</v>
@@ -41030,7 +41030,7 @@
         <v>1.64</v>
       </c>
       <c r="AT208">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU208">
         <v>1.67</v>
@@ -41409,7 +41409,7 @@
         <v>0.82</v>
       </c>
       <c r="AS210">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT210">
         <v>0.75</v>
@@ -43996,7 +43996,7 @@
         <v>84</v>
       </c>
       <c r="P224" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="Q224">
         <v>3</v>
@@ -44329,6 +44329,197 @@
       </c>
       <c r="BK225">
         <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:63">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>2833510</v>
+      </c>
+      <c r="C226" t="s">
+        <v>63</v>
+      </c>
+      <c r="D226" t="s">
+        <v>64</v>
+      </c>
+      <c r="E226" s="2">
+        <v>44996.3125</v>
+      </c>
+      <c r="F226">
+        <v>26</v>
+      </c>
+      <c r="G226" t="s">
+        <v>75</v>
+      </c>
+      <c r="H226" t="s">
+        <v>74</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>1</v>
+      </c>
+      <c r="L226">
+        <v>1</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>1</v>
+      </c>
+      <c r="O226" t="s">
+        <v>228</v>
+      </c>
+      <c r="P226" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q226">
+        <v>1</v>
+      </c>
+      <c r="R226">
+        <v>8</v>
+      </c>
+      <c r="S226">
+        <v>9</v>
+      </c>
+      <c r="T226">
+        <v>3</v>
+      </c>
+      <c r="U226">
+        <v>2.22</v>
+      </c>
+      <c r="V226">
+        <v>3.2</v>
+      </c>
+      <c r="W226">
+        <v>1.36</v>
+      </c>
+      <c r="X226">
+        <v>2.9</v>
+      </c>
+      <c r="Y226">
+        <v>2.65</v>
+      </c>
+      <c r="Z226">
+        <v>1.42</v>
+      </c>
+      <c r="AA226">
+        <v>6.7</v>
+      </c>
+      <c r="AB226">
+        <v>1.07</v>
+      </c>
+      <c r="AC226">
+        <v>2.43</v>
+      </c>
+      <c r="AD226">
+        <v>3.49</v>
+      </c>
+      <c r="AE226">
+        <v>2.68</v>
+      </c>
+      <c r="AF226">
+        <v>1.06</v>
+      </c>
+      <c r="AG226">
+        <v>8</v>
+      </c>
+      <c r="AH226">
+        <v>1.3</v>
+      </c>
+      <c r="AI226">
+        <v>3.4</v>
+      </c>
+      <c r="AJ226">
+        <v>1.88</v>
+      </c>
+      <c r="AK226">
+        <v>1.88</v>
+      </c>
+      <c r="AL226">
+        <v>1.72</v>
+      </c>
+      <c r="AM226">
+        <v>2.07</v>
+      </c>
+      <c r="AN226">
+        <v>1.43</v>
+      </c>
+      <c r="AO226">
+        <v>1.29</v>
+      </c>
+      <c r="AP226">
+        <v>1.5</v>
+      </c>
+      <c r="AQ226">
+        <v>0.92</v>
+      </c>
+      <c r="AR226">
+        <v>1</v>
+      </c>
+      <c r="AS226">
+        <v>1.08</v>
+      </c>
+      <c r="AT226">
+        <v>0.92</v>
+      </c>
+      <c r="AU226">
+        <v>1.28</v>
+      </c>
+      <c r="AV226">
+        <v>1.12</v>
+      </c>
+      <c r="AW226">
+        <v>2.4</v>
+      </c>
+      <c r="AX226">
+        <v>2.1</v>
+      </c>
+      <c r="AY226">
+        <v>5.25</v>
+      </c>
+      <c r="AZ226">
+        <v>1.95</v>
+      </c>
+      <c r="BA226">
+        <v>1.48</v>
+      </c>
+      <c r="BB226">
+        <v>1.81</v>
+      </c>
+      <c r="BC226">
+        <v>2.27</v>
+      </c>
+      <c r="BD226">
+        <v>3.18</v>
+      </c>
+      <c r="BE226">
+        <v>4.4</v>
+      </c>
+      <c r="BF226">
+        <v>3</v>
+      </c>
+      <c r="BG226">
+        <v>2</v>
+      </c>
+      <c r="BH226">
+        <v>5</v>
+      </c>
+      <c r="BI226">
+        <v>3</v>
+      </c>
+      <c r="BJ226">
+        <v>8</v>
+      </c>
+      <c r="BK226">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey 1. Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey 1. Lig_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="329">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -703,6 +703,12 @@
     <t>['20']</t>
   </si>
   <si>
+    <t>['13', '59', '61', '90+2']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
     <t>['22', '88']</t>
   </si>
   <si>
@@ -985,10 +991,16 @@
     <t>['62']</t>
   </si>
   <si>
-    <t>['59']</t>
+    <t>['86', '90+13']</t>
   </si>
   <si>
-    <t>['86', '90+13']</t>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['85', '90+6']</t>
+  </si>
+  <si>
+    <t>['73', '80']</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK226"/>
+  <dimension ref="A1:BK230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1594,7 +1606,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1785,7 +1797,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1976,7 +1988,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2167,7 +2179,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2257,7 +2269,7 @@
         <v>0.67</v>
       </c>
       <c r="AT5">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2549,7 +2561,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2636,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT7">
         <v>0.77</v>
@@ -2740,7 +2752,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2931,7 +2943,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3212,7 +3224,7 @@
         <v>1</v>
       </c>
       <c r="AT10">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3313,7 +3325,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3504,7 +3516,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3886,7 +3898,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4077,7 +4089,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4164,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT15">
         <v>1.58</v>
@@ -4737,10 +4749,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT18">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4928,10 +4940,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT19">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5032,7 +5044,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q20">
         <v>9</v>
@@ -5223,7 +5235,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q21">
         <v>9</v>
@@ -5414,7 +5426,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5695,7 +5707,7 @@
         <v>2</v>
       </c>
       <c r="AT23">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU23">
         <v>1.12</v>
@@ -5796,7 +5808,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5987,7 +5999,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -6074,7 +6086,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT25">
         <v>0.67</v>
@@ -6178,7 +6190,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6268,7 +6280,7 @@
         <v>0.67</v>
       </c>
       <c r="AT26">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU26">
         <v>2.2</v>
@@ -6369,7 +6381,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6838,7 +6850,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT29">
         <v>0.75</v>
@@ -6942,7 +6954,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7032,7 +7044,7 @@
         <v>1.08</v>
       </c>
       <c r="AT30">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU30">
         <v>0.71</v>
@@ -7220,7 +7232,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT31">
         <v>1.58</v>
@@ -7324,7 +7336,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -7414,7 +7426,7 @@
         <v>0.82</v>
       </c>
       <c r="AT32">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU32">
         <v>1.84</v>
@@ -7515,7 +7527,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7793,7 +7805,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT34">
         <v>1.09</v>
@@ -7984,7 +7996,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT35">
         <v>1.33</v>
@@ -8088,7 +8100,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8661,7 +8673,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8852,7 +8864,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9043,7 +9055,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9234,7 +9246,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -10088,7 +10100,7 @@
         <v>0.75</v>
       </c>
       <c r="AT46">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU46">
         <v>1.64</v>
@@ -10380,7 +10392,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10467,10 +10479,10 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT48">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU48">
         <v>1.6</v>
@@ -10571,7 +10583,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10658,7 +10670,7 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT49">
         <v>0.75</v>
@@ -10852,7 +10864,7 @@
         <v>1.42</v>
       </c>
       <c r="AT50">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU50">
         <v>1.47</v>
@@ -10953,7 +10965,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11234,7 +11246,7 @@
         <v>1.08</v>
       </c>
       <c r="AT52">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU52">
         <v>0.93</v>
@@ -11422,7 +11434,7 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT53">
         <v>1.36</v>
@@ -11526,7 +11538,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q54">
         <v>9</v>
@@ -11804,10 +11816,10 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT55">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU55">
         <v>1.26</v>
@@ -12672,7 +12684,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13245,7 +13257,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13905,7 +13917,7 @@
         <v>3</v>
       </c>
       <c r="AS66">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT66">
         <v>0.92</v>
@@ -14096,7 +14108,7 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT67">
         <v>1.09</v>
@@ -14582,7 +14594,7 @@
         <v>84</v>
       </c>
       <c r="P70" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14672,7 +14684,7 @@
         <v>1.08</v>
       </c>
       <c r="AT70">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU70">
         <v>1.14</v>
@@ -14773,7 +14785,7 @@
         <v>84</v>
       </c>
       <c r="P71" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14863,7 +14875,7 @@
         <v>0.82</v>
       </c>
       <c r="AT71">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU71">
         <v>1.32</v>
@@ -14964,7 +14976,7 @@
         <v>84</v>
       </c>
       <c r="P72" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15051,10 +15063,10 @@
         <v>1.5</v>
       </c>
       <c r="AS72">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT72">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU72">
         <v>1.57</v>
@@ -15155,7 +15167,7 @@
         <v>84</v>
       </c>
       <c r="P73" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -15245,7 +15257,7 @@
         <v>1.25</v>
       </c>
       <c r="AT73">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU73">
         <v>1.1</v>
@@ -15537,7 +15549,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15919,7 +15931,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16301,7 +16313,7 @@
         <v>84</v>
       </c>
       <c r="P79" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16492,7 +16504,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16683,7 +16695,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q81">
         <v>9</v>
@@ -16770,7 +16782,7 @@
         <v>1.25</v>
       </c>
       <c r="AS81">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT81">
         <v>1.17</v>
@@ -16874,7 +16886,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17256,7 +17268,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17346,7 +17358,7 @@
         <v>1.75</v>
       </c>
       <c r="AT84">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU84">
         <v>1.84</v>
@@ -17447,7 +17459,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17534,10 +17546,10 @@
         <v>1.8</v>
       </c>
       <c r="AS85">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT85">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU85">
         <v>1.52</v>
@@ -17728,7 +17740,7 @@
         <v>1.25</v>
       </c>
       <c r="AT86">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU86">
         <v>1.01</v>
@@ -17829,7 +17841,7 @@
         <v>112</v>
       </c>
       <c r="P87" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17916,10 +17928,10 @@
         <v>1.25</v>
       </c>
       <c r="AS87">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT87">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU87">
         <v>1.28</v>
@@ -18107,7 +18119,7 @@
         <v>1.75</v>
       </c>
       <c r="AS88">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT88">
         <v>1.33</v>
@@ -18402,7 +18414,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18593,7 +18605,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -18784,7 +18796,7 @@
         <v>84</v>
       </c>
       <c r="P92" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q92">
         <v>0</v>
@@ -18975,7 +18987,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -19065,7 +19077,7 @@
         <v>1.64</v>
       </c>
       <c r="AT93">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU93">
         <v>1.33</v>
@@ -19166,7 +19178,7 @@
         <v>84</v>
       </c>
       <c r="P94" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19357,7 +19369,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19635,7 +19647,7 @@
         <v>0</v>
       </c>
       <c r="AS96">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT96">
         <v>0.58</v>
@@ -19739,7 +19751,7 @@
         <v>147</v>
       </c>
       <c r="P97" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -20312,7 +20324,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20593,7 +20605,7 @@
         <v>2</v>
       </c>
       <c r="AT101">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU101">
         <v>1.35</v>
@@ -20972,7 +20984,7 @@
         <v>2</v>
       </c>
       <c r="AS103">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT103">
         <v>0.92</v>
@@ -21076,7 +21088,7 @@
         <v>153</v>
       </c>
       <c r="P104" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21267,7 +21279,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21357,7 +21369,7 @@
         <v>1.42</v>
       </c>
       <c r="AT105">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU105">
         <v>1.43</v>
@@ -21649,7 +21661,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21736,7 +21748,7 @@
         <v>1.6</v>
       </c>
       <c r="AS107">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT107">
         <v>1.17</v>
@@ -22031,7 +22043,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -22121,7 +22133,7 @@
         <v>2.58</v>
       </c>
       <c r="AT109">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU109">
         <v>1.9</v>
@@ -22413,7 +22425,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -22795,7 +22807,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -22986,7 +22998,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23177,7 +23189,7 @@
         <v>84</v>
       </c>
       <c r="P115" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23368,7 +23380,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23646,7 +23658,7 @@
         <v>2.33</v>
       </c>
       <c r="AS117">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT117">
         <v>1.75</v>
@@ -23750,7 +23762,7 @@
         <v>117</v>
       </c>
       <c r="P118" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23840,7 +23852,7 @@
         <v>2.15</v>
       </c>
       <c r="AT118">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU118">
         <v>1.41</v>
@@ -23941,7 +23953,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -24031,7 +24043,7 @@
         <v>0.82</v>
       </c>
       <c r="AT119">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU119">
         <v>1.44</v>
@@ -24222,7 +24234,7 @@
         <v>1.75</v>
       </c>
       <c r="AT120">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU120">
         <v>1.84</v>
@@ -24410,7 +24422,7 @@
         <v>0</v>
       </c>
       <c r="AS121">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT121">
         <v>0.58</v>
@@ -24604,7 +24616,7 @@
         <v>1.42</v>
       </c>
       <c r="AT122">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU122">
         <v>1.36</v>
@@ -24705,7 +24717,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24792,7 +24804,7 @@
         <v>1.33</v>
       </c>
       <c r="AS123">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT123">
         <v>1.17</v>
@@ -25278,7 +25290,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25747,7 +25759,7 @@
         <v>1.2</v>
       </c>
       <c r="AS128">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT128">
         <v>1.58</v>
@@ -26233,7 +26245,7 @@
         <v>147</v>
       </c>
       <c r="P131" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -26323,7 +26335,7 @@
         <v>0.67</v>
       </c>
       <c r="AT131">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU131">
         <v>1.33</v>
@@ -26615,7 +26627,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26702,7 +26714,7 @@
         <v>1.71</v>
       </c>
       <c r="AS133">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT133">
         <v>1.75</v>
@@ -26806,7 +26818,7 @@
         <v>145</v>
       </c>
       <c r="P134" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -26997,7 +27009,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -27466,7 +27478,7 @@
         <v>0.86</v>
       </c>
       <c r="AS137">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT137">
         <v>0.75</v>
@@ -27660,7 +27672,7 @@
         <v>1.64</v>
       </c>
       <c r="AT138">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU138">
         <v>1.3</v>
@@ -28042,7 +28054,7 @@
         <v>2.15</v>
       </c>
       <c r="AT140">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU140">
         <v>1.42</v>
@@ -28334,7 +28346,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q142">
         <v>1</v>
@@ -28806,7 +28818,7 @@
         <v>2</v>
       </c>
       <c r="AT144">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU144">
         <v>1.32</v>
@@ -29098,7 +29110,7 @@
         <v>84</v>
       </c>
       <c r="P146" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29188,7 +29200,7 @@
         <v>1.08</v>
       </c>
       <c r="AT146">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU146">
         <v>1.02</v>
@@ -29376,7 +29388,7 @@
         <v>0.29</v>
       </c>
       <c r="AS147">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT147">
         <v>0.67</v>
@@ -29480,7 +29492,7 @@
         <v>181</v>
       </c>
       <c r="P148" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q148">
         <v>2</v>
@@ -29567,7 +29579,7 @@
         <v>1.5</v>
       </c>
       <c r="AS148">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT148">
         <v>0.91</v>
@@ -29758,7 +29770,7 @@
         <v>1.67</v>
       </c>
       <c r="AS149">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT149">
         <v>1.36</v>
@@ -29862,7 +29874,7 @@
         <v>183</v>
       </c>
       <c r="P150" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -30053,7 +30065,7 @@
         <v>169</v>
       </c>
       <c r="P151" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30143,7 +30155,7 @@
         <v>0.67</v>
       </c>
       <c r="AT151">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU151">
         <v>1.29</v>
@@ -30244,7 +30256,7 @@
         <v>84</v>
       </c>
       <c r="P152" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30435,7 +30447,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30626,7 +30638,7 @@
         <v>84</v>
       </c>
       <c r="P154" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30904,7 +30916,7 @@
         <v>1.63</v>
       </c>
       <c r="AS155">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT155">
         <v>1.75</v>
@@ -31862,7 +31874,7 @@
         <v>1.64</v>
       </c>
       <c r="AT160">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU160">
         <v>1.25</v>
@@ -32053,7 +32065,7 @@
         <v>1</v>
       </c>
       <c r="AT161">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU161">
         <v>1.44</v>
@@ -32154,7 +32166,7 @@
         <v>189</v>
       </c>
       <c r="P162" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32345,7 +32357,7 @@
         <v>190</v>
       </c>
       <c r="P163" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q163">
         <v>7</v>
@@ -32623,7 +32635,7 @@
         <v>1</v>
       </c>
       <c r="AS164">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT164">
         <v>0.77</v>
@@ -32918,7 +32930,7 @@
         <v>192</v>
       </c>
       <c r="P166" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q166">
         <v>8</v>
@@ -33008,7 +33020,7 @@
         <v>2</v>
       </c>
       <c r="AT166">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU166">
         <v>1.62</v>
@@ -33196,7 +33208,7 @@
         <v>1.43</v>
       </c>
       <c r="AS167">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT167">
         <v>1.58</v>
@@ -33300,7 +33312,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q168">
         <v>1</v>
@@ -33772,7 +33784,7 @@
         <v>0.75</v>
       </c>
       <c r="AT170">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU170">
         <v>1.3</v>
@@ -33960,7 +33972,7 @@
         <v>1.43</v>
       </c>
       <c r="AS171">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT171">
         <v>1.58</v>
@@ -34151,7 +34163,7 @@
         <v>1.25</v>
       </c>
       <c r="AS172">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT172">
         <v>1.58</v>
@@ -34533,10 +34545,10 @@
         <v>1.7</v>
       </c>
       <c r="AS174">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT174">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU174">
         <v>1.52</v>
@@ -34637,7 +34649,7 @@
         <v>198</v>
       </c>
       <c r="P175" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q175">
         <v>7</v>
@@ -34915,7 +34927,7 @@
         <v>0.38</v>
       </c>
       <c r="AS176">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT176">
         <v>1.09</v>
@@ -35210,7 +35222,7 @@
         <v>199</v>
       </c>
       <c r="P178" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q178">
         <v>5</v>
@@ -35592,7 +35604,7 @@
         <v>168</v>
       </c>
       <c r="P180" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -35682,7 +35694,7 @@
         <v>1.75</v>
       </c>
       <c r="AT180">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU180">
         <v>1.48</v>
@@ -35783,7 +35795,7 @@
         <v>201</v>
       </c>
       <c r="P181" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -35873,7 +35885,7 @@
         <v>2.15</v>
       </c>
       <c r="AT181">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU181">
         <v>1.48</v>
@@ -35974,7 +35986,7 @@
         <v>202</v>
       </c>
       <c r="P182" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q182">
         <v>5</v>
@@ -36356,7 +36368,7 @@
         <v>203</v>
       </c>
       <c r="P184" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q184">
         <v>6</v>
@@ -36547,7 +36559,7 @@
         <v>204</v>
       </c>
       <c r="P185" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -36637,7 +36649,7 @@
         <v>1.25</v>
       </c>
       <c r="AT185">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU185">
         <v>1.15</v>
@@ -36738,7 +36750,7 @@
         <v>205</v>
       </c>
       <c r="P186" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q186">
         <v>0</v>
@@ -36825,7 +36837,7 @@
         <v>1.67</v>
       </c>
       <c r="AS186">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT186">
         <v>1.75</v>
@@ -36929,7 +36941,7 @@
         <v>206</v>
       </c>
       <c r="P187" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -37120,7 +37132,7 @@
         <v>207</v>
       </c>
       <c r="P188" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q188">
         <v>5</v>
@@ -37311,7 +37323,7 @@
         <v>208</v>
       </c>
       <c r="P189" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37589,7 +37601,7 @@
         <v>1.6</v>
       </c>
       <c r="AS190">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT190">
         <v>1.33</v>
@@ -37693,7 +37705,7 @@
         <v>210</v>
       </c>
       <c r="P191" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -37884,7 +37896,7 @@
         <v>211</v>
       </c>
       <c r="P192" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -38075,7 +38087,7 @@
         <v>84</v>
       </c>
       <c r="P193" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38266,7 +38278,7 @@
         <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38353,7 +38365,7 @@
         <v>1</v>
       </c>
       <c r="AS194">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT194">
         <v>0.91</v>
@@ -38457,7 +38469,7 @@
         <v>212</v>
       </c>
       <c r="P195" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38648,7 +38660,7 @@
         <v>213</v>
       </c>
       <c r="P196" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -38926,7 +38938,7 @@
         <v>1.22</v>
       </c>
       <c r="AS197">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT197">
         <v>1.36</v>
@@ -39120,7 +39132,7 @@
         <v>2.25</v>
       </c>
       <c r="AT198">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU198">
         <v>2.01</v>
@@ -39221,7 +39233,7 @@
         <v>84</v>
       </c>
       <c r="P199" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -39412,7 +39424,7 @@
         <v>148</v>
       </c>
       <c r="P200" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q200">
         <v>8</v>
@@ -39603,7 +39615,7 @@
         <v>117</v>
       </c>
       <c r="P201" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q201">
         <v>7</v>
@@ -39794,7 +39806,7 @@
         <v>215</v>
       </c>
       <c r="P202" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q202">
         <v>1</v>
@@ -39884,7 +39896,7 @@
         <v>2</v>
       </c>
       <c r="AT202">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU202">
         <v>1.64</v>
@@ -39985,7 +39997,7 @@
         <v>216</v>
       </c>
       <c r="P203" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q203">
         <v>4</v>
@@ -40940,7 +40952,7 @@
         <v>112</v>
       </c>
       <c r="P208" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q208">
         <v>10</v>
@@ -41027,7 +41039,7 @@
         <v>1</v>
       </c>
       <c r="AS208">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT208">
         <v>0.92</v>
@@ -41221,7 +41233,7 @@
         <v>1.75</v>
       </c>
       <c r="AT209">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU209">
         <v>1.56</v>
@@ -41513,7 +41525,7 @@
         <v>222</v>
       </c>
       <c r="P211" t="s">
-        <v>323</v>
+        <v>230</v>
       </c>
       <c r="Q211">
         <v>7</v>
@@ -41600,7 +41612,7 @@
         <v>1.45</v>
       </c>
       <c r="AS211">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT211">
         <v>1.33</v>
@@ -41794,7 +41806,7 @@
         <v>2.25</v>
       </c>
       <c r="AT212">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU212">
         <v>2</v>
@@ -41982,7 +41994,7 @@
         <v>1</v>
       </c>
       <c r="AS213">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT213">
         <v>0.91</v>
@@ -42468,7 +42480,7 @@
         <v>84</v>
       </c>
       <c r="P216" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q216">
         <v>5</v>
@@ -42555,7 +42567,7 @@
         <v>0.9</v>
       </c>
       <c r="AS216">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT216">
         <v>1.09</v>
@@ -42659,7 +42671,7 @@
         <v>225</v>
       </c>
       <c r="P217" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q217">
         <v>4</v>
@@ -43041,7 +43053,7 @@
         <v>84</v>
       </c>
       <c r="P219" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q219">
         <v>1</v>
@@ -44520,6 +44532,770 @@
       </c>
       <c r="BK226">
         <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:63">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>2833512</v>
+      </c>
+      <c r="C227" t="s">
+        <v>63</v>
+      </c>
+      <c r="D227" t="s">
+        <v>64</v>
+      </c>
+      <c r="E227" s="2">
+        <v>44996.54166666666</v>
+      </c>
+      <c r="F227">
+        <v>26</v>
+      </c>
+      <c r="G227" t="s">
+        <v>81</v>
+      </c>
+      <c r="H227" t="s">
+        <v>79</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227">
+        <v>1</v>
+      </c>
+      <c r="N227">
+        <v>2</v>
+      </c>
+      <c r="O227" t="s">
+        <v>173</v>
+      </c>
+      <c r="P227" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q227">
+        <v>3</v>
+      </c>
+      <c r="R227">
+        <v>7</v>
+      </c>
+      <c r="S227">
+        <v>10</v>
+      </c>
+      <c r="T227">
+        <v>3</v>
+      </c>
+      <c r="U227">
+        <v>2.1</v>
+      </c>
+      <c r="V227">
+        <v>3.2</v>
+      </c>
+      <c r="W227">
+        <v>1.36</v>
+      </c>
+      <c r="X227">
+        <v>3</v>
+      </c>
+      <c r="Y227">
+        <v>2.63</v>
+      </c>
+      <c r="Z227">
+        <v>1.45</v>
+      </c>
+      <c r="AA227">
+        <v>6.5</v>
+      </c>
+      <c r="AB227">
+        <v>1.1</v>
+      </c>
+      <c r="AC227">
+        <v>2.5</v>
+      </c>
+      <c r="AD227">
+        <v>3.25</v>
+      </c>
+      <c r="AE227">
+        <v>2.5</v>
+      </c>
+      <c r="AF227">
+        <v>1.06</v>
+      </c>
+      <c r="AG227">
+        <v>8</v>
+      </c>
+      <c r="AH227">
+        <v>1.3</v>
+      </c>
+      <c r="AI227">
+        <v>3.4</v>
+      </c>
+      <c r="AJ227">
+        <v>1.95</v>
+      </c>
+      <c r="AK227">
+        <v>1.75</v>
+      </c>
+      <c r="AL227">
+        <v>1.7</v>
+      </c>
+      <c r="AM227">
+        <v>2.1</v>
+      </c>
+      <c r="AN227">
+        <v>1.45</v>
+      </c>
+      <c r="AO227">
+        <v>1.3</v>
+      </c>
+      <c r="AP227">
+        <v>1.53</v>
+      </c>
+      <c r="AQ227">
+        <v>1.64</v>
+      </c>
+      <c r="AR227">
+        <v>1.83</v>
+      </c>
+      <c r="AS227">
+        <v>1.58</v>
+      </c>
+      <c r="AT227">
+        <v>1.77</v>
+      </c>
+      <c r="AU227">
+        <v>1.65</v>
+      </c>
+      <c r="AV227">
+        <v>1.42</v>
+      </c>
+      <c r="AW227">
+        <v>3.07</v>
+      </c>
+      <c r="AX227">
+        <v>2.07</v>
+      </c>
+      <c r="AY227">
+        <v>8.1</v>
+      </c>
+      <c r="AZ227">
+        <v>1.98</v>
+      </c>
+      <c r="BA227">
+        <v>1.5</v>
+      </c>
+      <c r="BB227">
+        <v>1.66</v>
+      </c>
+      <c r="BC227">
+        <v>2.38</v>
+      </c>
+      <c r="BD227">
+        <v>3.42</v>
+      </c>
+      <c r="BE227">
+        <v>0</v>
+      </c>
+      <c r="BF227">
+        <v>6</v>
+      </c>
+      <c r="BG227">
+        <v>7</v>
+      </c>
+      <c r="BH227">
+        <v>4</v>
+      </c>
+      <c r="BI227">
+        <v>1</v>
+      </c>
+      <c r="BJ227">
+        <v>10</v>
+      </c>
+      <c r="BK227">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:63">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>2833511</v>
+      </c>
+      <c r="C228" t="s">
+        <v>63</v>
+      </c>
+      <c r="D228" t="s">
+        <v>64</v>
+      </c>
+      <c r="E228" s="2">
+        <v>44997.3125</v>
+      </c>
+      <c r="F228">
+        <v>26</v>
+      </c>
+      <c r="G228" t="s">
+        <v>78</v>
+      </c>
+      <c r="H228" t="s">
+        <v>77</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>1</v>
+      </c>
+      <c r="L228">
+        <v>4</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>4</v>
+      </c>
+      <c r="O228" t="s">
+        <v>229</v>
+      </c>
+      <c r="P228" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q228">
+        <v>4</v>
+      </c>
+      <c r="R228">
+        <v>3</v>
+      </c>
+      <c r="S228">
+        <v>7</v>
+      </c>
+      <c r="T228">
+        <v>1.97</v>
+      </c>
+      <c r="U228">
+        <v>2.3</v>
+      </c>
+      <c r="V228">
+        <v>6.05</v>
+      </c>
+      <c r="W228">
+        <v>1.36</v>
+      </c>
+      <c r="X228">
+        <v>3</v>
+      </c>
+      <c r="Y228">
+        <v>2.5</v>
+      </c>
+      <c r="Z228">
+        <v>1.5</v>
+      </c>
+      <c r="AA228">
+        <v>6</v>
+      </c>
+      <c r="AB228">
+        <v>1.11</v>
+      </c>
+      <c r="AC228">
+        <v>1.54</v>
+      </c>
+      <c r="AD228">
+        <v>3.85</v>
+      </c>
+      <c r="AE228">
+        <v>4.8</v>
+      </c>
+      <c r="AF228">
+        <v>1.06</v>
+      </c>
+      <c r="AG228">
+        <v>8</v>
+      </c>
+      <c r="AH228">
+        <v>1.29</v>
+      </c>
+      <c r="AI228">
+        <v>3.5</v>
+      </c>
+      <c r="AJ228">
+        <v>1.86</v>
+      </c>
+      <c r="AK228">
+        <v>1.94</v>
+      </c>
+      <c r="AL228">
+        <v>1.91</v>
+      </c>
+      <c r="AM228">
+        <v>1.85</v>
+      </c>
+      <c r="AN228">
+        <v>1.07</v>
+      </c>
+      <c r="AO228">
+        <v>1.25</v>
+      </c>
+      <c r="AP228">
+        <v>2.5</v>
+      </c>
+      <c r="AQ228">
+        <v>1.83</v>
+      </c>
+      <c r="AR228">
+        <v>0.73</v>
+      </c>
+      <c r="AS228">
+        <v>1.92</v>
+      </c>
+      <c r="AT228">
+        <v>0.67</v>
+      </c>
+      <c r="AU228">
+        <v>1.49</v>
+      </c>
+      <c r="AV228">
+        <v>1.17</v>
+      </c>
+      <c r="AW228">
+        <v>2.66</v>
+      </c>
+      <c r="AX228">
+        <v>1.34</v>
+      </c>
+      <c r="AY228">
+        <v>8.15</v>
+      </c>
+      <c r="AZ228">
+        <v>4.1</v>
+      </c>
+      <c r="BA228">
+        <v>1.44</v>
+      </c>
+      <c r="BB228">
+        <v>1.73</v>
+      </c>
+      <c r="BC228">
+        <v>2.07</v>
+      </c>
+      <c r="BD228">
+        <v>2.98</v>
+      </c>
+      <c r="BE228">
+        <v>4.7</v>
+      </c>
+      <c r="BF228">
+        <v>8</v>
+      </c>
+      <c r="BG228">
+        <v>3</v>
+      </c>
+      <c r="BH228">
+        <v>3</v>
+      </c>
+      <c r="BI228">
+        <v>1</v>
+      </c>
+      <c r="BJ228">
+        <v>11</v>
+      </c>
+      <c r="BK228">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:63">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>2833515</v>
+      </c>
+      <c r="C229" t="s">
+        <v>63</v>
+      </c>
+      <c r="D229" t="s">
+        <v>64</v>
+      </c>
+      <c r="E229" s="2">
+        <v>44997.3125</v>
+      </c>
+      <c r="F229">
+        <v>26</v>
+      </c>
+      <c r="G229" t="s">
+        <v>70</v>
+      </c>
+      <c r="H229" t="s">
+        <v>67</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229">
+        <v>2</v>
+      </c>
+      <c r="N229">
+        <v>3</v>
+      </c>
+      <c r="O229" t="s">
+        <v>230</v>
+      </c>
+      <c r="P229" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q229">
+        <v>2</v>
+      </c>
+      <c r="R229">
+        <v>2</v>
+      </c>
+      <c r="S229">
+        <v>4</v>
+      </c>
+      <c r="T229">
+        <v>2.47</v>
+      </c>
+      <c r="U229">
+        <v>2.15</v>
+      </c>
+      <c r="V229">
+        <v>4.08</v>
+      </c>
+      <c r="W229">
+        <v>1.36</v>
+      </c>
+      <c r="X229">
+        <v>3</v>
+      </c>
+      <c r="Y229">
+        <v>2.63</v>
+      </c>
+      <c r="Z229">
+        <v>1.45</v>
+      </c>
+      <c r="AA229">
+        <v>6</v>
+      </c>
+      <c r="AB229">
+        <v>1.11</v>
+      </c>
+      <c r="AC229">
+        <v>2.05</v>
+      </c>
+      <c r="AD229">
+        <v>3.3</v>
+      </c>
+      <c r="AE229">
+        <v>3.05</v>
+      </c>
+      <c r="AF229">
+        <v>1.06</v>
+      </c>
+      <c r="AG229">
+        <v>8</v>
+      </c>
+      <c r="AH229">
+        <v>1.29</v>
+      </c>
+      <c r="AI229">
+        <v>3.5</v>
+      </c>
+      <c r="AJ229">
+        <v>1.97</v>
+      </c>
+      <c r="AK229">
+        <v>1.83</v>
+      </c>
+      <c r="AL229">
+        <v>1.73</v>
+      </c>
+      <c r="AM229">
+        <v>2.06</v>
+      </c>
+      <c r="AN229">
+        <v>1.22</v>
+      </c>
+      <c r="AO229">
+        <v>1.33</v>
+      </c>
+      <c r="AP229">
+        <v>1.75</v>
+      </c>
+      <c r="AQ229">
+        <v>1.83</v>
+      </c>
+      <c r="AR229">
+        <v>1.5</v>
+      </c>
+      <c r="AS229">
+        <v>1.69</v>
+      </c>
+      <c r="AT229">
+        <v>1.62</v>
+      </c>
+      <c r="AU229">
+        <v>1.6</v>
+      </c>
+      <c r="AV229">
+        <v>1.44</v>
+      </c>
+      <c r="AW229">
+        <v>3.04</v>
+      </c>
+      <c r="AX229">
+        <v>1.8</v>
+      </c>
+      <c r="AY229">
+        <v>7.65</v>
+      </c>
+      <c r="AZ229">
+        <v>2.35</v>
+      </c>
+      <c r="BA229">
+        <v>1.4</v>
+      </c>
+      <c r="BB229">
+        <v>1.67</v>
+      </c>
+      <c r="BC229">
+        <v>2.17</v>
+      </c>
+      <c r="BD229">
+        <v>2.63</v>
+      </c>
+      <c r="BE229">
+        <v>4.6</v>
+      </c>
+      <c r="BF229">
+        <v>4</v>
+      </c>
+      <c r="BG229">
+        <v>4</v>
+      </c>
+      <c r="BH229">
+        <v>5</v>
+      </c>
+      <c r="BI229">
+        <v>5</v>
+      </c>
+      <c r="BJ229">
+        <v>9</v>
+      </c>
+      <c r="BK229">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:63">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>2833518</v>
+      </c>
+      <c r="C230" t="s">
+        <v>63</v>
+      </c>
+      <c r="D230" t="s">
+        <v>64</v>
+      </c>
+      <c r="E230" s="2">
+        <v>44997.54166666666</v>
+      </c>
+      <c r="F230">
+        <v>26</v>
+      </c>
+      <c r="G230" t="s">
+        <v>82</v>
+      </c>
+      <c r="H230" t="s">
+        <v>73</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>2</v>
+      </c>
+      <c r="N230">
+        <v>2</v>
+      </c>
+      <c r="O230" t="s">
+        <v>84</v>
+      </c>
+      <c r="P230" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q230">
+        <v>7</v>
+      </c>
+      <c r="R230">
+        <v>5</v>
+      </c>
+      <c r="S230">
+        <v>12</v>
+      </c>
+      <c r="T230">
+        <v>2.72</v>
+      </c>
+      <c r="U230">
+        <v>2.15</v>
+      </c>
+      <c r="V230">
+        <v>3.62</v>
+      </c>
+      <c r="W230">
+        <v>1.36</v>
+      </c>
+      <c r="X230">
+        <v>3</v>
+      </c>
+      <c r="Y230">
+        <v>2.63</v>
+      </c>
+      <c r="Z230">
+        <v>1.45</v>
+      </c>
+      <c r="AA230">
+        <v>6.5</v>
+      </c>
+      <c r="AB230">
+        <v>1.1</v>
+      </c>
+      <c r="AC230">
+        <v>3.1</v>
+      </c>
+      <c r="AD230">
+        <v>3.3</v>
+      </c>
+      <c r="AE230">
+        <v>2.3</v>
+      </c>
+      <c r="AF230">
+        <v>1.06</v>
+      </c>
+      <c r="AG230">
+        <v>8</v>
+      </c>
+      <c r="AH230">
+        <v>1.3</v>
+      </c>
+      <c r="AI230">
+        <v>3.4</v>
+      </c>
+      <c r="AJ230">
+        <v>2.05</v>
+      </c>
+      <c r="AK230">
+        <v>1.75</v>
+      </c>
+      <c r="AL230">
+        <v>1.73</v>
+      </c>
+      <c r="AM230">
+        <v>2.06</v>
+      </c>
+      <c r="AN230">
+        <v>1.33</v>
+      </c>
+      <c r="AO230">
+        <v>1.3</v>
+      </c>
+      <c r="AP230">
+        <v>1.62</v>
+      </c>
+      <c r="AQ230">
+        <v>1.08</v>
+      </c>
+      <c r="AR230">
+        <v>0.83</v>
+      </c>
+      <c r="AS230">
+        <v>1</v>
+      </c>
+      <c r="AT230">
+        <v>1</v>
+      </c>
+      <c r="AU230">
+        <v>1.44</v>
+      </c>
+      <c r="AV230">
+        <v>1.23</v>
+      </c>
+      <c r="AW230">
+        <v>2.67</v>
+      </c>
+      <c r="AX230">
+        <v>2.7</v>
+      </c>
+      <c r="AY230">
+        <v>8.1</v>
+      </c>
+      <c r="AZ230">
+        <v>1.62</v>
+      </c>
+      <c r="BA230">
+        <v>1.4</v>
+      </c>
+      <c r="BB230">
+        <v>1.67</v>
+      </c>
+      <c r="BC230">
+        <v>1.9</v>
+      </c>
+      <c r="BD230">
+        <v>2.63</v>
+      </c>
+      <c r="BE230">
+        <v>0</v>
+      </c>
+      <c r="BF230">
+        <v>5</v>
+      </c>
+      <c r="BG230">
+        <v>4</v>
+      </c>
+      <c r="BH230">
+        <v>6</v>
+      </c>
+      <c r="BI230">
+        <v>6</v>
+      </c>
+      <c r="BJ230">
+        <v>11</v>
+      </c>
+      <c r="BK230">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey 1. Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey 1. Lig_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="330">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -709,6 +709,9 @@
     <t>['59']</t>
   </si>
   <si>
+    <t>['32', '71', '80', '85', '90+1']</t>
+  </si>
+  <si>
     <t>['22', '88']</t>
   </si>
   <si>
@@ -1362,7 +1365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK230"/>
+  <dimension ref="A1:BK234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1606,7 +1609,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1797,7 +1800,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1988,7 +1991,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2179,7 +2182,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2457,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="AT6">
         <v>0.58</v>
@@ -2561,7 +2564,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2752,7 +2755,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2943,7 +2946,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3030,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT9">
         <v>1.17</v>
@@ -3325,7 +3328,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3516,7 +3519,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3606,7 +3609,7 @@
         <v>1.08</v>
       </c>
       <c r="AT12">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3794,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT13">
         <v>1.58</v>
@@ -3898,7 +3901,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3988,7 +3991,7 @@
         <v>0.75</v>
       </c>
       <c r="AT14">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4089,7 +4092,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4370,7 +4373,7 @@
         <v>1.75</v>
       </c>
       <c r="AT16">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4558,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT17">
         <v>0.67</v>
@@ -5044,7 +5047,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q20">
         <v>9</v>
@@ -5131,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="AT20">
         <v>0.77</v>
@@ -5235,7 +5238,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q21">
         <v>9</v>
@@ -5426,7 +5429,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5808,7 +5811,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5999,7 +6002,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -6190,7 +6193,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6381,7 +6384,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6954,7 +6957,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7336,7 +7339,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -7423,7 +7426,7 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT32">
         <v>1.62</v>
@@ -7527,7 +7530,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7808,7 +7811,7 @@
         <v>1.92</v>
       </c>
       <c r="AT34">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU34">
         <v>1.05</v>
@@ -7999,7 +8002,7 @@
         <v>1</v>
       </c>
       <c r="AT35">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU35">
         <v>1.3</v>
@@ -8100,7 +8103,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8187,10 +8190,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT36">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU36">
         <v>1.4</v>
@@ -8378,10 +8381,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT37">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU37">
         <v>1.19</v>
@@ -8673,7 +8676,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8864,7 +8867,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9055,7 +9058,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9246,7 +9249,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -9715,7 +9718,7 @@
         <v>1</v>
       </c>
       <c r="AS44">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="AT44">
         <v>0.67</v>
@@ -10288,10 +10291,10 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT47">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU47">
         <v>1.38</v>
@@ -10392,7 +10395,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10583,7 +10586,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10861,7 +10864,7 @@
         <v>2</v>
       </c>
       <c r="AS50">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT50">
         <v>1.62</v>
@@ -10965,7 +10968,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11052,10 +11055,10 @@
         <v>3</v>
       </c>
       <c r="AS51">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="AT51">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU51">
         <v>1.8</v>
@@ -11437,7 +11440,7 @@
         <v>1.69</v>
       </c>
       <c r="AT53">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU53">
         <v>1.51</v>
@@ -11538,7 +11541,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q54">
         <v>9</v>
@@ -11625,10 +11628,10 @@
         <v>1.5</v>
       </c>
       <c r="AS54">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT54">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU54">
         <v>1.4</v>
@@ -12684,7 +12687,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13257,7 +13260,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13726,10 +13729,10 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT65">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU65">
         <v>1.51</v>
@@ -14111,7 +14114,7 @@
         <v>1.69</v>
       </c>
       <c r="AT67">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU67">
         <v>1.44</v>
@@ -14299,10 +14302,10 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="AT68">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU68">
         <v>1.75</v>
@@ -14490,7 +14493,7 @@
         <v>1.67</v>
       </c>
       <c r="AS69">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT69">
         <v>0.75</v>
@@ -14594,7 +14597,7 @@
         <v>84</v>
       </c>
       <c r="P70" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14785,7 +14788,7 @@
         <v>84</v>
       </c>
       <c r="P71" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14872,7 +14875,7 @@
         <v>0.33</v>
       </c>
       <c r="AS71">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT71">
         <v>1</v>
@@ -14976,7 +14979,7 @@
         <v>84</v>
       </c>
       <c r="P72" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15167,7 +15170,7 @@
         <v>84</v>
       </c>
       <c r="P73" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -15549,7 +15552,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15639,7 +15642,7 @@
         <v>1.75</v>
       </c>
       <c r="AT75">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU75">
         <v>1.69</v>
@@ -15931,7 +15934,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16313,7 +16316,7 @@
         <v>84</v>
       </c>
       <c r="P79" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16504,7 +16507,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16695,7 +16698,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q81">
         <v>9</v>
@@ -16886,7 +16889,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17164,10 +17167,10 @@
         <v>0.75</v>
       </c>
       <c r="AS83">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="AT83">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU83">
         <v>1.87</v>
@@ -17268,7 +17271,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17459,7 +17462,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17841,7 +17844,7 @@
         <v>112</v>
       </c>
       <c r="P87" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -18122,7 +18125,7 @@
         <v>1.69</v>
       </c>
       <c r="AT88">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU88">
         <v>1.53</v>
@@ -18310,7 +18313,7 @@
         <v>0.75</v>
       </c>
       <c r="AS89">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT89">
         <v>1.33</v>
@@ -18414,7 +18417,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18501,7 +18504,7 @@
         <v>2.33</v>
       </c>
       <c r="AS90">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT90">
         <v>0.92</v>
@@ -18605,7 +18608,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -18692,7 +18695,7 @@
         <v>1.25</v>
       </c>
       <c r="AS91">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT91">
         <v>0.75</v>
@@ -18796,7 +18799,7 @@
         <v>84</v>
       </c>
       <c r="P92" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q92">
         <v>0</v>
@@ -18987,7 +18990,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -19178,7 +19181,7 @@
         <v>84</v>
       </c>
       <c r="P94" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19369,7 +19372,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19459,7 +19462,7 @@
         <v>2.15</v>
       </c>
       <c r="AT95">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU95">
         <v>1.51</v>
@@ -19751,7 +19754,7 @@
         <v>147</v>
       </c>
       <c r="P97" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -20324,7 +20327,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20414,7 +20417,7 @@
         <v>0.67</v>
       </c>
       <c r="AT100">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU100">
         <v>1.49</v>
@@ -20796,7 +20799,7 @@
         <v>1.75</v>
       </c>
       <c r="AT102">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU102">
         <v>1.8</v>
@@ -21088,7 +21091,7 @@
         <v>153</v>
       </c>
       <c r="P104" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21175,7 +21178,7 @@
         <v>1</v>
       </c>
       <c r="AS104">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT104">
         <v>0.75</v>
@@ -21279,7 +21282,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21366,7 +21369,7 @@
         <v>2</v>
       </c>
       <c r="AS105">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT105">
         <v>1.77</v>
@@ -21560,7 +21563,7 @@
         <v>1.25</v>
       </c>
       <c r="AT106">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU106">
         <v>1.02</v>
@@ -21661,7 +21664,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21939,7 +21942,7 @@
         <v>1.2</v>
       </c>
       <c r="AS108">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT108">
         <v>1.33</v>
@@ -22043,7 +22046,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -22130,7 +22133,7 @@
         <v>1.6</v>
       </c>
       <c r="AS109">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="AT109">
         <v>0.67</v>
@@ -22425,7 +22428,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -22807,7 +22810,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -22998,7 +23001,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23088,7 +23091,7 @@
         <v>1.64</v>
       </c>
       <c r="AT114">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU114">
         <v>1.23</v>
@@ -23189,7 +23192,7 @@
         <v>84</v>
       </c>
       <c r="P115" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23279,7 +23282,7 @@
         <v>0.75</v>
       </c>
       <c r="AT115">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU115">
         <v>1.43</v>
@@ -23380,7 +23383,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23762,7 +23765,7 @@
         <v>117</v>
       </c>
       <c r="P118" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23953,7 +23956,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -24040,7 +24043,7 @@
         <v>1.71</v>
       </c>
       <c r="AS119">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT119">
         <v>1.77</v>
@@ -24613,7 +24616,7 @@
         <v>1.33</v>
       </c>
       <c r="AS122">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT122">
         <v>0.67</v>
@@ -24717,7 +24720,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24995,7 +24998,7 @@
         <v>1</v>
       </c>
       <c r="AS124">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="AT124">
         <v>1.33</v>
@@ -25290,7 +25293,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25380,7 +25383,7 @@
         <v>2.15</v>
       </c>
       <c r="AT126">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU126">
         <v>1.41</v>
@@ -26144,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="AT130">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU130">
         <v>1.59</v>
@@ -26245,7 +26248,7 @@
         <v>147</v>
       </c>
       <c r="P131" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -26627,7 +26630,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26818,7 +26821,7 @@
         <v>145</v>
       </c>
       <c r="P134" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -26908,7 +26911,7 @@
         <v>1</v>
       </c>
       <c r="AT134">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU134">
         <v>1.51</v>
@@ -27009,7 +27012,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -27099,7 +27102,7 @@
         <v>0.75</v>
       </c>
       <c r="AT135">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU135">
         <v>1.37</v>
@@ -27287,7 +27290,7 @@
         <v>1.57</v>
       </c>
       <c r="AS136">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="AT136">
         <v>1.17</v>
@@ -27860,7 +27863,7 @@
         <v>0</v>
       </c>
       <c r="AS139">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT139">
         <v>0.58</v>
@@ -28346,7 +28349,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q142">
         <v>1</v>
@@ -28433,7 +28436,7 @@
         <v>0.86</v>
       </c>
       <c r="AS142">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT142">
         <v>1.33</v>
@@ -29006,7 +29009,7 @@
         <v>1</v>
       </c>
       <c r="AS145">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT145">
         <v>0.77</v>
@@ -29110,7 +29113,7 @@
         <v>84</v>
       </c>
       <c r="P146" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29492,7 +29495,7 @@
         <v>181</v>
       </c>
       <c r="P148" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q148">
         <v>2</v>
@@ -29582,7 +29585,7 @@
         <v>1</v>
       </c>
       <c r="AT148">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU148">
         <v>1.41</v>
@@ -29773,7 +29776,7 @@
         <v>1.58</v>
       </c>
       <c r="AT149">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU149">
         <v>1.81</v>
@@ -29874,7 +29877,7 @@
         <v>183</v>
       </c>
       <c r="P150" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -29964,7 +29967,7 @@
         <v>2</v>
       </c>
       <c r="AT150">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU150">
         <v>1.6</v>
@@ -30065,7 +30068,7 @@
         <v>169</v>
       </c>
       <c r="P151" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30256,7 +30259,7 @@
         <v>84</v>
       </c>
       <c r="P152" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30447,7 +30450,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30537,7 +30540,7 @@
         <v>1.75</v>
       </c>
       <c r="AT153">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU153">
         <v>1.46</v>
@@ -30638,7 +30641,7 @@
         <v>84</v>
       </c>
       <c r="P154" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -31489,7 +31492,7 @@
         <v>1.88</v>
       </c>
       <c r="AS158">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT158">
         <v>1.75</v>
@@ -31680,7 +31683,7 @@
         <v>1.14</v>
       </c>
       <c r="AS159">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="AT159">
         <v>0.92</v>
@@ -32166,7 +32169,7 @@
         <v>189</v>
       </c>
       <c r="P162" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32253,7 +32256,7 @@
         <v>0</v>
       </c>
       <c r="AS162">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT162">
         <v>0.58</v>
@@ -32357,7 +32360,7 @@
         <v>190</v>
       </c>
       <c r="P163" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q163">
         <v>7</v>
@@ -32447,7 +32450,7 @@
         <v>1.08</v>
       </c>
       <c r="AT163">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU163">
         <v>1.13</v>
@@ -32829,7 +32832,7 @@
         <v>1.75</v>
       </c>
       <c r="AT165">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU165">
         <v>1.44</v>
@@ -32930,7 +32933,7 @@
         <v>192</v>
       </c>
       <c r="P166" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q166">
         <v>8</v>
@@ -33312,7 +33315,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q168">
         <v>1</v>
@@ -33402,7 +33405,7 @@
         <v>0.67</v>
       </c>
       <c r="AT168">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU168">
         <v>1.26</v>
@@ -33590,7 +33593,7 @@
         <v>0.25</v>
       </c>
       <c r="AS169">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT169">
         <v>0.67</v>
@@ -34357,7 +34360,7 @@
         <v>2</v>
       </c>
       <c r="AT173">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU173">
         <v>1.64</v>
@@ -34649,7 +34652,7 @@
         <v>198</v>
       </c>
       <c r="P175" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q175">
         <v>7</v>
@@ -34736,10 +34739,10 @@
         <v>1.13</v>
       </c>
       <c r="AS175">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT175">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU175">
         <v>1.92</v>
@@ -34930,7 +34933,7 @@
         <v>1.58</v>
       </c>
       <c r="AT176">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU176">
         <v>1.72</v>
@@ -35222,7 +35225,7 @@
         <v>199</v>
       </c>
       <c r="P178" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q178">
         <v>5</v>
@@ -35309,7 +35312,7 @@
         <v>1.63</v>
       </c>
       <c r="AS178">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT178">
         <v>1.58</v>
@@ -35604,7 +35607,7 @@
         <v>168</v>
       </c>
       <c r="P180" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -35795,7 +35798,7 @@
         <v>201</v>
       </c>
       <c r="P181" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -35986,7 +35989,7 @@
         <v>202</v>
       </c>
       <c r="P182" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q182">
         <v>5</v>
@@ -36368,7 +36371,7 @@
         <v>203</v>
       </c>
       <c r="P184" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q184">
         <v>6</v>
@@ -36559,7 +36562,7 @@
         <v>204</v>
       </c>
       <c r="P185" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -36750,7 +36753,7 @@
         <v>205</v>
       </c>
       <c r="P186" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q186">
         <v>0</v>
@@ -36941,7 +36944,7 @@
         <v>206</v>
       </c>
       <c r="P187" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -37028,7 +37031,7 @@
         <v>1.56</v>
       </c>
       <c r="AS187">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="AT187">
         <v>1.75</v>
@@ -37132,7 +37135,7 @@
         <v>207</v>
       </c>
       <c r="P188" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q188">
         <v>5</v>
@@ -37219,7 +37222,7 @@
         <v>0.9</v>
       </c>
       <c r="AS188">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT188">
         <v>0.77</v>
@@ -37323,7 +37326,7 @@
         <v>208</v>
       </c>
       <c r="P189" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37604,7 +37607,7 @@
         <v>1.58</v>
       </c>
       <c r="AT190">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU190">
         <v>1.69</v>
@@ -37705,7 +37708,7 @@
         <v>210</v>
       </c>
       <c r="P191" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -37795,7 +37798,7 @@
         <v>1.08</v>
       </c>
       <c r="AT191">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU191">
         <v>1.31</v>
@@ -37896,7 +37899,7 @@
         <v>211</v>
       </c>
       <c r="P192" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -38087,7 +38090,7 @@
         <v>84</v>
       </c>
       <c r="P193" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38278,7 +38281,7 @@
         <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38368,7 +38371,7 @@
         <v>1.92</v>
       </c>
       <c r="AT194">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU194">
         <v>1.45</v>
@@ -38469,7 +38472,7 @@
         <v>212</v>
       </c>
       <c r="P195" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38556,7 +38559,7 @@
         <v>1.78</v>
       </c>
       <c r="AS195">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT195">
         <v>1.58</v>
@@ -38660,7 +38663,7 @@
         <v>213</v>
       </c>
       <c r="P196" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -38747,7 +38750,7 @@
         <v>1.44</v>
       </c>
       <c r="AS196">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT196">
         <v>1.58</v>
@@ -38941,7 +38944,7 @@
         <v>1</v>
       </c>
       <c r="AT197">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU197">
         <v>1.41</v>
@@ -39129,7 +39132,7 @@
         <v>0.91</v>
       </c>
       <c r="AS198">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT198">
         <v>1</v>
@@ -39233,7 +39236,7 @@
         <v>84</v>
       </c>
       <c r="P199" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -39424,7 +39427,7 @@
         <v>148</v>
       </c>
       <c r="P200" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q200">
         <v>8</v>
@@ -39615,7 +39618,7 @@
         <v>117</v>
       </c>
       <c r="P201" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q201">
         <v>7</v>
@@ -39806,7 +39809,7 @@
         <v>215</v>
       </c>
       <c r="P202" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q202">
         <v>1</v>
@@ -39997,7 +40000,7 @@
         <v>216</v>
       </c>
       <c r="P203" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q203">
         <v>4</v>
@@ -40848,7 +40851,7 @@
         <v>1.9</v>
       </c>
       <c r="AS207">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="AT207">
         <v>1.58</v>
@@ -40952,7 +40955,7 @@
         <v>112</v>
       </c>
       <c r="P208" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q208">
         <v>10</v>
@@ -41615,7 +41618,7 @@
         <v>1.92</v>
       </c>
       <c r="AT211">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU211">
         <v>1.41</v>
@@ -41803,7 +41806,7 @@
         <v>1.64</v>
       </c>
       <c r="AS212">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT212">
         <v>1.62</v>
@@ -41997,7 +42000,7 @@
         <v>1.69</v>
       </c>
       <c r="AT213">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU213">
         <v>1.58</v>
@@ -42185,7 +42188,7 @@
         <v>1.3</v>
       </c>
       <c r="AS214">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT214">
         <v>1.58</v>
@@ -42376,10 +42379,10 @@
         <v>1.2</v>
       </c>
       <c r="AS215">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT215">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU215">
         <v>1.46</v>
@@ -42480,7 +42483,7 @@
         <v>84</v>
       </c>
       <c r="P216" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q216">
         <v>5</v>
@@ -42570,7 +42573,7 @@
         <v>1</v>
       </c>
       <c r="AT216">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU216">
         <v>1.45</v>
@@ -42671,7 +42674,7 @@
         <v>225</v>
       </c>
       <c r="P217" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q217">
         <v>4</v>
@@ -43053,7 +43056,7 @@
         <v>84</v>
       </c>
       <c r="P219" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q219">
         <v>1</v>
@@ -44581,7 +44584,7 @@
         <v>173</v>
       </c>
       <c r="P227" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q227">
         <v>3</v>
@@ -44963,7 +44966,7 @@
         <v>230</v>
       </c>
       <c r="P229" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q229">
         <v>2</v>
@@ -45112,7 +45115,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>2833518</v>
+        <v>2833516</v>
       </c>
       <c r="C230" t="s">
         <v>63</v>
@@ -45121,16 +45124,16 @@
         <v>64</v>
       </c>
       <c r="E230" s="2">
-        <v>44997.54166666666</v>
+        <v>44997.45833333334</v>
       </c>
       <c r="F230">
         <v>26</v>
       </c>
       <c r="G230" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H230" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I230">
         <v>0</v>
@@ -45145,157 +45148,921 @@
         <v>0</v>
       </c>
       <c r="M230">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N230">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O230" t="s">
         <v>84</v>
       </c>
       <c r="P230" t="s">
-        <v>328</v>
+        <v>227</v>
       </c>
       <c r="Q230">
+        <v>-1</v>
+      </c>
+      <c r="R230">
+        <v>-1</v>
+      </c>
+      <c r="S230">
+        <v>-1</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+      <c r="AB230">
+        <v>0</v>
+      </c>
+      <c r="AC230">
+        <v>0</v>
+      </c>
+      <c r="AD230">
+        <v>0</v>
+      </c>
+      <c r="AE230">
+        <v>0</v>
+      </c>
+      <c r="AF230">
+        <v>0</v>
+      </c>
+      <c r="AG230">
+        <v>0</v>
+      </c>
+      <c r="AH230">
+        <v>0</v>
+      </c>
+      <c r="AI230">
+        <v>0</v>
+      </c>
+      <c r="AJ230">
+        <v>0</v>
+      </c>
+      <c r="AK230">
+        <v>0</v>
+      </c>
+      <c r="AL230">
+        <v>0</v>
+      </c>
+      <c r="AM230">
+        <v>0</v>
+      </c>
+      <c r="AN230">
+        <v>0</v>
+      </c>
+      <c r="AO230">
+        <v>0</v>
+      </c>
+      <c r="AP230">
+        <v>0</v>
+      </c>
+      <c r="AQ230">
+        <v>0.82</v>
+      </c>
+      <c r="AR230">
+        <v>1.09</v>
+      </c>
+      <c r="AS230">
+        <v>0.75</v>
+      </c>
+      <c r="AT230">
+        <v>1.25</v>
+      </c>
+      <c r="AU230">
+        <v>1.46</v>
+      </c>
+      <c r="AV230">
+        <v>1.24</v>
+      </c>
+      <c r="AW230">
+        <v>2.7</v>
+      </c>
+      <c r="AX230">
+        <v>0</v>
+      </c>
+      <c r="AY230">
+        <v>0</v>
+      </c>
+      <c r="AZ230">
+        <v>0</v>
+      </c>
+      <c r="BA230">
+        <v>0</v>
+      </c>
+      <c r="BB230">
+        <v>0</v>
+      </c>
+      <c r="BC230">
+        <v>0</v>
+      </c>
+      <c r="BD230">
+        <v>0</v>
+      </c>
+      <c r="BE230">
+        <v>0</v>
+      </c>
+      <c r="BF230">
+        <v>-1</v>
+      </c>
+      <c r="BG230">
+        <v>-1</v>
+      </c>
+      <c r="BH230">
+        <v>-1</v>
+      </c>
+      <c r="BI230">
+        <v>-1</v>
+      </c>
+      <c r="BJ230">
+        <v>-1</v>
+      </c>
+      <c r="BK230">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:63">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>2833514</v>
+      </c>
+      <c r="C231" t="s">
+        <v>63</v>
+      </c>
+      <c r="D231" t="s">
+        <v>64</v>
+      </c>
+      <c r="E231" s="2">
+        <v>44997.54166666666</v>
+      </c>
+      <c r="F231">
+        <v>26</v>
+      </c>
+      <c r="G231" t="s">
+        <v>72</v>
+      </c>
+      <c r="H231" t="s">
+        <v>66</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>3</v>
+      </c>
+      <c r="N231">
+        <v>3</v>
+      </c>
+      <c r="O231" t="s">
+        <v>84</v>
+      </c>
+      <c r="P231" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q231">
+        <v>-1</v>
+      </c>
+      <c r="R231">
+        <v>-1</v>
+      </c>
+      <c r="S231">
+        <v>-1</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+      <c r="AB231">
+        <v>0</v>
+      </c>
+      <c r="AC231">
+        <v>0</v>
+      </c>
+      <c r="AD231">
+        <v>0</v>
+      </c>
+      <c r="AE231">
+        <v>0</v>
+      </c>
+      <c r="AF231">
+        <v>0</v>
+      </c>
+      <c r="AG231">
+        <v>0</v>
+      </c>
+      <c r="AH231">
+        <v>0</v>
+      </c>
+      <c r="AI231">
+        <v>0</v>
+      </c>
+      <c r="AJ231">
+        <v>0</v>
+      </c>
+      <c r="AK231">
+        <v>0</v>
+      </c>
+      <c r="AL231">
+        <v>0</v>
+      </c>
+      <c r="AM231">
+        <v>0</v>
+      </c>
+      <c r="AN231">
+        <v>0</v>
+      </c>
+      <c r="AO231">
+        <v>0</v>
+      </c>
+      <c r="AP231">
+        <v>0</v>
+      </c>
+      <c r="AQ231">
+        <v>1.42</v>
+      </c>
+      <c r="AR231">
+        <v>1.36</v>
+      </c>
+      <c r="AS231">
+        <v>1.31</v>
+      </c>
+      <c r="AT231">
+        <v>1.5</v>
+      </c>
+      <c r="AU231">
+        <v>1.57</v>
+      </c>
+      <c r="AV231">
+        <v>1.43</v>
+      </c>
+      <c r="AW231">
+        <v>3</v>
+      </c>
+      <c r="AX231">
+        <v>0</v>
+      </c>
+      <c r="AY231">
+        <v>0</v>
+      </c>
+      <c r="AZ231">
+        <v>0</v>
+      </c>
+      <c r="BA231">
+        <v>0</v>
+      </c>
+      <c r="BB231">
+        <v>0</v>
+      </c>
+      <c r="BC231">
+        <v>0</v>
+      </c>
+      <c r="BD231">
+        <v>0</v>
+      </c>
+      <c r="BE231">
+        <v>0</v>
+      </c>
+      <c r="BF231">
+        <v>-1</v>
+      </c>
+      <c r="BG231">
+        <v>-1</v>
+      </c>
+      <c r="BH231">
+        <v>-1</v>
+      </c>
+      <c r="BI231">
+        <v>-1</v>
+      </c>
+      <c r="BJ231">
+        <v>-1</v>
+      </c>
+      <c r="BK231">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:63">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>2833518</v>
+      </c>
+      <c r="C232" t="s">
+        <v>63</v>
+      </c>
+      <c r="D232" t="s">
+        <v>64</v>
+      </c>
+      <c r="E232" s="2">
+        <v>44997.54166666666</v>
+      </c>
+      <c r="F232">
+        <v>26</v>
+      </c>
+      <c r="G232" t="s">
+        <v>82</v>
+      </c>
+      <c r="H232" t="s">
+        <v>73</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>2</v>
+      </c>
+      <c r="N232">
+        <v>2</v>
+      </c>
+      <c r="O232" t="s">
+        <v>84</v>
+      </c>
+      <c r="P232" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q232">
         <v>7</v>
       </c>
-      <c r="R230">
+      <c r="R232">
         <v>5</v>
       </c>
-      <c r="S230">
+      <c r="S232">
         <v>12</v>
       </c>
-      <c r="T230">
+      <c r="T232">
         <v>2.72</v>
       </c>
-      <c r="U230">
+      <c r="U232">
         <v>2.15</v>
       </c>
-      <c r="V230">
+      <c r="V232">
         <v>3.62</v>
       </c>
-      <c r="W230">
+      <c r="W232">
         <v>1.36</v>
       </c>
-      <c r="X230">
-        <v>3</v>
-      </c>
-      <c r="Y230">
+      <c r="X232">
+        <v>3</v>
+      </c>
+      <c r="Y232">
         <v>2.63</v>
       </c>
-      <c r="Z230">
+      <c r="Z232">
         <v>1.45</v>
       </c>
-      <c r="AA230">
+      <c r="AA232">
         <v>6.5</v>
       </c>
-      <c r="AB230">
+      <c r="AB232">
         <v>1.1</v>
       </c>
-      <c r="AC230">
+      <c r="AC232">
         <v>3.1</v>
       </c>
-      <c r="AD230">
+      <c r="AD232">
         <v>3.3</v>
       </c>
-      <c r="AE230">
+      <c r="AE232">
         <v>2.3</v>
       </c>
-      <c r="AF230">
+      <c r="AF232">
         <v>1.06</v>
       </c>
-      <c r="AG230">
+      <c r="AG232">
         <v>8</v>
       </c>
-      <c r="AH230">
+      <c r="AH232">
         <v>1.3</v>
       </c>
-      <c r="AI230">
+      <c r="AI232">
         <v>3.4</v>
       </c>
-      <c r="AJ230">
+      <c r="AJ232">
         <v>2.05</v>
       </c>
-      <c r="AK230">
+      <c r="AK232">
         <v>1.75</v>
       </c>
-      <c r="AL230">
+      <c r="AL232">
         <v>1.73</v>
       </c>
-      <c r="AM230">
+      <c r="AM232">
         <v>2.06</v>
       </c>
-      <c r="AN230">
+      <c r="AN232">
         <v>1.33</v>
       </c>
-      <c r="AO230">
+      <c r="AO232">
         <v>1.3</v>
       </c>
-      <c r="AP230">
+      <c r="AP232">
         <v>1.62</v>
       </c>
-      <c r="AQ230">
+      <c r="AQ232">
         <v>1.08</v>
       </c>
-      <c r="AR230">
+      <c r="AR232">
         <v>0.83</v>
       </c>
-      <c r="AS230">
-        <v>1</v>
-      </c>
-      <c r="AT230">
-        <v>1</v>
-      </c>
-      <c r="AU230">
+      <c r="AS232">
+        <v>1</v>
+      </c>
+      <c r="AT232">
+        <v>1</v>
+      </c>
+      <c r="AU232">
         <v>1.44</v>
       </c>
-      <c r="AV230">
+      <c r="AV232">
         <v>1.23</v>
       </c>
-      <c r="AW230">
+      <c r="AW232">
         <v>2.67</v>
       </c>
-      <c r="AX230">
+      <c r="AX232">
         <v>2.7</v>
       </c>
-      <c r="AY230">
+      <c r="AY232">
         <v>8.1</v>
       </c>
-      <c r="AZ230">
+      <c r="AZ232">
         <v>1.62</v>
       </c>
-      <c r="BA230">
+      <c r="BA232">
         <v>1.4</v>
       </c>
-      <c r="BB230">
+      <c r="BB232">
         <v>1.67</v>
       </c>
-      <c r="BC230">
+      <c r="BC232">
         <v>1.9</v>
       </c>
-      <c r="BD230">
+      <c r="BD232">
         <v>2.63</v>
       </c>
-      <c r="BE230">
-        <v>0</v>
-      </c>
-      <c r="BF230">
+      <c r="BE232">
+        <v>0</v>
+      </c>
+      <c r="BF232">
         <v>5</v>
       </c>
-      <c r="BG230">
+      <c r="BG232">
         <v>4</v>
       </c>
-      <c r="BH230">
+      <c r="BH232">
         <v>6</v>
       </c>
-      <c r="BI230">
+      <c r="BI232">
         <v>6</v>
       </c>
-      <c r="BJ230">
+      <c r="BJ232">
         <v>11</v>
       </c>
-      <c r="BK230">
+      <c r="BK232">
         <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:63">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>2833513</v>
+      </c>
+      <c r="C233" t="s">
+        <v>63</v>
+      </c>
+      <c r="D233" t="s">
+        <v>64</v>
+      </c>
+      <c r="E233" s="2">
+        <v>44998.58333333334</v>
+      </c>
+      <c r="F233">
+        <v>26</v>
+      </c>
+      <c r="G233" t="s">
+        <v>69</v>
+      </c>
+      <c r="H233" t="s">
+        <v>65</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>1</v>
+      </c>
+      <c r="N233">
+        <v>1</v>
+      </c>
+      <c r="O233" t="s">
+        <v>84</v>
+      </c>
+      <c r="P233" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q233">
+        <v>11</v>
+      </c>
+      <c r="R233">
+        <v>3</v>
+      </c>
+      <c r="S233">
+        <v>14</v>
+      </c>
+      <c r="T233">
+        <v>1.98</v>
+      </c>
+      <c r="U233">
+        <v>2.25</v>
+      </c>
+      <c r="V233">
+        <v>6.4</v>
+      </c>
+      <c r="W233">
+        <v>1.34</v>
+      </c>
+      <c r="X233">
+        <v>3</v>
+      </c>
+      <c r="Y233">
+        <v>2.7</v>
+      </c>
+      <c r="Z233">
+        <v>1.41</v>
+      </c>
+      <c r="AA233">
+        <v>6.9</v>
+      </c>
+      <c r="AB233">
+        <v>1.07</v>
+      </c>
+      <c r="AC233">
+        <v>1.44</v>
+      </c>
+      <c r="AD233">
+        <v>4.33</v>
+      </c>
+      <c r="AE233">
+        <v>7.5</v>
+      </c>
+      <c r="AF233">
+        <v>1.03</v>
+      </c>
+      <c r="AG233">
+        <v>13</v>
+      </c>
+      <c r="AH233">
+        <v>1.28</v>
+      </c>
+      <c r="AI233">
+        <v>3.75</v>
+      </c>
+      <c r="AJ233">
+        <v>1.87</v>
+      </c>
+      <c r="AK233">
+        <v>1.9</v>
+      </c>
+      <c r="AL233">
+        <v>1.97</v>
+      </c>
+      <c r="AM233">
+        <v>1.8</v>
+      </c>
+      <c r="AN233">
+        <v>1.09</v>
+      </c>
+      <c r="AO233">
+        <v>1.2</v>
+      </c>
+      <c r="AP233">
+        <v>2.57</v>
+      </c>
+      <c r="AQ233">
+        <v>2.58</v>
+      </c>
+      <c r="AR233">
+        <v>0.91</v>
+      </c>
+      <c r="AS233">
+        <v>2.38</v>
+      </c>
+      <c r="AT233">
+        <v>1.08</v>
+      </c>
+      <c r="AU233">
+        <v>1.86</v>
+      </c>
+      <c r="AV233">
+        <v>1.04</v>
+      </c>
+      <c r="AW233">
+        <v>2.9</v>
+      </c>
+      <c r="AX233">
+        <v>1.17</v>
+      </c>
+      <c r="AY233">
+        <v>8</v>
+      </c>
+      <c r="AZ233">
+        <v>6.25</v>
+      </c>
+      <c r="BA233">
+        <v>1.5</v>
+      </c>
+      <c r="BB233">
+        <v>1.8</v>
+      </c>
+      <c r="BC233">
+        <v>2.25</v>
+      </c>
+      <c r="BD233">
+        <v>3.1</v>
+      </c>
+      <c r="BE233">
+        <v>3.9</v>
+      </c>
+      <c r="BF233">
+        <v>3</v>
+      </c>
+      <c r="BG233">
+        <v>6</v>
+      </c>
+      <c r="BH233">
+        <v>11</v>
+      </c>
+      <c r="BI233">
+        <v>3</v>
+      </c>
+      <c r="BJ233">
+        <v>14</v>
+      </c>
+      <c r="BK233">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:63">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>2833517</v>
+      </c>
+      <c r="C234" t="s">
+        <v>63</v>
+      </c>
+      <c r="D234" t="s">
+        <v>64</v>
+      </c>
+      <c r="E234" s="2">
+        <v>44998.58333333334</v>
+      </c>
+      <c r="F234">
+        <v>26</v>
+      </c>
+      <c r="G234" t="s">
+        <v>76</v>
+      </c>
+      <c r="H234" t="s">
+        <v>83</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>1</v>
+      </c>
+      <c r="L234">
+        <v>5</v>
+      </c>
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <v>5</v>
+      </c>
+      <c r="O234" t="s">
+        <v>231</v>
+      </c>
+      <c r="P234" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q234">
+        <v>8</v>
+      </c>
+      <c r="R234">
+        <v>0</v>
+      </c>
+      <c r="S234">
+        <v>8</v>
+      </c>
+      <c r="T234">
+        <v>2.21</v>
+      </c>
+      <c r="U234">
+        <v>2.28</v>
+      </c>
+      <c r="V234">
+        <v>4.66</v>
+      </c>
+      <c r="W234">
+        <v>1.3</v>
+      </c>
+      <c r="X234">
+        <v>3.2</v>
+      </c>
+      <c r="Y234">
+        <v>2.45</v>
+      </c>
+      <c r="Z234">
+        <v>1.49</v>
+      </c>
+      <c r="AA234">
+        <v>5.95</v>
+      </c>
+      <c r="AB234">
+        <v>1.1</v>
+      </c>
+      <c r="AC234">
+        <v>1.9</v>
+      </c>
+      <c r="AD234">
+        <v>3.5</v>
+      </c>
+      <c r="AE234">
+        <v>4</v>
+      </c>
+      <c r="AF234">
+        <v>1.02</v>
+      </c>
+      <c r="AG234">
+        <v>15</v>
+      </c>
+      <c r="AH234">
+        <v>1.22</v>
+      </c>
+      <c r="AI234">
+        <v>4.2</v>
+      </c>
+      <c r="AJ234">
+        <v>1.9</v>
+      </c>
+      <c r="AK234">
+        <v>1.87</v>
+      </c>
+      <c r="AL234">
+        <v>1.65</v>
+      </c>
+      <c r="AM234">
+        <v>2.18</v>
+      </c>
+      <c r="AN234">
+        <v>1.18</v>
+      </c>
+      <c r="AO234">
+        <v>1.22</v>
+      </c>
+      <c r="AP234">
+        <v>2.09</v>
+      </c>
+      <c r="AQ234">
+        <v>2.25</v>
+      </c>
+      <c r="AR234">
+        <v>1.33</v>
+      </c>
+      <c r="AS234">
+        <v>2.31</v>
+      </c>
+      <c r="AT234">
+        <v>1.23</v>
+      </c>
+      <c r="AU234">
+        <v>1.96</v>
+      </c>
+      <c r="AV234">
+        <v>1.74</v>
+      </c>
+      <c r="AW234">
+        <v>3.7</v>
+      </c>
+      <c r="AX234">
+        <v>1.42</v>
+      </c>
+      <c r="AY234">
+        <v>7.8</v>
+      </c>
+      <c r="AZ234">
+        <v>3.5</v>
+      </c>
+      <c r="BA234">
+        <v>1.38</v>
+      </c>
+      <c r="BB234">
+        <v>1.72</v>
+      </c>
+      <c r="BC234">
+        <v>2.15</v>
+      </c>
+      <c r="BD234">
+        <v>2.98</v>
+      </c>
+      <c r="BE234">
+        <v>4.1</v>
+      </c>
+      <c r="BF234">
+        <v>14</v>
+      </c>
+      <c r="BG234">
+        <v>2</v>
+      </c>
+      <c r="BH234">
+        <v>9</v>
+      </c>
+      <c r="BI234">
+        <v>0</v>
+      </c>
+      <c r="BJ234">
+        <v>23</v>
+      </c>
+      <c r="BK234">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey 1. Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey 1. Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK234"/>
+  <dimension ref="A1:BK237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.25</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT4" t="n">
         <v>1.75</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT5" t="n">
         <v>0.67</v>
@@ -2324,7 +2324,7 @@
         <v>1.31</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT14" t="n">
         <v>1.25</v>
@@ -3745,7 +3745,7 @@
         <v>1.75</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU22" t="n">
         <v>1.8</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT26" t="n">
         <v>1.77</v>
@@ -6181,7 +6181,7 @@
         <v>2.15</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU28" t="n">
         <v>1.78</v>
@@ -7805,7 +7805,7 @@
         <v>1.31</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU36" t="n">
         <v>1.4</v>
@@ -8817,10 +8817,10 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU41" t="n">
         <v>1.81</v>
@@ -9223,10 +9223,10 @@
         <v>2</v>
       </c>
       <c r="AS43" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU43" t="n">
         <v>1.51</v>
@@ -9832,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT46" t="n">
         <v>1.77</v>
@@ -10038,7 +10038,7 @@
         <v>0.75</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU47" t="n">
         <v>1.38</v>
@@ -12268,7 +12268,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT58" t="n">
         <v>1.58</v>
@@ -12880,7 +12880,7 @@
         <v>1.64</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU61" t="n">
         <v>1.35</v>
@@ -13083,7 +13083,7 @@
         <v>2</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU62" t="n">
         <v>1.42</v>
@@ -13283,7 +13283,7 @@
         <v>1.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT63" t="n">
         <v>1.75</v>
@@ -15722,7 +15722,7 @@
         <v>1.75</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU75" t="n">
         <v>1.69</v>
@@ -15922,7 +15922,7 @@
         <v>0.67</v>
       </c>
       <c r="AS76" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT76" t="n">
         <v>1.58</v>
@@ -16125,7 +16125,7 @@
         <v>2</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT77" t="n">
         <v>1.75</v>
@@ -16328,10 +16328,10 @@
         <v>1.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU78" t="n">
         <v>1.51</v>
@@ -16940,7 +16940,7 @@
         <v>1.58</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU81" t="n">
         <v>1.73</v>
@@ -19170,7 +19170,7 @@
         <v>0.8</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT92" t="n">
         <v>0.77</v>
@@ -19579,7 +19579,7 @@
         <v>1.75</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU94" t="n">
         <v>1.88</v>
@@ -19782,7 +19782,7 @@
         <v>2.15</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU95" t="n">
         <v>1.51</v>
@@ -20794,7 +20794,7 @@
         <v>1.33</v>
       </c>
       <c r="AS100" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT100" t="n">
         <v>1.5</v>
@@ -20997,7 +20997,7 @@
         <v>1</v>
       </c>
       <c r="AS101" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT101" t="n">
         <v>1</v>
@@ -22218,7 +22218,7 @@
         <v>1</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU107" t="n">
         <v>1.42</v>
@@ -23436,7 +23436,7 @@
         <v>1.08</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU113" t="n">
         <v>1.08</v>
@@ -23839,10 +23839,10 @@
         <v>1.2</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU115" t="n">
         <v>1.43</v>
@@ -24042,7 +24042,7 @@
         <v>1.2</v>
       </c>
       <c r="AS116" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT116" t="n">
         <v>1.58</v>
@@ -25466,7 +25466,7 @@
         <v>1.69</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU123" t="n">
         <v>1.47</v>
@@ -25869,7 +25869,7 @@
         <v>1.6</v>
       </c>
       <c r="AS125" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT125" t="n">
         <v>0.92</v>
@@ -27087,7 +27087,7 @@
         <v>1.43</v>
       </c>
       <c r="AS131" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT131" t="n">
         <v>1.62</v>
@@ -27496,7 +27496,7 @@
         <v>1.92</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU133" t="n">
         <v>1.54</v>
@@ -27899,7 +27899,7 @@
         <v>1.4</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT135" t="n">
         <v>1.5</v>
@@ -28105,7 +28105,7 @@
         <v>2.38</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU136" t="n">
         <v>1.8</v>
@@ -29726,7 +29726,7 @@
         <v>1.88</v>
       </c>
       <c r="AS144" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT144" t="n">
         <v>1.77</v>
@@ -30541,7 +30541,7 @@
         <v>1</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU148" t="n">
         <v>1.41</v>
@@ -31147,7 +31147,7 @@
         <v>0.75</v>
       </c>
       <c r="AS151" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT151" t="n">
         <v>1</v>
@@ -31350,7 +31350,7 @@
         <v>1.17</v>
       </c>
       <c r="AS152" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT152" t="n">
         <v>1.58</v>
@@ -31756,7 +31756,7 @@
         <v>0.88</v>
       </c>
       <c r="AS154" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT154" t="n">
         <v>1.33</v>
@@ -31962,7 +31962,7 @@
         <v>1.69</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU155" t="n">
         <v>1.6</v>
@@ -32165,7 +32165,7 @@
         <v>1.75</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU156" t="n">
         <v>1.73</v>
@@ -33586,7 +33586,7 @@
         <v>1.08</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU163" t="n">
         <v>1.13</v>
@@ -34598,7 +34598,7 @@
         <v>1.44</v>
       </c>
       <c r="AS168" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT168" t="n">
         <v>1.23</v>
@@ -35004,7 +35004,7 @@
         <v>1.78</v>
       </c>
       <c r="AS170" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT170" t="n">
         <v>1.62</v>
@@ -36022,7 +36022,7 @@
         <v>2.31</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU175" t="n">
         <v>1.92</v>
@@ -36831,7 +36831,7 @@
         <v>0.67</v>
       </c>
       <c r="AS179" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT179" t="n">
         <v>0.75</v>
@@ -37443,7 +37443,7 @@
         <v>1.64</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU182" t="n">
         <v>1.33</v>
@@ -37846,7 +37846,7 @@
         <v>1.13</v>
       </c>
       <c r="AS184" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT184" t="n">
         <v>0.92</v>
@@ -38458,7 +38458,7 @@
         <v>2.38</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU187" t="n">
         <v>1.85</v>
@@ -38861,7 +38861,7 @@
         <v>0.33</v>
       </c>
       <c r="AS189" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT189" t="n">
         <v>0.58</v>
@@ -39470,7 +39470,7 @@
         <v>1</v>
       </c>
       <c r="AS192" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT192" t="n">
         <v>0.92</v>
@@ -39879,7 +39879,7 @@
         <v>1.92</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU194" t="n">
         <v>1.45</v>
@@ -41300,7 +41300,7 @@
         <v>1</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU201" t="n">
         <v>1.47</v>
@@ -41703,7 +41703,7 @@
         <v>0.91</v>
       </c>
       <c r="AS203" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT203" t="n">
         <v>0.77</v>
@@ -41909,7 +41909,7 @@
         <v>1.75</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU204" t="n">
         <v>1.72</v>
@@ -42109,7 +42109,7 @@
         <v>1.3</v>
       </c>
       <c r="AS205" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT205" t="n">
         <v>1.33</v>
@@ -43736,7 +43736,7 @@
         <v>1.69</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU213" t="n">
         <v>1.58</v>
@@ -44548,7 +44548,7 @@
         <v>1.75</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU217" t="n">
         <v>1.63</v>
@@ -44748,7 +44748,7 @@
         <v>1.18</v>
       </c>
       <c r="AS218" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT218" t="n">
         <v>1.33</v>
@@ -45357,7 +45357,7 @@
         <v>0.73</v>
       </c>
       <c r="AS221" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT221" t="n">
         <v>0.67</v>
@@ -45763,7 +45763,7 @@
         <v>0.55</v>
       </c>
       <c r="AS223" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AT223" t="n">
         <v>0.58</v>
@@ -46172,7 +46172,7 @@
         <v>2.15</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU225" t="n">
         <v>1.49</v>
@@ -47796,7 +47796,7 @@
         <v>2.38</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU233" t="n">
         <v>1.86</v>
@@ -48051,6 +48051,615 @@
       </c>
       <c r="BK234" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>2833524</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Turkey 1. Lig</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45002.58333333334</v>
+      </c>
+      <c r="F235" t="n">
+        <v>27</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Altınordu</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Tuzlaspor</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>1</v>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="n">
+        <v>2</v>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="n">
+        <v>3</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>['83', '89']</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>9</v>
+      </c>
+      <c r="R235" t="n">
+        <v>2</v>
+      </c>
+      <c r="S235" t="n">
+        <v>11</v>
+      </c>
+      <c r="T235" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U235" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V235" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X235" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>2833523</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Turkey 1. Lig</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45003.41666666666</v>
+      </c>
+      <c r="F236" t="n">
+        <v>27</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Rizespor</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Altay</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>2</v>
+      </c>
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
+      <c r="K236" t="n">
+        <v>3</v>
+      </c>
+      <c r="L236" t="n">
+        <v>3</v>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="n">
+        <v>4</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>['8', '21', '80']</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>9</v>
+      </c>
+      <c r="R236" t="n">
+        <v>3</v>
+      </c>
+      <c r="S236" t="n">
+        <v>12</v>
+      </c>
+      <c r="T236" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U236" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V236" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X236" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>2833527</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Turkey 1. Lig</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45003.54166666666</v>
+      </c>
+      <c r="F237" t="n">
+        <v>27</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Gençlerbirliği</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="n">
+        <v>1</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>5</v>
+      </c>
+      <c r="R237" t="n">
+        <v>4</v>
+      </c>
+      <c r="S237" t="n">
+        <v>9</v>
+      </c>
+      <c r="T237" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="U237" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V237" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X237" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey 1. Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey 1. Lig_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="343">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -727,6 +727,18 @@
     <t>['43', '83']</t>
   </si>
   <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['68', '89']</t>
+  </si>
+  <si>
+    <t>['45+2', '57']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
     <t>['22', '88']</t>
   </si>
   <si>
@@ -857,9 +869,6 @@
   </si>
   <si>
     <t>['45+1', '90+4']</t>
-  </si>
-  <si>
-    <t>['42']</t>
   </si>
   <si>
     <t>['48', '66', '74']</t>
@@ -1022,6 +1031,18 @@
   </si>
   <si>
     <t>['35']</t>
+  </si>
+  <si>
+    <t>['73', '90+2']</t>
+  </si>
+  <si>
+    <t>['36', '65']</t>
+  </si>
+  <si>
+    <t>['24', '80']</t>
+  </si>
+  <si>
+    <t>['29', '40', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK243"/>
+  <dimension ref="A1:BK249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1627,7 +1648,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1714,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT2">
         <v>1.85</v>
@@ -1818,7 +1839,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1908,7 +1929,7 @@
         <v>1.62</v>
       </c>
       <c r="AT3">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2009,7 +2030,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2200,7 +2221,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2290,7 +2311,7 @@
         <v>0.62</v>
       </c>
       <c r="AT5">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2582,7 +2603,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2669,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT7">
         <v>0.71</v>
@@ -2773,7 +2794,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2863,7 +2884,7 @@
         <v>2.21</v>
       </c>
       <c r="AT8">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2964,7 +2985,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3346,7 +3367,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3436,7 +3457,7 @@
         <v>2.08</v>
       </c>
       <c r="AT11">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3537,7 +3558,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3624,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT12">
         <v>1.23</v>
@@ -3815,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT13">
         <v>1.69</v>
@@ -3919,7 +3940,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4110,7 +4131,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4197,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT15">
         <v>1.46</v>
@@ -4961,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT19">
         <v>1.62</v>
@@ -5065,7 +5086,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q20">
         <v>9</v>
@@ -5256,7 +5277,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q21">
         <v>9</v>
@@ -5447,7 +5468,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5728,7 +5749,7 @@
         <v>2.08</v>
       </c>
       <c r="AT23">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU23">
         <v>1.12</v>
@@ -5829,7 +5850,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5919,7 +5940,7 @@
         <v>1.75</v>
       </c>
       <c r="AT24">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -6020,7 +6041,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -6107,7 +6128,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT25">
         <v>0.62</v>
@@ -6211,7 +6232,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6402,7 +6423,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6489,7 +6510,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT27">
         <v>1.62</v>
@@ -6874,7 +6895,7 @@
         <v>1.58</v>
       </c>
       <c r="AT29">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU29">
         <v>1.34</v>
@@ -6975,7 +6996,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7062,7 +7083,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT30">
         <v>1</v>
@@ -7253,7 +7274,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT31">
         <v>1.69</v>
@@ -7357,7 +7378,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -7548,7 +7569,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7638,7 +7659,7 @@
         <v>1.85</v>
       </c>
       <c r="AT33">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU33">
         <v>1.7</v>
@@ -7826,7 +7847,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT34">
         <v>1.25</v>
@@ -8017,7 +8038,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT35">
         <v>1.23</v>
@@ -8121,7 +8142,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8399,10 +8420,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT37">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU37">
         <v>1.19</v>
@@ -8593,7 +8614,7 @@
         <v>2.08</v>
       </c>
       <c r="AT38">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU38">
         <v>1.4</v>
@@ -8694,7 +8715,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8885,7 +8906,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9076,7 +9097,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9267,7 +9288,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -9927,7 +9948,7 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT45">
         <v>1.46</v>
@@ -10413,7 +10434,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10500,7 +10521,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT48">
         <v>1</v>
@@ -10604,7 +10625,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10691,10 +10712,10 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT49">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU49">
         <v>1.48</v>
@@ -10986,7 +11007,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11264,7 +11285,7 @@
         <v>1.67</v>
       </c>
       <c r="AS52">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT52">
         <v>1.77</v>
@@ -11455,10 +11476,10 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT53">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU53">
         <v>1.51</v>
@@ -11559,7 +11580,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q54">
         <v>9</v>
@@ -11646,7 +11667,7 @@
         <v>1.5</v>
       </c>
       <c r="AS54">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT54">
         <v>1.25</v>
@@ -11840,7 +11861,7 @@
         <v>1.58</v>
       </c>
       <c r="AT55">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU55">
         <v>1.26</v>
@@ -12031,7 +12052,7 @@
         <v>1.85</v>
       </c>
       <c r="AT56">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU56">
         <v>1.74</v>
@@ -12601,7 +12622,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT59">
         <v>1.69</v>
@@ -12705,7 +12726,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13278,7 +13299,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13938,10 +13959,10 @@
         <v>3</v>
       </c>
       <c r="AS66">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT66">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU66">
         <v>1.6</v>
@@ -14129,7 +14150,7 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT67">
         <v>1.25</v>
@@ -14323,7 +14344,7 @@
         <v>2.38</v>
       </c>
       <c r="AT68">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU68">
         <v>1.75</v>
@@ -14511,10 +14532,10 @@
         <v>1.67</v>
       </c>
       <c r="AS69">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT69">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU69">
         <v>1.54</v>
@@ -14615,7 +14636,7 @@
         <v>84</v>
       </c>
       <c r="P70" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14702,10 +14723,10 @@
         <v>0.67</v>
       </c>
       <c r="AS70">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT70">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU70">
         <v>1.14</v>
@@ -14806,7 +14827,7 @@
         <v>84</v>
       </c>
       <c r="P71" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14997,7 +15018,7 @@
         <v>84</v>
       </c>
       <c r="P72" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15084,7 +15105,7 @@
         <v>1.5</v>
       </c>
       <c r="AS72">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT72">
         <v>1.77</v>
@@ -15188,7 +15209,7 @@
         <v>84</v>
       </c>
       <c r="P73" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -15275,7 +15296,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT73">
         <v>1.62</v>
@@ -15570,7 +15591,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15952,7 +15973,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16334,7 +16355,7 @@
         <v>84</v>
       </c>
       <c r="P79" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16525,7 +16546,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16716,7 +16737,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q81">
         <v>9</v>
@@ -16907,7 +16928,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17289,7 +17310,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17480,7 +17501,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17567,7 +17588,7 @@
         <v>1.8</v>
       </c>
       <c r="AS85">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT85">
         <v>1.77</v>
@@ -17758,7 +17779,7 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT86">
         <v>1</v>
@@ -17862,7 +17883,7 @@
         <v>112</v>
       </c>
       <c r="P87" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17949,10 +17970,10 @@
         <v>1.25</v>
       </c>
       <c r="AS87">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT87">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU87">
         <v>1.28</v>
@@ -18140,7 +18161,7 @@
         <v>1.75</v>
       </c>
       <c r="AS88">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT88">
         <v>1.23</v>
@@ -18334,7 +18355,7 @@
         <v>0.75</v>
       </c>
       <c r="AT89">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU89">
         <v>1.22</v>
@@ -18435,7 +18456,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18522,10 +18543,10 @@
         <v>2.33</v>
       </c>
       <c r="AS90">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT90">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU90">
         <v>1.71</v>
@@ -18626,7 +18647,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -18716,7 +18737,7 @@
         <v>1.31</v>
       </c>
       <c r="AT91">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU91">
         <v>1.4</v>
@@ -18817,7 +18838,7 @@
         <v>84</v>
       </c>
       <c r="P92" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q92">
         <v>0</v>
@@ -19008,7 +19029,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -19199,7 +19220,7 @@
         <v>84</v>
       </c>
       <c r="P94" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19390,7 +19411,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19772,7 +19793,7 @@
         <v>147</v>
       </c>
       <c r="P97" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -19859,7 +19880,7 @@
         <v>2.2</v>
       </c>
       <c r="AS97">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT97">
         <v>1.62</v>
@@ -20345,7 +20366,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20435,7 +20456,7 @@
         <v>0.62</v>
       </c>
       <c r="AT100">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU100">
         <v>1.49</v>
@@ -21005,10 +21026,10 @@
         <v>2</v>
       </c>
       <c r="AS103">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT103">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU103">
         <v>1.54</v>
@@ -21109,7 +21130,7 @@
         <v>153</v>
       </c>
       <c r="P104" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21199,7 +21220,7 @@
         <v>0.75</v>
       </c>
       <c r="AT104">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU104">
         <v>1.42</v>
@@ -21300,7 +21321,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21578,7 +21599,7 @@
         <v>1.6</v>
       </c>
       <c r="AS106">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT106">
         <v>1.23</v>
@@ -21682,7 +21703,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21769,7 +21790,7 @@
         <v>1.6</v>
       </c>
       <c r="AS107">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT107">
         <v>1.08</v>
@@ -21960,10 +21981,10 @@
         <v>1.2</v>
       </c>
       <c r="AS108">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT108">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU108">
         <v>1.68</v>
@@ -22064,7 +22085,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -22154,7 +22175,7 @@
         <v>2.38</v>
       </c>
       <c r="AT109">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU109">
         <v>1.9</v>
@@ -22446,7 +22467,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -22828,7 +22849,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -22915,7 +22936,7 @@
         <v>1.5</v>
       </c>
       <c r="AS113">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT113">
         <v>1.85</v>
@@ -23019,7 +23040,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23109,7 +23130,7 @@
         <v>1.75</v>
       </c>
       <c r="AT114">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU114">
         <v>1.23</v>
@@ -23210,7 +23231,7 @@
         <v>84</v>
       </c>
       <c r="P115" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23401,7 +23422,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23783,7 +23804,7 @@
         <v>117</v>
       </c>
       <c r="P118" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23974,7 +23995,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -24443,7 +24464,7 @@
         <v>0</v>
       </c>
       <c r="AS121">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT121">
         <v>0.54</v>
@@ -24637,7 +24658,7 @@
         <v>1.31</v>
       </c>
       <c r="AT122">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU122">
         <v>1.36</v>
@@ -24738,7 +24759,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24825,7 +24846,7 @@
         <v>1.33</v>
       </c>
       <c r="AS123">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT123">
         <v>1.08</v>
@@ -25019,7 +25040,7 @@
         <v>2.38</v>
       </c>
       <c r="AT124">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU124">
         <v>1.86</v>
@@ -25210,7 +25231,7 @@
         <v>2.08</v>
       </c>
       <c r="AT125">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU125">
         <v>1.42</v>
@@ -25311,7 +25332,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25589,10 +25610,10 @@
         <v>1</v>
       </c>
       <c r="AS127">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT127">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU127">
         <v>1.04</v>
@@ -25780,7 +25801,7 @@
         <v>1.2</v>
       </c>
       <c r="AS128">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT128">
         <v>1.46</v>
@@ -25971,7 +25992,7 @@
         <v>1</v>
       </c>
       <c r="AS129">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT129">
         <v>0.71</v>
@@ -26266,7 +26287,7 @@
         <v>147</v>
       </c>
       <c r="P131" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -26648,7 +26669,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26735,7 +26756,7 @@
         <v>1.71</v>
       </c>
       <c r="AS133">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT133">
         <v>1.85</v>
@@ -26839,7 +26860,7 @@
         <v>145</v>
       </c>
       <c r="P134" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -27030,7 +27051,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -27120,7 +27141,7 @@
         <v>0.92</v>
       </c>
       <c r="AT135">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU135">
         <v>1.37</v>
@@ -27499,10 +27520,10 @@
         <v>0.86</v>
       </c>
       <c r="AS137">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT137">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU137">
         <v>1.54</v>
@@ -27693,7 +27714,7 @@
         <v>1.75</v>
       </c>
       <c r="AT138">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU138">
         <v>1.3</v>
@@ -27881,7 +27902,7 @@
         <v>0</v>
       </c>
       <c r="AS139">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT139">
         <v>0.54</v>
@@ -28367,7 +28388,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q142">
         <v>1</v>
@@ -28457,7 +28478,7 @@
         <v>1.31</v>
       </c>
       <c r="AT142">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU142">
         <v>1.46</v>
@@ -28645,10 +28666,10 @@
         <v>1.33</v>
       </c>
       <c r="AS143">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT143">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU143">
         <v>1.04</v>
@@ -29027,7 +29048,7 @@
         <v>1</v>
       </c>
       <c r="AS145">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT145">
         <v>0.71</v>
@@ -29131,7 +29152,7 @@
         <v>84</v>
       </c>
       <c r="P146" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29218,7 +29239,7 @@
         <v>1.63</v>
       </c>
       <c r="AS146">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT146">
         <v>1.62</v>
@@ -29409,7 +29430,7 @@
         <v>0.29</v>
       </c>
       <c r="AS147">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT147">
         <v>0.62</v>
@@ -29513,7 +29534,7 @@
         <v>181</v>
       </c>
       <c r="P148" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q148">
         <v>2</v>
@@ -29600,7 +29621,7 @@
         <v>1.5</v>
       </c>
       <c r="AS148">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT148">
         <v>1</v>
@@ -29794,7 +29815,7 @@
         <v>1.58</v>
       </c>
       <c r="AT149">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU149">
         <v>1.81</v>
@@ -29895,7 +29916,7 @@
         <v>183</v>
       </c>
       <c r="P150" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -30086,7 +30107,7 @@
         <v>169</v>
       </c>
       <c r="P151" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30277,7 +30298,7 @@
         <v>84</v>
       </c>
       <c r="P152" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30468,7 +30489,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30659,7 +30680,7 @@
         <v>84</v>
       </c>
       <c r="P154" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30749,7 +30770,7 @@
         <v>2.08</v>
       </c>
       <c r="AT154">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU154">
         <v>1.33</v>
@@ -30937,7 +30958,7 @@
         <v>1.63</v>
       </c>
       <c r="AS155">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT155">
         <v>1.85</v>
@@ -31322,7 +31343,7 @@
         <v>2.21</v>
       </c>
       <c r="AT157">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU157">
         <v>1.46</v>
@@ -31704,7 +31725,7 @@
         <v>2.38</v>
       </c>
       <c r="AT159">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU159">
         <v>1.8</v>
@@ -32086,7 +32107,7 @@
         <v>1.17</v>
       </c>
       <c r="AT161">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU161">
         <v>1.44</v>
@@ -32187,7 +32208,7 @@
         <v>189</v>
       </c>
       <c r="P162" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32378,7 +32399,7 @@
         <v>190</v>
       </c>
       <c r="P163" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q163">
         <v>7</v>
@@ -32465,7 +32486,7 @@
         <v>1.29</v>
       </c>
       <c r="AS163">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT163">
         <v>1</v>
@@ -32656,7 +32677,7 @@
         <v>1</v>
       </c>
       <c r="AS164">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT164">
         <v>0.71</v>
@@ -32850,7 +32871,7 @@
         <v>1.85</v>
       </c>
       <c r="AT165">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU165">
         <v>1.44</v>
@@ -32951,7 +32972,7 @@
         <v>192</v>
       </c>
       <c r="P166" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q166">
         <v>8</v>
@@ -33229,7 +33250,7 @@
         <v>1.43</v>
       </c>
       <c r="AS167">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT167">
         <v>1.69</v>
@@ -33333,7 +33354,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q168">
         <v>1</v>
@@ -33611,7 +33632,7 @@
         <v>0.25</v>
       </c>
       <c r="AS169">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT169">
         <v>0.62</v>
@@ -34184,7 +34205,7 @@
         <v>1.25</v>
       </c>
       <c r="AS172">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT172">
         <v>1.69</v>
@@ -34378,7 +34399,7 @@
         <v>2.08</v>
       </c>
       <c r="AT173">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU173">
         <v>1.64</v>
@@ -34566,7 +34587,7 @@
         <v>1.7</v>
       </c>
       <c r="AS174">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT174">
         <v>1.62</v>
@@ -34670,7 +34691,7 @@
         <v>198</v>
       </c>
       <c r="P175" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q175">
         <v>7</v>
@@ -34757,7 +34778,7 @@
         <v>1.13</v>
       </c>
       <c r="AS175">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT175">
         <v>1</v>
@@ -35139,7 +35160,7 @@
         <v>0.22</v>
       </c>
       <c r="AS177">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT177">
         <v>0.62</v>
@@ -35243,7 +35264,7 @@
         <v>199</v>
       </c>
       <c r="P178" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q178">
         <v>5</v>
@@ -35524,7 +35545,7 @@
         <v>0.92</v>
       </c>
       <c r="AT179">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU179">
         <v>1.3</v>
@@ -35625,7 +35646,7 @@
         <v>168</v>
       </c>
       <c r="P180" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -35816,7 +35837,7 @@
         <v>201</v>
       </c>
       <c r="P181" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -35906,7 +35927,7 @@
         <v>2.21</v>
       </c>
       <c r="AT181">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU181">
         <v>1.48</v>
@@ -36007,7 +36028,7 @@
         <v>202</v>
       </c>
       <c r="P182" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q182">
         <v>5</v>
@@ -36288,7 +36309,7 @@
         <v>1.17</v>
       </c>
       <c r="AT183">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU183">
         <v>1.47</v>
@@ -36389,7 +36410,7 @@
         <v>203</v>
       </c>
       <c r="P184" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q184">
         <v>6</v>
@@ -36479,7 +36500,7 @@
         <v>0.62</v>
       </c>
       <c r="AT184">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU184">
         <v>1.26</v>
@@ -36580,7 +36601,7 @@
         <v>204</v>
       </c>
       <c r="P185" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -36667,7 +36688,7 @@
         <v>1.6</v>
       </c>
       <c r="AS185">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT185">
         <v>1.77</v>
@@ -36771,7 +36792,7 @@
         <v>205</v>
       </c>
       <c r="P186" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q186">
         <v>0</v>
@@ -36858,7 +36879,7 @@
         <v>1.67</v>
       </c>
       <c r="AS186">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT186">
         <v>1.62</v>
@@ -36962,7 +36983,7 @@
         <v>206</v>
       </c>
       <c r="P187" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -37153,7 +37174,7 @@
         <v>207</v>
       </c>
       <c r="P188" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q188">
         <v>5</v>
@@ -37344,7 +37365,7 @@
         <v>208</v>
       </c>
       <c r="P189" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37726,7 +37747,7 @@
         <v>210</v>
       </c>
       <c r="P191" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -37813,7 +37834,7 @@
         <v>0.67</v>
       </c>
       <c r="AS191">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT191">
         <v>1.25</v>
@@ -37917,7 +37938,7 @@
         <v>211</v>
       </c>
       <c r="P192" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -38007,7 +38028,7 @@
         <v>0.92</v>
       </c>
       <c r="AT192">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU192">
         <v>1.33</v>
@@ -38108,7 +38129,7 @@
         <v>84</v>
       </c>
       <c r="P193" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38198,7 +38219,7 @@
         <v>1.85</v>
       </c>
       <c r="AT193">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU193">
         <v>1.5</v>
@@ -38299,7 +38320,7 @@
         <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38386,7 +38407,7 @@
         <v>1</v>
       </c>
       <c r="AS194">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT194">
         <v>1</v>
@@ -38490,7 +38511,7 @@
         <v>212</v>
       </c>
       <c r="P195" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38681,7 +38702,7 @@
         <v>213</v>
       </c>
       <c r="P196" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -38959,10 +38980,10 @@
         <v>1.22</v>
       </c>
       <c r="AS197">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT197">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU197">
         <v>1.41</v>
@@ -39150,7 +39171,7 @@
         <v>0.91</v>
       </c>
       <c r="AS198">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT198">
         <v>1</v>
@@ -39254,7 +39275,7 @@
         <v>84</v>
       </c>
       <c r="P199" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -39341,7 +39362,7 @@
         <v>0.5</v>
       </c>
       <c r="AS199">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT199">
         <v>0.62</v>
@@ -39445,7 +39466,7 @@
         <v>148</v>
       </c>
       <c r="P200" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q200">
         <v>8</v>
@@ -39636,7 +39657,7 @@
         <v>117</v>
       </c>
       <c r="P201" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q201">
         <v>7</v>
@@ -39827,7 +39848,7 @@
         <v>215</v>
       </c>
       <c r="P202" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q202">
         <v>1</v>
@@ -40018,7 +40039,7 @@
         <v>216</v>
       </c>
       <c r="P203" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q203">
         <v>4</v>
@@ -40490,7 +40511,7 @@
         <v>0.62</v>
       </c>
       <c r="AT205">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU205">
         <v>1.32</v>
@@ -40973,7 +40994,7 @@
         <v>112</v>
       </c>
       <c r="P208" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q208">
         <v>10</v>
@@ -41063,7 +41084,7 @@
         <v>1.58</v>
       </c>
       <c r="AT208">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU208">
         <v>1.67</v>
@@ -41254,7 +41275,7 @@
         <v>1.85</v>
       </c>
       <c r="AT209">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU209">
         <v>1.56</v>
@@ -41442,10 +41463,10 @@
         <v>0.82</v>
       </c>
       <c r="AS210">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT210">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU210">
         <v>1.29</v>
@@ -41633,7 +41654,7 @@
         <v>1.45</v>
       </c>
       <c r="AS211">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT211">
         <v>1.23</v>
@@ -41824,7 +41845,7 @@
         <v>1.64</v>
       </c>
       <c r="AS212">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT212">
         <v>1.62</v>
@@ -42015,7 +42036,7 @@
         <v>1</v>
       </c>
       <c r="AS213">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT213">
         <v>1</v>
@@ -42400,7 +42421,7 @@
         <v>0.75</v>
       </c>
       <c r="AT215">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU215">
         <v>1.46</v>
@@ -42501,7 +42522,7 @@
         <v>84</v>
       </c>
       <c r="P216" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q216">
         <v>5</v>
@@ -42588,7 +42609,7 @@
         <v>0.9</v>
       </c>
       <c r="AS216">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT216">
         <v>1.25</v>
@@ -42692,7 +42713,7 @@
         <v>225</v>
       </c>
       <c r="P217" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q217">
         <v>4</v>
@@ -42973,7 +42994,7 @@
         <v>0.92</v>
       </c>
       <c r="AT218">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU218">
         <v>1.39</v>
@@ -43074,7 +43095,7 @@
         <v>84</v>
       </c>
       <c r="P219" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q219">
         <v>1</v>
@@ -43734,7 +43755,7 @@
         <v>0.83</v>
       </c>
       <c r="AS222">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT222">
         <v>0.71</v>
@@ -44498,10 +44519,10 @@
         <v>1</v>
       </c>
       <c r="AS226">
+        <v>1</v>
+      </c>
+      <c r="AT226">
         <v>1.08</v>
-      </c>
-      <c r="AT226">
-        <v>0.92</v>
       </c>
       <c r="AU226">
         <v>1.28</v>
@@ -44602,7 +44623,7 @@
         <v>173</v>
       </c>
       <c r="P227" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q227">
         <v>3</v>
@@ -44880,10 +44901,10 @@
         <v>0.73</v>
       </c>
       <c r="AS228">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT228">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU228">
         <v>1.49</v>
@@ -44984,7 +45005,7 @@
         <v>230</v>
       </c>
       <c r="P229" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q229">
         <v>2</v>
@@ -45071,7 +45092,7 @@
         <v>1.5</v>
       </c>
       <c r="AS229">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT229">
         <v>1.62</v>
@@ -45456,7 +45477,7 @@
         <v>1.31</v>
       </c>
       <c r="AT231">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU231">
         <v>1.57</v>
@@ -45557,7 +45578,7 @@
         <v>84</v>
       </c>
       <c r="P232" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q232">
         <v>7</v>
@@ -45644,7 +45665,7 @@
         <v>0.83</v>
       </c>
       <c r="AS232">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT232">
         <v>1</v>
@@ -45748,7 +45769,7 @@
         <v>84</v>
       </c>
       <c r="P233" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -46026,7 +46047,7 @@
         <v>1.33</v>
       </c>
       <c r="AS234">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT234">
         <v>1.23</v>
@@ -46321,7 +46342,7 @@
         <v>233</v>
       </c>
       <c r="P236" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q236">
         <v>9</v>
@@ -47276,7 +47297,7 @@
         <v>234</v>
       </c>
       <c r="P241" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q241">
         <v>4</v>
@@ -47800,6 +47821,1152 @@
       </c>
       <c r="BK243">
         <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:63">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>2833529</v>
+      </c>
+      <c r="C244" t="s">
+        <v>63</v>
+      </c>
+      <c r="D244" t="s">
+        <v>64</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45009.58333333334</v>
+      </c>
+      <c r="F244">
+        <v>28</v>
+      </c>
+      <c r="G244" t="s">
+        <v>82</v>
+      </c>
+      <c r="H244" t="s">
+        <v>74</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>1</v>
+      </c>
+      <c r="L244">
+        <v>1</v>
+      </c>
+      <c r="M244">
+        <v>2</v>
+      </c>
+      <c r="N244">
+        <v>3</v>
+      </c>
+      <c r="O244" t="s">
+        <v>237</v>
+      </c>
+      <c r="P244" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q244">
+        <v>7</v>
+      </c>
+      <c r="R244">
+        <v>3</v>
+      </c>
+      <c r="S244">
+        <v>10</v>
+      </c>
+      <c r="T244">
+        <v>3.84</v>
+      </c>
+      <c r="U244">
+        <v>2.09</v>
+      </c>
+      <c r="V244">
+        <v>2.72</v>
+      </c>
+      <c r="W244">
+        <v>1.4</v>
+      </c>
+      <c r="X244">
+        <v>2.7</v>
+      </c>
+      <c r="Y244">
+        <v>2.8</v>
+      </c>
+      <c r="Z244">
+        <v>1.38</v>
+      </c>
+      <c r="AA244">
+        <v>6.5</v>
+      </c>
+      <c r="AB244">
+        <v>1.08</v>
+      </c>
+      <c r="AC244">
+        <v>2.67</v>
+      </c>
+      <c r="AD244">
+        <v>3.08</v>
+      </c>
+      <c r="AE244">
+        <v>2.17</v>
+      </c>
+      <c r="AF244">
+        <v>1.05</v>
+      </c>
+      <c r="AG244">
+        <v>11.25</v>
+      </c>
+      <c r="AH244">
+        <v>1.29</v>
+      </c>
+      <c r="AI244">
+        <v>3.3</v>
+      </c>
+      <c r="AJ244">
+        <v>1.81</v>
+      </c>
+      <c r="AK244">
+        <v>1.73</v>
+      </c>
+      <c r="AL244">
+        <v>1.71</v>
+      </c>
+      <c r="AM244">
+        <v>1.97</v>
+      </c>
+      <c r="AN244">
+        <v>1.58</v>
+      </c>
+      <c r="AO244">
+        <v>1.27</v>
+      </c>
+      <c r="AP244">
+        <v>1.38</v>
+      </c>
+      <c r="AQ244">
+        <v>1</v>
+      </c>
+      <c r="AR244">
+        <v>0.92</v>
+      </c>
+      <c r="AS244">
+        <v>0.93</v>
+      </c>
+      <c r="AT244">
+        <v>1.08</v>
+      </c>
+      <c r="AU244">
+        <v>1.44</v>
+      </c>
+      <c r="AV244">
+        <v>1.12</v>
+      </c>
+      <c r="AW244">
+        <v>2.56</v>
+      </c>
+      <c r="AX244">
+        <v>2.82</v>
+      </c>
+      <c r="AY244">
+        <v>7.8</v>
+      </c>
+      <c r="AZ244">
+        <v>1.59</v>
+      </c>
+      <c r="BA244">
+        <v>1.29</v>
+      </c>
+      <c r="BB244">
+        <v>1.61</v>
+      </c>
+      <c r="BC244">
+        <v>1.7</v>
+      </c>
+      <c r="BD244">
+        <v>2.53</v>
+      </c>
+      <c r="BE244">
+        <v>3.56</v>
+      </c>
+      <c r="BF244">
+        <v>6</v>
+      </c>
+      <c r="BG244">
+        <v>9</v>
+      </c>
+      <c r="BH244">
+        <v>7</v>
+      </c>
+      <c r="BI244">
+        <v>8</v>
+      </c>
+      <c r="BJ244">
+        <v>13</v>
+      </c>
+      <c r="BK244">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="245" spans="1:63">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>2833530</v>
+      </c>
+      <c r="C245" t="s">
+        <v>63</v>
+      </c>
+      <c r="D245" t="s">
+        <v>64</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45009.58333333334</v>
+      </c>
+      <c r="F245">
+        <v>28</v>
+      </c>
+      <c r="G245" t="s">
+        <v>76</v>
+      </c>
+      <c r="H245" t="s">
+        <v>77</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>2</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>2</v>
+      </c>
+      <c r="O245" t="s">
+        <v>238</v>
+      </c>
+      <c r="P245" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q245">
+        <v>5</v>
+      </c>
+      <c r="R245">
+        <v>2</v>
+      </c>
+      <c r="S245">
+        <v>7</v>
+      </c>
+      <c r="T245">
+        <v>1.88</v>
+      </c>
+      <c r="U245">
+        <v>2.4</v>
+      </c>
+      <c r="V245">
+        <v>6.5</v>
+      </c>
+      <c r="W245">
+        <v>1.32</v>
+      </c>
+      <c r="X245">
+        <v>3.1</v>
+      </c>
+      <c r="Y245">
+        <v>2.5</v>
+      </c>
+      <c r="Z245">
+        <v>1.48</v>
+      </c>
+      <c r="AA245">
+        <v>5.5</v>
+      </c>
+      <c r="AB245">
+        <v>1.11</v>
+      </c>
+      <c r="AC245">
+        <v>1.31</v>
+      </c>
+      <c r="AD245">
+        <v>4.14</v>
+      </c>
+      <c r="AE245">
+        <v>6.46</v>
+      </c>
+      <c r="AF245">
+        <v>1.03</v>
+      </c>
+      <c r="AG245">
+        <v>15.75</v>
+      </c>
+      <c r="AH245">
+        <v>1.21</v>
+      </c>
+      <c r="AI245">
+        <v>3.9</v>
+      </c>
+      <c r="AJ245">
+        <v>1.71</v>
+      </c>
+      <c r="AK245">
+        <v>2.13</v>
+      </c>
+      <c r="AL245">
+        <v>1.95</v>
+      </c>
+      <c r="AM245">
+        <v>1.78</v>
+      </c>
+      <c r="AN245">
+        <v>1.06</v>
+      </c>
+      <c r="AO245">
+        <v>1.18</v>
+      </c>
+      <c r="AP245">
+        <v>2.9</v>
+      </c>
+      <c r="AQ245">
+        <v>2.31</v>
+      </c>
+      <c r="AR245">
+        <v>0.67</v>
+      </c>
+      <c r="AS245">
+        <v>2.36</v>
+      </c>
+      <c r="AT245">
+        <v>0.62</v>
+      </c>
+      <c r="AU245">
+        <v>2.04</v>
+      </c>
+      <c r="AV245">
+        <v>1.15</v>
+      </c>
+      <c r="AW245">
+        <v>3.19</v>
+      </c>
+      <c r="AX245">
+        <v>1.36</v>
+      </c>
+      <c r="AY245">
+        <v>8.1</v>
+      </c>
+      <c r="AZ245">
+        <v>3.94</v>
+      </c>
+      <c r="BA245">
+        <v>1.28</v>
+      </c>
+      <c r="BB245">
+        <v>1.57</v>
+      </c>
+      <c r="BC245">
+        <v>1.84</v>
+      </c>
+      <c r="BD245">
+        <v>2.4</v>
+      </c>
+      <c r="BE245">
+        <v>0</v>
+      </c>
+      <c r="BF245">
+        <v>6</v>
+      </c>
+      <c r="BG245">
+        <v>0</v>
+      </c>
+      <c r="BH245">
+        <v>2</v>
+      </c>
+      <c r="BI245">
+        <v>4</v>
+      </c>
+      <c r="BJ245">
+        <v>8</v>
+      </c>
+      <c r="BK245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:63">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>2833531</v>
+      </c>
+      <c r="C246" t="s">
+        <v>63</v>
+      </c>
+      <c r="D246" t="s">
+        <v>64</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45010.3125</v>
+      </c>
+      <c r="F246">
+        <v>28</v>
+      </c>
+      <c r="G246" t="s">
+        <v>75</v>
+      </c>
+      <c r="H246" t="s">
+        <v>81</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>1</v>
+      </c>
+      <c r="K246">
+        <v>1</v>
+      </c>
+      <c r="L246">
+        <v>0</v>
+      </c>
+      <c r="M246">
+        <v>2</v>
+      </c>
+      <c r="N246">
+        <v>2</v>
+      </c>
+      <c r="O246" t="s">
+        <v>84</v>
+      </c>
+      <c r="P246" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q246">
+        <v>5</v>
+      </c>
+      <c r="R246">
+        <v>5</v>
+      </c>
+      <c r="S246">
+        <v>10</v>
+      </c>
+      <c r="T246">
+        <v>3.3</v>
+      </c>
+      <c r="U246">
+        <v>2.1</v>
+      </c>
+      <c r="V246">
+        <v>3.1</v>
+      </c>
+      <c r="W246">
+        <v>1.42</v>
+      </c>
+      <c r="X246">
+        <v>2.62</v>
+      </c>
+      <c r="Y246">
+        <v>2.88</v>
+      </c>
+      <c r="Z246">
+        <v>1.36</v>
+      </c>
+      <c r="AA246">
+        <v>6.5</v>
+      </c>
+      <c r="AB246">
+        <v>1.08</v>
+      </c>
+      <c r="AC246">
+        <v>2.8</v>
+      </c>
+      <c r="AD246">
+        <v>3.3</v>
+      </c>
+      <c r="AE246">
+        <v>2.45</v>
+      </c>
+      <c r="AF246">
+        <v>1.05</v>
+      </c>
+      <c r="AG246">
+        <v>11.25</v>
+      </c>
+      <c r="AH246">
+        <v>1.3</v>
+      </c>
+      <c r="AI246">
+        <v>3.2</v>
+      </c>
+      <c r="AJ246">
+        <v>2</v>
+      </c>
+      <c r="AK246">
+        <v>1.78</v>
+      </c>
+      <c r="AL246">
+        <v>1.73</v>
+      </c>
+      <c r="AM246">
+        <v>2</v>
+      </c>
+      <c r="AN246">
+        <v>1.5</v>
+      </c>
+      <c r="AO246">
+        <v>1.33</v>
+      </c>
+      <c r="AP246">
+        <v>1.4</v>
+      </c>
+      <c r="AQ246">
+        <v>1.08</v>
+      </c>
+      <c r="AR246">
+        <v>1.33</v>
+      </c>
+      <c r="AS246">
+        <v>1</v>
+      </c>
+      <c r="AT246">
+        <v>1.46</v>
+      </c>
+      <c r="AU246">
+        <v>1.26</v>
+      </c>
+      <c r="AV246">
+        <v>1.22</v>
+      </c>
+      <c r="AW246">
+        <v>2.48</v>
+      </c>
+      <c r="AX246">
+        <v>2.75</v>
+      </c>
+      <c r="AY246">
+        <v>5.2</v>
+      </c>
+      <c r="AZ246">
+        <v>1.8</v>
+      </c>
+      <c r="BA246">
+        <v>1.4</v>
+      </c>
+      <c r="BB246">
+        <v>1.8</v>
+      </c>
+      <c r="BC246">
+        <v>2.24</v>
+      </c>
+      <c r="BD246">
+        <v>3.08</v>
+      </c>
+      <c r="BE246">
+        <v>0</v>
+      </c>
+      <c r="BF246">
+        <v>6</v>
+      </c>
+      <c r="BG246">
+        <v>3</v>
+      </c>
+      <c r="BH246">
+        <v>8</v>
+      </c>
+      <c r="BI246">
+        <v>7</v>
+      </c>
+      <c r="BJ246">
+        <v>14</v>
+      </c>
+      <c r="BK246">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:63">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>2833528</v>
+      </c>
+      <c r="C247" t="s">
+        <v>63</v>
+      </c>
+      <c r="D247" t="s">
+        <v>64</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45010.3125</v>
+      </c>
+      <c r="F247">
+        <v>28</v>
+      </c>
+      <c r="G247" t="s">
+        <v>78</v>
+      </c>
+      <c r="H247" t="s">
+        <v>68</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247">
+        <v>1</v>
+      </c>
+      <c r="K247">
+        <v>2</v>
+      </c>
+      <c r="L247">
+        <v>2</v>
+      </c>
+      <c r="M247">
+        <v>2</v>
+      </c>
+      <c r="N247">
+        <v>4</v>
+      </c>
+      <c r="O247" t="s">
+        <v>239</v>
+      </c>
+      <c r="P247" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q247">
+        <v>4</v>
+      </c>
+      <c r="R247">
+        <v>6</v>
+      </c>
+      <c r="S247">
+        <v>10</v>
+      </c>
+      <c r="T247">
+        <v>2.29</v>
+      </c>
+      <c r="U247">
+        <v>2.14</v>
+      </c>
+      <c r="V247">
+        <v>4.98</v>
+      </c>
+      <c r="W247">
+        <v>1.38</v>
+      </c>
+      <c r="X247">
+        <v>2.85</v>
+      </c>
+      <c r="Y247">
+        <v>2.65</v>
+      </c>
+      <c r="Z247">
+        <v>1.42</v>
+      </c>
+      <c r="AA247">
+        <v>6</v>
+      </c>
+      <c r="AB247">
+        <v>1.09</v>
+      </c>
+      <c r="AC247">
+        <v>1.93</v>
+      </c>
+      <c r="AD247">
+        <v>3.5</v>
+      </c>
+      <c r="AE247">
+        <v>3.8</v>
+      </c>
+      <c r="AF247">
+        <v>1.04</v>
+      </c>
+      <c r="AG247">
+        <v>13</v>
+      </c>
+      <c r="AH247">
+        <v>1.26</v>
+      </c>
+      <c r="AI247">
+        <v>3.52</v>
+      </c>
+      <c r="AJ247">
+        <v>1.91</v>
+      </c>
+      <c r="AK247">
+        <v>1.85</v>
+      </c>
+      <c r="AL247">
+        <v>1.78</v>
+      </c>
+      <c r="AM247">
+        <v>1.95</v>
+      </c>
+      <c r="AN247">
+        <v>1.2</v>
+      </c>
+      <c r="AO247">
+        <v>1.29</v>
+      </c>
+      <c r="AP247">
+        <v>1.95</v>
+      </c>
+      <c r="AQ247">
+        <v>1.92</v>
+      </c>
+      <c r="AR247">
+        <v>0.75</v>
+      </c>
+      <c r="AS247">
+        <v>1.86</v>
+      </c>
+      <c r="AT247">
+        <v>0.77</v>
+      </c>
+      <c r="AU247">
+        <v>1.51</v>
+      </c>
+      <c r="AV247">
+        <v>1.29</v>
+      </c>
+      <c r="AW247">
+        <v>2.8</v>
+      </c>
+      <c r="AX247">
+        <v>1.5</v>
+      </c>
+      <c r="AY247">
+        <v>6.25</v>
+      </c>
+      <c r="AZ247">
+        <v>3.5</v>
+      </c>
+      <c r="BA247">
+        <v>1.42</v>
+      </c>
+      <c r="BB247">
+        <v>1.76</v>
+      </c>
+      <c r="BC247">
+        <v>2.15</v>
+      </c>
+      <c r="BD247">
+        <v>3.2</v>
+      </c>
+      <c r="BE247">
+        <v>0</v>
+      </c>
+      <c r="BF247">
+        <v>2</v>
+      </c>
+      <c r="BG247">
+        <v>5</v>
+      </c>
+      <c r="BH247">
+        <v>8</v>
+      </c>
+      <c r="BI247">
+        <v>1</v>
+      </c>
+      <c r="BJ247">
+        <v>10</v>
+      </c>
+      <c r="BK247">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:63">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>2833532</v>
+      </c>
+      <c r="C248" t="s">
+        <v>63</v>
+      </c>
+      <c r="D248" t="s">
+        <v>64</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45010.41666666666</v>
+      </c>
+      <c r="F248">
+        <v>28</v>
+      </c>
+      <c r="G248" t="s">
+        <v>65</v>
+      </c>
+      <c r="H248" t="s">
+        <v>66</v>
+      </c>
+      <c r="I248">
+        <v>1</v>
+      </c>
+      <c r="J248">
+        <v>2</v>
+      </c>
+      <c r="K248">
+        <v>3</v>
+      </c>
+      <c r="L248">
+        <v>1</v>
+      </c>
+      <c r="M248">
+        <v>3</v>
+      </c>
+      <c r="N248">
+        <v>4</v>
+      </c>
+      <c r="O248" t="s">
+        <v>240</v>
+      </c>
+      <c r="P248" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q248">
+        <v>0</v>
+      </c>
+      <c r="R248">
+        <v>1</v>
+      </c>
+      <c r="S248">
+        <v>1</v>
+      </c>
+      <c r="T248">
+        <v>4.02</v>
+      </c>
+      <c r="U248">
+        <v>2.02</v>
+      </c>
+      <c r="V248">
+        <v>2.77</v>
+      </c>
+      <c r="W248">
+        <v>1.4</v>
+      </c>
+      <c r="X248">
+        <v>2.7</v>
+      </c>
+      <c r="Y248">
+        <v>2.8</v>
+      </c>
+      <c r="Z248">
+        <v>1.38</v>
+      </c>
+      <c r="AA248">
+        <v>6</v>
+      </c>
+      <c r="AB248">
+        <v>1.09</v>
+      </c>
+      <c r="AC248">
+        <v>3.15</v>
+      </c>
+      <c r="AD248">
+        <v>3.25</v>
+      </c>
+      <c r="AE248">
+        <v>2.15</v>
+      </c>
+      <c r="AF248">
+        <v>1.04</v>
+      </c>
+      <c r="AG248">
+        <v>11.75</v>
+      </c>
+      <c r="AH248">
+        <v>1.27</v>
+      </c>
+      <c r="AI248">
+        <v>3.43</v>
+      </c>
+      <c r="AJ248">
+        <v>1.9</v>
+      </c>
+      <c r="AK248">
+        <v>1.9</v>
+      </c>
+      <c r="AL248">
+        <v>1.7</v>
+      </c>
+      <c r="AM248">
+        <v>2.05</v>
+      </c>
+      <c r="AN248">
+        <v>1.53</v>
+      </c>
+      <c r="AO248">
+        <v>1.33</v>
+      </c>
+      <c r="AP248">
+        <v>1.36</v>
+      </c>
+      <c r="AQ248">
+        <v>1.25</v>
+      </c>
+      <c r="AR248">
+        <v>1.5</v>
+      </c>
+      <c r="AS248">
+        <v>1.15</v>
+      </c>
+      <c r="AT248">
+        <v>1.62</v>
+      </c>
+      <c r="AU248">
+        <v>1.19</v>
+      </c>
+      <c r="AV248">
+        <v>1.43</v>
+      </c>
+      <c r="AW248">
+        <v>2.62</v>
+      </c>
+      <c r="AX248">
+        <v>3.15</v>
+      </c>
+      <c r="AY248">
+        <v>5.75</v>
+      </c>
+      <c r="AZ248">
+        <v>1.61</v>
+      </c>
+      <c r="BA248">
+        <v>1.44</v>
+      </c>
+      <c r="BB248">
+        <v>1.73</v>
+      </c>
+      <c r="BC248">
+        <v>1.84</v>
+      </c>
+      <c r="BD248">
+        <v>2.75</v>
+      </c>
+      <c r="BE248">
+        <v>0</v>
+      </c>
+      <c r="BF248">
+        <v>5</v>
+      </c>
+      <c r="BG248">
+        <v>7</v>
+      </c>
+      <c r="BH248">
+        <v>1</v>
+      </c>
+      <c r="BI248">
+        <v>3</v>
+      </c>
+      <c r="BJ248">
+        <v>6</v>
+      </c>
+      <c r="BK248">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:63">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>2833536</v>
+      </c>
+      <c r="C249" t="s">
+        <v>63</v>
+      </c>
+      <c r="D249" t="s">
+        <v>64</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45011.3125</v>
+      </c>
+      <c r="F249">
+        <v>28</v>
+      </c>
+      <c r="G249" t="s">
+        <v>70</v>
+      </c>
+      <c r="H249" t="s">
+        <v>73</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>0</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>0</v>
+      </c>
+      <c r="O249" t="s">
+        <v>84</v>
+      </c>
+      <c r="P249" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q249">
+        <v>3</v>
+      </c>
+      <c r="R249">
+        <v>5</v>
+      </c>
+      <c r="S249">
+        <v>8</v>
+      </c>
+      <c r="T249">
+        <v>2.4</v>
+      </c>
+      <c r="U249">
+        <v>2.1</v>
+      </c>
+      <c r="V249">
+        <v>4.75</v>
+      </c>
+      <c r="W249">
+        <v>1.4</v>
+      </c>
+      <c r="X249">
+        <v>2.7</v>
+      </c>
+      <c r="Y249">
+        <v>2.88</v>
+      </c>
+      <c r="Z249">
+        <v>1.36</v>
+      </c>
+      <c r="AA249">
+        <v>6.5</v>
+      </c>
+      <c r="AB249">
+        <v>1.08</v>
+      </c>
+      <c r="AC249">
+        <v>1.8</v>
+      </c>
+      <c r="AD249">
+        <v>3.5</v>
+      </c>
+      <c r="AE249">
+        <v>3.8</v>
+      </c>
+      <c r="AF249">
+        <v>1.02</v>
+      </c>
+      <c r="AG249">
+        <v>8.6</v>
+      </c>
+      <c r="AH249">
+        <v>1.29</v>
+      </c>
+      <c r="AI249">
+        <v>3.3</v>
+      </c>
+      <c r="AJ249">
+        <v>1.91</v>
+      </c>
+      <c r="AK249">
+        <v>1.85</v>
+      </c>
+      <c r="AL249">
+        <v>1.84</v>
+      </c>
+      <c r="AM249">
+        <v>1.92</v>
+      </c>
+      <c r="AN249">
+        <v>1.18</v>
+      </c>
+      <c r="AO249">
+        <v>1.25</v>
+      </c>
+      <c r="AP249">
+        <v>1.95</v>
+      </c>
+      <c r="AQ249">
+        <v>1.69</v>
+      </c>
+      <c r="AR249">
+        <v>1</v>
+      </c>
+      <c r="AS249">
+        <v>1.64</v>
+      </c>
+      <c r="AT249">
+        <v>1</v>
+      </c>
+      <c r="AU249">
+        <v>1.59</v>
+      </c>
+      <c r="AV249">
+        <v>1.23</v>
+      </c>
+      <c r="AW249">
+        <v>2.82</v>
+      </c>
+      <c r="AX249">
+        <v>1.7</v>
+      </c>
+      <c r="AY249">
+        <v>6.85</v>
+      </c>
+      <c r="AZ249">
+        <v>2.65</v>
+      </c>
+      <c r="BA249">
+        <v>1.46</v>
+      </c>
+      <c r="BB249">
+        <v>1.85</v>
+      </c>
+      <c r="BC249">
+        <v>2.42</v>
+      </c>
+      <c r="BD249">
+        <v>3.34</v>
+      </c>
+      <c r="BE249">
+        <v>0</v>
+      </c>
+      <c r="BF249">
+        <v>3</v>
+      </c>
+      <c r="BG249">
+        <v>6</v>
+      </c>
+      <c r="BH249">
+        <v>5</v>
+      </c>
+      <c r="BI249">
+        <v>4</v>
+      </c>
+      <c r="BJ249">
+        <v>8</v>
+      </c>
+      <c r="BK249">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey 1. Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey 1. Lig_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="345">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -739,6 +739,9 @@
     <t>['34']</t>
   </si>
   <si>
+    <t>['8']</t>
+  </si>
+  <si>
     <t>['22', '88']</t>
   </si>
   <si>
@@ -1036,13 +1039,16 @@
     <t>['73', '90+2']</t>
   </si>
   <si>
+    <t>['24', '80']</t>
+  </si>
+  <si>
     <t>['36', '65']</t>
   </si>
   <si>
-    <t>['24', '80']</t>
+    <t>['29', '40', '90+5']</t>
   </si>
   <si>
-    <t>['29', '40', '90+5']</t>
+    <t>['47', '53', '61', '74', '84']</t>
   </si>
 </sst>
 </file>
@@ -1404,7 +1410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK249"/>
+  <dimension ref="A1:BK253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1648,7 +1654,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1738,7 +1744,7 @@
         <v>1.15</v>
       </c>
       <c r="AT2">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1839,7 +1845,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -2030,7 +2036,7 @@
         <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2221,7 +2227,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2499,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT6">
         <v>0.54</v>
@@ -2603,7 +2609,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2794,7 +2800,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2985,7 +2991,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3072,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT9">
         <v>1.08</v>
@@ -3367,7 +3373,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3454,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT11">
         <v>0.77</v>
@@ -3558,7 +3564,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3648,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="AT12">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3940,7 +3946,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4030,7 +4036,7 @@
         <v>0.92</v>
       </c>
       <c r="AT14">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4131,7 +4137,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4600,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT17">
         <v>0.62</v>
@@ -4985,7 +4991,7 @@
         <v>0.93</v>
       </c>
       <c r="AT19">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5086,7 +5092,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q20">
         <v>9</v>
@@ -5173,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT20">
         <v>0.71</v>
@@ -5277,7 +5283,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q21">
         <v>9</v>
@@ -5468,7 +5474,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5558,7 +5564,7 @@
         <v>1.17</v>
       </c>
       <c r="AT22">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU22">
         <v>1.8</v>
@@ -5746,7 +5752,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT23">
         <v>0.62</v>
@@ -5850,7 +5856,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6041,7 +6047,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -6232,7 +6238,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6423,7 +6429,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6996,7 +7002,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -7378,7 +7384,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -7465,10 +7471,10 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT32">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU32">
         <v>1.84</v>
@@ -7569,7 +7575,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7850,7 +7856,7 @@
         <v>1.86</v>
       </c>
       <c r="AT34">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU34">
         <v>1.05</v>
@@ -8041,7 +8047,7 @@
         <v>0.93</v>
       </c>
       <c r="AT35">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU35">
         <v>1.3</v>
@@ -8142,7 +8148,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8229,7 +8235,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT36">
         <v>1</v>
@@ -8611,7 +8617,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT38">
         <v>1.46</v>
@@ -8715,7 +8721,7 @@
         <v>110</v>
       </c>
       <c r="P39" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8906,7 +8912,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9097,7 +9103,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9288,7 +9294,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q42">
         <v>10</v>
@@ -9569,7 +9575,7 @@
         <v>2.08</v>
       </c>
       <c r="AT43">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU43">
         <v>1.51</v>
@@ -9757,7 +9763,7 @@
         <v>1</v>
       </c>
       <c r="AS44">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT44">
         <v>0.62</v>
@@ -10330,7 +10336,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT47">
         <v>1</v>
@@ -10434,7 +10440,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10625,7 +10631,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10903,10 +10909,10 @@
         <v>2</v>
       </c>
       <c r="AS50">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT50">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU50">
         <v>1.47</v>
@@ -11007,7 +11013,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11094,10 +11100,10 @@
         <v>3</v>
       </c>
       <c r="AS51">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT51">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU51">
         <v>1.8</v>
@@ -11580,7 +11586,7 @@
         <v>122</v>
       </c>
       <c r="P54" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q54">
         <v>9</v>
@@ -11670,7 +11676,7 @@
         <v>2.36</v>
       </c>
       <c r="AT54">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU54">
         <v>1.4</v>
@@ -12726,7 +12732,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -13007,7 +13013,7 @@
         <v>1.75</v>
       </c>
       <c r="AT61">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU61">
         <v>1.35</v>
@@ -13195,7 +13201,7 @@
         <v>1.33</v>
       </c>
       <c r="AS62">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT62">
         <v>1.08</v>
@@ -13299,7 +13305,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13768,10 +13774,10 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT65">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU65">
         <v>1.51</v>
@@ -14153,7 +14159,7 @@
         <v>1.64</v>
       </c>
       <c r="AT67">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU67">
         <v>1.44</v>
@@ -14341,7 +14347,7 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT68">
         <v>1.62</v>
@@ -14636,7 +14642,7 @@
         <v>84</v>
       </c>
       <c r="P70" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14827,7 +14833,7 @@
         <v>84</v>
       </c>
       <c r="P71" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14914,7 +14920,7 @@
         <v>0.33</v>
       </c>
       <c r="AS71">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT71">
         <v>1</v>
@@ -15018,7 +15024,7 @@
         <v>84</v>
       </c>
       <c r="P72" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -15209,7 +15215,7 @@
         <v>84</v>
       </c>
       <c r="P73" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -15299,7 +15305,7 @@
         <v>1.15</v>
       </c>
       <c r="AT73">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU73">
         <v>1.1</v>
@@ -15487,7 +15493,7 @@
         <v>0</v>
       </c>
       <c r="AS74">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT74">
         <v>0.54</v>
@@ -15591,7 +15597,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15973,7 +15979,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16254,7 +16260,7 @@
         <v>0.92</v>
       </c>
       <c r="AT78">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU78">
         <v>1.51</v>
@@ -16355,7 +16361,7 @@
         <v>84</v>
       </c>
       <c r="P79" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16546,7 +16552,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16737,7 +16743,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q81">
         <v>9</v>
@@ -16928,7 +16934,7 @@
         <v>137</v>
       </c>
       <c r="P82" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -17206,10 +17212,10 @@
         <v>0.75</v>
       </c>
       <c r="AS83">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT83">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU83">
         <v>1.87</v>
@@ -17310,7 +17316,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17400,7 +17406,7 @@
         <v>1.62</v>
       </c>
       <c r="AT84">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU84">
         <v>1.84</v>
@@ -17501,7 +17507,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q85">
         <v>8</v>
@@ -17883,7 +17889,7 @@
         <v>112</v>
       </c>
       <c r="P87" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -18164,7 +18170,7 @@
         <v>1.64</v>
       </c>
       <c r="AT88">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU88">
         <v>1.53</v>
@@ -18352,7 +18358,7 @@
         <v>0.75</v>
       </c>
       <c r="AS89">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT89">
         <v>1.46</v>
@@ -18456,7 +18462,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -18734,7 +18740,7 @@
         <v>1.25</v>
       </c>
       <c r="AS91">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT91">
         <v>0.77</v>
@@ -18838,7 +18844,7 @@
         <v>84</v>
       </c>
       <c r="P92" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q92">
         <v>0</v>
@@ -19029,7 +19035,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -19119,7 +19125,7 @@
         <v>1.75</v>
       </c>
       <c r="AT93">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU93">
         <v>1.33</v>
@@ -19220,7 +19226,7 @@
         <v>84</v>
       </c>
       <c r="P94" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19310,7 +19316,7 @@
         <v>1.85</v>
       </c>
       <c r="AT94">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU94">
         <v>1.88</v>
@@ -19411,7 +19417,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19793,7 +19799,7 @@
         <v>147</v>
       </c>
       <c r="P97" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -20262,7 +20268,7 @@
         <v>0.4</v>
       </c>
       <c r="AS99">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT99">
         <v>0.62</v>
@@ -20366,7 +20372,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20838,7 +20844,7 @@
         <v>1.62</v>
       </c>
       <c r="AT102">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU102">
         <v>1.8</v>
@@ -21130,7 +21136,7 @@
         <v>153</v>
       </c>
       <c r="P104" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21217,7 +21223,7 @@
         <v>1</v>
       </c>
       <c r="AS104">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT104">
         <v>0.77</v>
@@ -21321,7 +21327,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21408,7 +21414,7 @@
         <v>2</v>
       </c>
       <c r="AS105">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT105">
         <v>1.77</v>
@@ -21602,7 +21608,7 @@
         <v>1.15</v>
       </c>
       <c r="AT106">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU106">
         <v>1.02</v>
@@ -21703,7 +21709,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -22085,7 +22091,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -22172,7 +22178,7 @@
         <v>1.6</v>
       </c>
       <c r="AS109">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT109">
         <v>0.62</v>
@@ -22467,7 +22473,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -22745,7 +22751,7 @@
         <v>1.17</v>
       </c>
       <c r="AS112">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT112">
         <v>0.71</v>
@@ -22849,7 +22855,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -22939,7 +22945,7 @@
         <v>1</v>
       </c>
       <c r="AT113">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU113">
         <v>1.08</v>
@@ -23040,7 +23046,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23231,7 +23237,7 @@
         <v>84</v>
       </c>
       <c r="P115" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23422,7 +23428,7 @@
         <v>84</v>
       </c>
       <c r="P116" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23804,7 +23810,7 @@
         <v>117</v>
       </c>
       <c r="P118" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23894,7 +23900,7 @@
         <v>2.21</v>
       </c>
       <c r="AT118">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU118">
         <v>1.41</v>
@@ -23995,7 +24001,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -24082,7 +24088,7 @@
         <v>1.71</v>
       </c>
       <c r="AS119">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT119">
         <v>1.77</v>
@@ -24655,7 +24661,7 @@
         <v>1.33</v>
       </c>
       <c r="AS122">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT122">
         <v>0.62</v>
@@ -24759,7 +24765,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -25037,7 +25043,7 @@
         <v>1</v>
       </c>
       <c r="AS124">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT124">
         <v>1.46</v>
@@ -25332,7 +25338,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25422,7 +25428,7 @@
         <v>2.21</v>
       </c>
       <c r="AT126">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU126">
         <v>1.41</v>
@@ -26183,10 +26189,10 @@
         <v>0.5</v>
       </c>
       <c r="AS130">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT130">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU130">
         <v>1.59</v>
@@ -26287,7 +26293,7 @@
         <v>147</v>
       </c>
       <c r="P131" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -26377,7 +26383,7 @@
         <v>0.62</v>
       </c>
       <c r="AT131">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU131">
         <v>1.33</v>
@@ -26669,7 +26675,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26759,7 +26765,7 @@
         <v>1.86</v>
       </c>
       <c r="AT133">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU133">
         <v>1.54</v>
@@ -26860,7 +26866,7 @@
         <v>145</v>
       </c>
       <c r="P134" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -26950,7 +26956,7 @@
         <v>1.17</v>
       </c>
       <c r="AT134">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU134">
         <v>1.51</v>
@@ -27051,7 +27057,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -27329,7 +27335,7 @@
         <v>1.57</v>
       </c>
       <c r="AS136">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT136">
         <v>1.08</v>
@@ -28388,7 +28394,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q142">
         <v>1</v>
@@ -28475,7 +28481,7 @@
         <v>0.86</v>
       </c>
       <c r="AS142">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT142">
         <v>1.46</v>
@@ -29152,7 +29158,7 @@
         <v>84</v>
       </c>
       <c r="P146" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29242,7 +29248,7 @@
         <v>1</v>
       </c>
       <c r="AT146">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU146">
         <v>1.02</v>
@@ -29534,7 +29540,7 @@
         <v>181</v>
       </c>
       <c r="P148" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q148">
         <v>2</v>
@@ -29916,7 +29922,7 @@
         <v>183</v>
       </c>
       <c r="P150" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -30003,10 +30009,10 @@
         <v>1.5</v>
       </c>
       <c r="AS150">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT150">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU150">
         <v>1.6</v>
@@ -30107,7 +30113,7 @@
         <v>169</v>
       </c>
       <c r="P151" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30298,7 +30304,7 @@
         <v>84</v>
       </c>
       <c r="P152" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30489,7 +30495,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30579,7 +30585,7 @@
         <v>1.85</v>
       </c>
       <c r="AT153">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU153">
         <v>1.46</v>
@@ -30680,7 +30686,7 @@
         <v>84</v>
       </c>
       <c r="P154" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30961,7 +30967,7 @@
         <v>1.64</v>
       </c>
       <c r="AT155">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU155">
         <v>1.6</v>
@@ -31531,7 +31537,7 @@
         <v>1.88</v>
       </c>
       <c r="AS158">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT158">
         <v>1.62</v>
@@ -31722,7 +31728,7 @@
         <v>1.14</v>
       </c>
       <c r="AS159">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT159">
         <v>1.08</v>
@@ -32208,7 +32214,7 @@
         <v>189</v>
       </c>
       <c r="P162" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32295,7 +32301,7 @@
         <v>0</v>
       </c>
       <c r="AS162">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT162">
         <v>0.54</v>
@@ -32399,7 +32405,7 @@
         <v>190</v>
       </c>
       <c r="P163" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q163">
         <v>7</v>
@@ -32972,7 +32978,7 @@
         <v>192</v>
       </c>
       <c r="P166" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q166">
         <v>8</v>
@@ -33059,7 +33065,7 @@
         <v>1</v>
       </c>
       <c r="AS166">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT166">
         <v>1</v>
@@ -33354,7 +33360,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q168">
         <v>1</v>
@@ -33444,7 +33450,7 @@
         <v>0.62</v>
       </c>
       <c r="AT168">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU168">
         <v>1.26</v>
@@ -33826,7 +33832,7 @@
         <v>0.92</v>
       </c>
       <c r="AT170">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU170">
         <v>1.3</v>
@@ -34396,7 +34402,7 @@
         <v>1.38</v>
       </c>
       <c r="AS173">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT173">
         <v>1.62</v>
@@ -34590,7 +34596,7 @@
         <v>1.86</v>
       </c>
       <c r="AT174">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU174">
         <v>1.52</v>
@@ -34691,7 +34697,7 @@
         <v>198</v>
       </c>
       <c r="P175" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q175">
         <v>7</v>
@@ -34972,7 +34978,7 @@
         <v>1.58</v>
       </c>
       <c r="AT176">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU176">
         <v>1.72</v>
@@ -35264,7 +35270,7 @@
         <v>199</v>
       </c>
       <c r="P178" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q178">
         <v>5</v>
@@ -35351,7 +35357,7 @@
         <v>1.63</v>
       </c>
       <c r="AS178">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT178">
         <v>1.46</v>
@@ -35646,7 +35652,7 @@
         <v>168</v>
       </c>
       <c r="P180" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -35837,7 +35843,7 @@
         <v>201</v>
       </c>
       <c r="P181" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -35986,7 +35992,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>2833470</v>
+        <v>2833469</v>
       </c>
       <c r="C182" t="s">
         <v>63</v>
@@ -36001,175 +36007,175 @@
         <v>21</v>
       </c>
       <c r="G182" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H182" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182">
         <v>1</v>
       </c>
       <c r="K182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M182">
         <v>1</v>
       </c>
       <c r="N182">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O182" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="P182" t="s">
-        <v>318</v>
+        <v>95</v>
       </c>
       <c r="Q182">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R182">
         <v>3</v>
       </c>
       <c r="S182">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T182">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="U182">
         <v>2.1</v>
       </c>
       <c r="V182">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="W182">
+        <v>1.4</v>
+      </c>
+      <c r="X182">
+        <v>2.75</v>
+      </c>
+      <c r="Y182">
+        <v>2.75</v>
+      </c>
+      <c r="Z182">
+        <v>1.4</v>
+      </c>
+      <c r="AA182">
+        <v>6.5</v>
+      </c>
+      <c r="AB182">
+        <v>1.1</v>
+      </c>
+      <c r="AC182">
+        <v>2.12</v>
+      </c>
+      <c r="AD182">
+        <v>3.25</v>
+      </c>
+      <c r="AE182">
+        <v>2.68</v>
+      </c>
+      <c r="AF182">
+        <v>1.06</v>
+      </c>
+      <c r="AG182">
+        <v>8</v>
+      </c>
+      <c r="AH182">
+        <v>1.33</v>
+      </c>
+      <c r="AI182">
+        <v>3.25</v>
+      </c>
+      <c r="AJ182">
+        <v>1.87</v>
+      </c>
+      <c r="AK182">
+        <v>1.73</v>
+      </c>
+      <c r="AL182">
+        <v>1.73</v>
+      </c>
+      <c r="AM182">
+        <v>2</v>
+      </c>
+      <c r="AN182">
         <v>1.36</v>
       </c>
-      <c r="X182">
-        <v>3</v>
-      </c>
-      <c r="Y182">
-        <v>2.62</v>
-      </c>
-      <c r="Z182">
-        <v>1.44</v>
-      </c>
-      <c r="AA182">
-        <v>6</v>
-      </c>
-      <c r="AB182">
+      <c r="AO182">
+        <v>1.3</v>
+      </c>
+      <c r="AP182">
+        <v>1.55</v>
+      </c>
+      <c r="AQ182">
+        <v>1.38</v>
+      </c>
+      <c r="AR182">
         <v>1.11</v>
       </c>
-      <c r="AC182">
-        <v>1.9</v>
-      </c>
-      <c r="AD182">
-        <v>3.1</v>
-      </c>
-      <c r="AE182">
-        <v>2.9</v>
-      </c>
-      <c r="AF182">
-        <v>1.05</v>
-      </c>
-      <c r="AG182">
-        <v>9</v>
-      </c>
-      <c r="AH182">
-        <v>1.29</v>
-      </c>
-      <c r="AI182">
-        <v>3.5</v>
-      </c>
-      <c r="AJ182">
-        <v>1.73</v>
-      </c>
-      <c r="AK182">
-        <v>2</v>
-      </c>
-      <c r="AL182">
-        <v>1.8</v>
-      </c>
-      <c r="AM182">
-        <v>1.91</v>
-      </c>
-      <c r="AN182">
-        <v>1.18</v>
-      </c>
-      <c r="AO182">
-        <v>1.29</v>
-      </c>
-      <c r="AP182">
-        <v>2</v>
-      </c>
-      <c r="AQ182">
-        <v>1.88</v>
-      </c>
-      <c r="AR182">
-        <v>1.22</v>
-      </c>
       <c r="AS182">
-        <v>1.75</v>
+        <v>1.17</v>
       </c>
       <c r="AT182">
-        <v>1.08</v>
+        <v>1.46</v>
       </c>
       <c r="AU182">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="AV182">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="AW182">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="AX182">
-        <v>1.6</v>
+        <v>2.18</v>
       </c>
       <c r="AY182">
-        <v>6.1</v>
+        <v>5.65</v>
       </c>
       <c r="AZ182">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="BA182">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="BB182">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="BC182">
-        <v>2.47</v>
+        <v>2.25</v>
       </c>
       <c r="BD182">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="BE182">
         <v>0</v>
       </c>
       <c r="BF182">
+        <v>3</v>
+      </c>
+      <c r="BG182">
+        <v>3</v>
+      </c>
+      <c r="BH182">
         <v>8</v>
       </c>
-      <c r="BG182">
+      <c r="BI182">
+        <v>1</v>
+      </c>
+      <c r="BJ182">
+        <v>11</v>
+      </c>
+      <c r="BK182">
         <v>4</v>
-      </c>
-      <c r="BH182">
-        <v>9</v>
-      </c>
-      <c r="BI182">
-        <v>5</v>
-      </c>
-      <c r="BJ182">
-        <v>17</v>
-      </c>
-      <c r="BK182">
-        <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:63">
@@ -36177,7 +36183,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>2833469</v>
+        <v>2833470</v>
       </c>
       <c r="C183" t="s">
         <v>63</v>
@@ -36192,175 +36198,175 @@
         <v>21</v>
       </c>
       <c r="G183" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H183" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183">
         <v>1</v>
       </c>
       <c r="K183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L183">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M183">
         <v>1</v>
       </c>
       <c r="N183">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O183" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="P183" t="s">
-        <v>95</v>
+        <v>319</v>
       </c>
       <c r="Q183">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R183">
         <v>3</v>
       </c>
       <c r="S183">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="T183">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="U183">
         <v>2.1</v>
       </c>
       <c r="V183">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="W183">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X183">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y183">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="Z183">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AA183">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB183">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AC183">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="AD183">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AE183">
-        <v>2.68</v>
+        <v>2.9</v>
       </c>
       <c r="AF183">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AG183">
+        <v>9</v>
+      </c>
+      <c r="AH183">
+        <v>1.29</v>
+      </c>
+      <c r="AI183">
+        <v>3.5</v>
+      </c>
+      <c r="AJ183">
+        <v>1.73</v>
+      </c>
+      <c r="AK183">
+        <v>2</v>
+      </c>
+      <c r="AL183">
+        <v>1.8</v>
+      </c>
+      <c r="AM183">
+        <v>1.91</v>
+      </c>
+      <c r="AN183">
+        <v>1.18</v>
+      </c>
+      <c r="AO183">
+        <v>1.29</v>
+      </c>
+      <c r="AP183">
+        <v>2</v>
+      </c>
+      <c r="AQ183">
+        <v>1.88</v>
+      </c>
+      <c r="AR183">
+        <v>1.22</v>
+      </c>
+      <c r="AS183">
+        <v>1.75</v>
+      </c>
+      <c r="AT183">
+        <v>1.08</v>
+      </c>
+      <c r="AU183">
+        <v>1.33</v>
+      </c>
+      <c r="AV183">
+        <v>1.47</v>
+      </c>
+      <c r="AW183">
+        <v>2.8</v>
+      </c>
+      <c r="AX183">
+        <v>1.6</v>
+      </c>
+      <c r="AY183">
+        <v>6.1</v>
+      </c>
+      <c r="AZ183">
+        <v>3.1</v>
+      </c>
+      <c r="BA183">
+        <v>1.56</v>
+      </c>
+      <c r="BB183">
+        <v>1.92</v>
+      </c>
+      <c r="BC183">
+        <v>2.47</v>
+      </c>
+      <c r="BD183">
+        <v>3.2</v>
+      </c>
+      <c r="BE183">
+        <v>0</v>
+      </c>
+      <c r="BF183">
         <v>8</v>
       </c>
-      <c r="AH183">
-        <v>1.33</v>
-      </c>
-      <c r="AI183">
-        <v>3.25</v>
-      </c>
-      <c r="AJ183">
-        <v>1.87</v>
-      </c>
-      <c r="AK183">
-        <v>1.73</v>
-      </c>
-      <c r="AL183">
-        <v>1.73</v>
-      </c>
-      <c r="AM183">
-        <v>2</v>
-      </c>
-      <c r="AN183">
-        <v>1.36</v>
-      </c>
-      <c r="AO183">
-        <v>1.3</v>
-      </c>
-      <c r="AP183">
-        <v>1.55</v>
-      </c>
-      <c r="AQ183">
-        <v>1.38</v>
-      </c>
-      <c r="AR183">
-        <v>1.11</v>
-      </c>
-      <c r="AS183">
-        <v>1.17</v>
-      </c>
-      <c r="AT183">
-        <v>1.46</v>
-      </c>
-      <c r="AU183">
-        <v>1.47</v>
-      </c>
-      <c r="AV183">
-        <v>1.2</v>
-      </c>
-      <c r="AW183">
-        <v>2.67</v>
-      </c>
-      <c r="AX183">
-        <v>2.18</v>
-      </c>
-      <c r="AY183">
-        <v>5.65</v>
-      </c>
-      <c r="AZ183">
-        <v>2.1</v>
-      </c>
-      <c r="BA183">
-        <v>1.5</v>
-      </c>
-      <c r="BB183">
-        <v>2.02</v>
-      </c>
-      <c r="BC183">
-        <v>2.25</v>
-      </c>
-      <c r="BD183">
-        <v>3.35</v>
-      </c>
-      <c r="BE183">
-        <v>0</v>
-      </c>
-      <c r="BF183">
-        <v>3</v>
-      </c>
       <c r="BG183">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH183">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI183">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BJ183">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BK183">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:63">
@@ -36410,7 +36416,7 @@
         <v>203</v>
       </c>
       <c r="P184" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q184">
         <v>6</v>
@@ -36601,7 +36607,7 @@
         <v>204</v>
       </c>
       <c r="P185" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -36792,7 +36798,7 @@
         <v>205</v>
       </c>
       <c r="P186" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q186">
         <v>0</v>
@@ -36983,7 +36989,7 @@
         <v>206</v>
       </c>
       <c r="P187" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -37070,10 +37076,10 @@
         <v>1.56</v>
       </c>
       <c r="AS187">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT187">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU187">
         <v>1.85</v>
@@ -37174,7 +37180,7 @@
         <v>207</v>
       </c>
       <c r="P188" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q188">
         <v>5</v>
@@ -37261,7 +37267,7 @@
         <v>0.9</v>
       </c>
       <c r="AS188">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT188">
         <v>0.71</v>
@@ -37365,7 +37371,7 @@
         <v>208</v>
       </c>
       <c r="P189" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37646,7 +37652,7 @@
         <v>1.58</v>
       </c>
       <c r="AT190">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU190">
         <v>1.69</v>
@@ -37747,7 +37753,7 @@
         <v>210</v>
       </c>
       <c r="P191" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -37837,7 +37843,7 @@
         <v>1</v>
       </c>
       <c r="AT191">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU191">
         <v>1.31</v>
@@ -37938,7 +37944,7 @@
         <v>211</v>
       </c>
       <c r="P192" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -38129,7 +38135,7 @@
         <v>84</v>
       </c>
       <c r="P193" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38320,7 +38326,7 @@
         <v>205</v>
       </c>
       <c r="P194" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38511,7 +38517,7 @@
         <v>212</v>
       </c>
       <c r="P195" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -38598,7 +38604,7 @@
         <v>1.78</v>
       </c>
       <c r="AS195">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT195">
         <v>1.46</v>
@@ -38702,7 +38708,7 @@
         <v>213</v>
       </c>
       <c r="P196" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q196">
         <v>2</v>
@@ -38789,7 +38795,7 @@
         <v>1.44</v>
       </c>
       <c r="AS196">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT196">
         <v>1.69</v>
@@ -39275,7 +39281,7 @@
         <v>84</v>
       </c>
       <c r="P199" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -39466,7 +39472,7 @@
         <v>148</v>
       </c>
       <c r="P200" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q200">
         <v>8</v>
@@ -39657,7 +39663,7 @@
         <v>117</v>
       </c>
       <c r="P201" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q201">
         <v>7</v>
@@ -39848,7 +39854,7 @@
         <v>215</v>
       </c>
       <c r="P202" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q202">
         <v>1</v>
@@ -39935,7 +39941,7 @@
         <v>1.73</v>
       </c>
       <c r="AS202">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT202">
         <v>1.77</v>
@@ -40039,7 +40045,7 @@
         <v>216</v>
       </c>
       <c r="P203" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q203">
         <v>4</v>
@@ -40320,7 +40326,7 @@
         <v>1.62</v>
       </c>
       <c r="AT204">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU204">
         <v>1.72</v>
@@ -40890,7 +40896,7 @@
         <v>1.9</v>
       </c>
       <c r="AS207">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT207">
         <v>1.46</v>
@@ -40994,7 +41000,7 @@
         <v>112</v>
       </c>
       <c r="P208" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q208">
         <v>10</v>
@@ -41657,7 +41663,7 @@
         <v>1.86</v>
       </c>
       <c r="AT211">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU211">
         <v>1.41</v>
@@ -41848,7 +41854,7 @@
         <v>2.36</v>
       </c>
       <c r="AT212">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU212">
         <v>2</v>
@@ -42098,7 +42104,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>2833495</v>
+        <v>2833499</v>
       </c>
       <c r="C214" t="s">
         <v>63</v>
@@ -42113,10 +42119,10 @@
         <v>24</v>
       </c>
       <c r="G214" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H214" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I214">
         <v>0</v>
@@ -42131,61 +42137,61 @@
         <v>0</v>
       </c>
       <c r="M214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O214" t="s">
         <v>84</v>
       </c>
       <c r="P214" t="s">
-        <v>227</v>
+        <v>307</v>
       </c>
       <c r="Q214">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R214">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S214">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T214">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="U214">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V214">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="W214">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X214">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y214">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="Z214">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AA214">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AB214">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AC214">
-        <v>3.59</v>
+        <v>2.99</v>
       </c>
       <c r="AD214">
-        <v>3.39</v>
+        <v>3.33</v>
       </c>
       <c r="AE214">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="AF214">
         <v>1.05</v>
@@ -42200,88 +42206,88 @@
         <v>3.4</v>
       </c>
       <c r="AJ214">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="AK214">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="AL214">
+        <v>1.73</v>
+      </c>
+      <c r="AM214">
+        <v>2</v>
+      </c>
+      <c r="AN214">
+        <v>1.65</v>
+      </c>
+      <c r="AO214">
+        <v>1.3</v>
+      </c>
+      <c r="AP214">
+        <v>1.33</v>
+      </c>
+      <c r="AQ214">
+        <v>1.18</v>
+      </c>
+      <c r="AR214">
+        <v>0.9</v>
+      </c>
+      <c r="AS214">
+        <v>0.93</v>
+      </c>
+      <c r="AT214">
+        <v>1.38</v>
+      </c>
+      <c r="AU214">
+        <v>1.45</v>
+      </c>
+      <c r="AV214">
+        <v>1.24</v>
+      </c>
+      <c r="AW214">
+        <v>2.69</v>
+      </c>
+      <c r="AX214">
+        <v>2.3</v>
+      </c>
+      <c r="AY214">
+        <v>5.5</v>
+      </c>
+      <c r="AZ214">
         <v>1.8</v>
       </c>
-      <c r="AM214">
-        <v>1.91</v>
-      </c>
-      <c r="AN214">
-        <v>1.85</v>
-      </c>
-      <c r="AO214">
-        <v>1.29</v>
-      </c>
-      <c r="AP214">
-        <v>1.22</v>
-      </c>
-      <c r="AQ214">
-        <v>1.55</v>
-      </c>
-      <c r="AR214">
-        <v>1.3</v>
-      </c>
-      <c r="AS214">
-        <v>1.31</v>
-      </c>
-      <c r="AT214">
-        <v>1.69</v>
-      </c>
-      <c r="AU214">
-        <v>1.57</v>
-      </c>
-      <c r="AV214">
-        <v>1.43</v>
-      </c>
-      <c r="AW214">
-        <v>3</v>
-      </c>
-      <c r="AX214">
-        <v>0</v>
-      </c>
-      <c r="AY214">
-        <v>0</v>
-      </c>
-      <c r="AZ214">
-        <v>0</v>
-      </c>
       <c r="BA214">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="BB214">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="BC214">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="BD214">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="BE214">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="BF214">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG214">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH214">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI214">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ214">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BK214">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:63">
@@ -42289,7 +42295,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>2833497</v>
+        <v>2833495</v>
       </c>
       <c r="C215" t="s">
         <v>63</v>
@@ -42304,10 +42310,10 @@
         <v>24</v>
       </c>
       <c r="G215" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H215" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I215">
         <v>0</v>
@@ -42343,13 +42349,13 @@
         <v>-1</v>
       </c>
       <c r="T215">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="U215">
         <v>2.2</v>
       </c>
       <c r="V215">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="W215">
         <v>1.36</v>
@@ -42358,31 +42364,31 @@
         <v>3</v>
       </c>
       <c r="Y215">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Z215">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AA215">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB215">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AC215">
-        <v>2.81</v>
+        <v>3.59</v>
       </c>
       <c r="AD215">
-        <v>3.32</v>
+        <v>3.39</v>
       </c>
       <c r="AE215">
-        <v>2.16</v>
+        <v>1.83</v>
       </c>
       <c r="AF215">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AG215">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH215">
         <v>1.3</v>
@@ -42397,40 +42403,40 @@
         <v>1.84</v>
       </c>
       <c r="AL215">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AM215">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AN215">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="AO215">
+        <v>1.29</v>
+      </c>
+      <c r="AP215">
+        <v>1.22</v>
+      </c>
+      <c r="AQ215">
+        <v>1.55</v>
+      </c>
+      <c r="AR215">
         <v>1.3</v>
       </c>
-      <c r="AP215">
-        <v>1.36</v>
-      </c>
-      <c r="AQ215">
-        <v>0.9</v>
-      </c>
-      <c r="AR215">
-        <v>1.2</v>
-      </c>
       <c r="AS215">
-        <v>0.75</v>
+        <v>1.21</v>
       </c>
       <c r="AT215">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="AU215">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AV215">
         <v>1.43</v>
       </c>
       <c r="AW215">
-        <v>2.89</v>
+        <v>3</v>
       </c>
       <c r="AX215">
         <v>0</v>
@@ -42480,7 +42486,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>2833499</v>
+        <v>2833497</v>
       </c>
       <c r="C216" t="s">
         <v>63</v>
@@ -42495,10 +42501,10 @@
         <v>24</v>
       </c>
       <c r="G216" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H216" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I216">
         <v>0</v>
@@ -42513,67 +42519,67 @@
         <v>0</v>
       </c>
       <c r="M216">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N216">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O216" t="s">
         <v>84</v>
       </c>
       <c r="P216" t="s">
-        <v>306</v>
+        <v>227</v>
       </c>
       <c r="Q216">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="R216">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="S216">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="T216">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="U216">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V216">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="W216">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X216">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y216">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Z216">
         <v>1.44</v>
       </c>
       <c r="AA216">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB216">
         <v>1.1</v>
       </c>
       <c r="AC216">
-        <v>2.99</v>
+        <v>2.81</v>
       </c>
       <c r="AD216">
-        <v>3.33</v>
+        <v>3.32</v>
       </c>
       <c r="AE216">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="AF216">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AG216">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH216">
         <v>1.3</v>
@@ -42582,88 +42588,88 @@
         <v>3.4</v>
       </c>
       <c r="AJ216">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="AK216">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="AL216">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AM216">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AN216">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AO216">
         <v>1.3</v>
       </c>
       <c r="AP216">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AQ216">
-        <v>1.18</v>
+        <v>0.9</v>
       </c>
       <c r="AR216">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AS216">
-        <v>0.93</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT216">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="AU216">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="AV216">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="AW216">
-        <v>2.69</v>
+        <v>2.89</v>
       </c>
       <c r="AX216">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="AY216">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="AZ216">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="BA216">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="BB216">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="BC216">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="BD216">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="BE216">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="BF216">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BG216">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BH216">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BI216">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BJ216">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BK216">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:63">
@@ -42713,7 +42719,7 @@
         <v>225</v>
       </c>
       <c r="P217" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q217">
         <v>4</v>
@@ -43053,7 +43059,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>2833508</v>
+        <v>2833503</v>
       </c>
       <c r="C219" t="s">
         <v>63</v>
@@ -43068,52 +43074,52 @@
         <v>25</v>
       </c>
       <c r="G219" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H219" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I219">
         <v>0</v>
       </c>
       <c r="J219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M219">
         <v>1</v>
       </c>
       <c r="N219">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O219" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="P219" t="s">
-        <v>319</v>
+        <v>149</v>
       </c>
       <c r="Q219">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R219">
         <v>3</v>
       </c>
       <c r="S219">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T219">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="U219">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V219">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="W219">
         <v>1.36</v>
@@ -43122,121 +43128,121 @@
         <v>3</v>
       </c>
       <c r="Y219">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="Z219">
+        <v>1.44</v>
+      </c>
+      <c r="AA219">
+        <v>6</v>
+      </c>
+      <c r="AB219">
+        <v>1.11</v>
+      </c>
+      <c r="AC219">
+        <v>2.6</v>
+      </c>
+      <c r="AD219">
+        <v>3.2</v>
+      </c>
+      <c r="AE219">
+        <v>2.5</v>
+      </c>
+      <c r="AF219">
+        <v>1.05</v>
+      </c>
+      <c r="AG219">
+        <v>9</v>
+      </c>
+      <c r="AH219">
+        <v>1.25</v>
+      </c>
+      <c r="AI219">
+        <v>3.75</v>
+      </c>
+      <c r="AJ219">
+        <v>1.91</v>
+      </c>
+      <c r="AK219">
+        <v>1.83</v>
+      </c>
+      <c r="AL219">
+        <v>1.67</v>
+      </c>
+      <c r="AM219">
+        <v>2.1</v>
+      </c>
+      <c r="AN219">
         <v>1.4</v>
       </c>
-      <c r="AA219">
-        <v>6.5</v>
-      </c>
-      <c r="AB219">
-        <v>1.1</v>
-      </c>
-      <c r="AC219">
-        <v>2.7</v>
-      </c>
-      <c r="AD219">
-        <v>3.08</v>
-      </c>
-      <c r="AE219">
-        <v>2.25</v>
-      </c>
-      <c r="AF219">
-        <v>1.06</v>
-      </c>
-      <c r="AG219">
-        <v>8</v>
-      </c>
-      <c r="AH219">
-        <v>1.3</v>
-      </c>
-      <c r="AI219">
-        <v>3.4</v>
-      </c>
-      <c r="AJ219">
-        <v>1.85</v>
-      </c>
-      <c r="AK219">
-        <v>1.76</v>
-      </c>
-      <c r="AL219">
+      <c r="AO219">
+        <v>1.29</v>
+      </c>
+      <c r="AP219">
+        <v>1.55</v>
+      </c>
+      <c r="AQ219">
+        <v>1.64</v>
+      </c>
+      <c r="AR219">
         <v>1.73</v>
       </c>
-      <c r="AM219">
-        <v>2</v>
-      </c>
-      <c r="AN219">
-        <v>1.55</v>
-      </c>
-      <c r="AO219">
-        <v>1.3</v>
-      </c>
-      <c r="AP219">
+      <c r="AS219">
+        <v>1.62</v>
+      </c>
+      <c r="AT219">
+        <v>1.46</v>
+      </c>
+      <c r="AU219">
+        <v>1.72</v>
+      </c>
+      <c r="AV219">
+        <v>1.41</v>
+      </c>
+      <c r="AW219">
+        <v>3.13</v>
+      </c>
+      <c r="AX219">
+        <v>2.18</v>
+      </c>
+      <c r="AY219">
+        <v>7.15</v>
+      </c>
+      <c r="AZ219">
+        <v>1.95</v>
+      </c>
+      <c r="BA219">
         <v>1.4</v>
       </c>
-      <c r="AQ219">
-        <v>1.1</v>
-      </c>
-      <c r="AR219">
-        <v>1.64</v>
-      </c>
-      <c r="AS219">
-        <v>1.17</v>
-      </c>
-      <c r="AT219">
-        <v>1.62</v>
-      </c>
-      <c r="AU219">
-        <v>1.47</v>
-      </c>
-      <c r="AV219">
+      <c r="BB219">
         <v>1.67</v>
       </c>
-      <c r="AW219">
-        <v>3.14</v>
-      </c>
-      <c r="AX219">
-        <v>2.2</v>
-      </c>
-      <c r="AY219">
-        <v>6.35</v>
-      </c>
-      <c r="AZ219">
-        <v>2</v>
-      </c>
-      <c r="BA219">
-        <v>1.5</v>
-      </c>
-      <c r="BB219">
-        <v>1.7</v>
-      </c>
       <c r="BC219">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="BD219">
-        <v>3.3</v>
+        <v>2.63</v>
       </c>
       <c r="BE219">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="BF219">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BG219">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH219">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BI219">
         <v>2</v>
       </c>
       <c r="BJ219">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BK219">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="220" spans="1:63">
@@ -43244,7 +43250,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>2833503</v>
+        <v>2833508</v>
       </c>
       <c r="C220" t="s">
         <v>63</v>
@@ -43259,52 +43265,52 @@
         <v>25</v>
       </c>
       <c r="G220" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H220" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I220">
         <v>0</v>
       </c>
       <c r="J220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M220">
         <v>1</v>
       </c>
       <c r="N220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O220" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="P220" t="s">
-        <v>149</v>
+        <v>320</v>
       </c>
       <c r="Q220">
+        <v>1</v>
+      </c>
+      <c r="R220">
+        <v>3</v>
+      </c>
+      <c r="S220">
         <v>4</v>
       </c>
-      <c r="R220">
-        <v>3</v>
-      </c>
-      <c r="S220">
-        <v>7</v>
-      </c>
       <c r="T220">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="U220">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V220">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="W220">
         <v>1.36</v>
@@ -43313,121 +43319,121 @@
         <v>3</v>
       </c>
       <c r="Y220">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="Z220">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AA220">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB220">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AC220">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AD220">
-        <v>3.2</v>
+        <v>3.08</v>
       </c>
       <c r="AE220">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AF220">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AG220">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH220">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AI220">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AJ220">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="AK220">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="AL220">
+        <v>1.73</v>
+      </c>
+      <c r="AM220">
+        <v>2</v>
+      </c>
+      <c r="AN220">
+        <v>1.55</v>
+      </c>
+      <c r="AO220">
+        <v>1.3</v>
+      </c>
+      <c r="AP220">
+        <v>1.4</v>
+      </c>
+      <c r="AQ220">
+        <v>1.1</v>
+      </c>
+      <c r="AR220">
+        <v>1.64</v>
+      </c>
+      <c r="AS220">
+        <v>1.17</v>
+      </c>
+      <c r="AT220">
+        <v>1.62</v>
+      </c>
+      <c r="AU220">
+        <v>1.47</v>
+      </c>
+      <c r="AV220">
         <v>1.67</v>
       </c>
-      <c r="AM220">
-        <v>2.1</v>
-      </c>
-      <c r="AN220">
-        <v>1.4</v>
-      </c>
-      <c r="AO220">
-        <v>1.29</v>
-      </c>
-      <c r="AP220">
-        <v>1.55</v>
-      </c>
-      <c r="AQ220">
-        <v>1.64</v>
-      </c>
-      <c r="AR220">
-        <v>1.73</v>
-      </c>
-      <c r="AS220">
-        <v>1.62</v>
-      </c>
-      <c r="AT220">
-        <v>1.46</v>
-      </c>
-      <c r="AU220">
-        <v>1.72</v>
-      </c>
-      <c r="AV220">
-        <v>1.41</v>
-      </c>
       <c r="AW220">
-        <v>3.13</v>
+        <v>3.14</v>
       </c>
       <c r="AX220">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AY220">
-        <v>7.15</v>
+        <v>6.35</v>
       </c>
       <c r="AZ220">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BA220">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="BB220">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="BC220">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="BD220">
-        <v>2.63</v>
+        <v>3.3</v>
       </c>
       <c r="BE220">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="BF220">
+        <v>0</v>
+      </c>
+      <c r="BG220">
+        <v>3</v>
+      </c>
+      <c r="BH220">
+        <v>4</v>
+      </c>
+      <c r="BI220">
+        <v>2</v>
+      </c>
+      <c r="BJ220">
+        <v>4</v>
+      </c>
+      <c r="BK220">
         <v>5</v>
-      </c>
-      <c r="BG220">
-        <v>4</v>
-      </c>
-      <c r="BH220">
-        <v>6</v>
-      </c>
-      <c r="BI220">
-        <v>2</v>
-      </c>
-      <c r="BJ220">
-        <v>11</v>
-      </c>
-      <c r="BK220">
-        <v>6</v>
       </c>
     </row>
     <row r="221" spans="1:63">
@@ -43435,7 +43441,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>2833502</v>
+        <v>2833501</v>
       </c>
       <c r="C221" t="s">
         <v>63</v>
@@ -43450,10 +43456,10 @@
         <v>25</v>
       </c>
       <c r="G221" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H221" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I221">
         <v>0</v>
@@ -43516,13 +43522,13 @@
         <v>0</v>
       </c>
       <c r="AC221">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="AD221">
-        <v>3.93</v>
+        <v>0</v>
       </c>
       <c r="AE221">
-        <v>5.19</v>
+        <v>0</v>
       </c>
       <c r="AF221">
         <v>0</v>
@@ -43537,10 +43543,10 @@
         <v>0</v>
       </c>
       <c r="AJ221">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="AK221">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AL221">
         <v>0</v>
@@ -43558,25 +43564,25 @@
         <v>0</v>
       </c>
       <c r="AQ221">
-        <v>1.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR221">
-        <v>0.73</v>
+        <v>0.83</v>
       </c>
       <c r="AS221">
-        <v>2.08</v>
+        <v>1.15</v>
       </c>
       <c r="AT221">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
       <c r="AU221">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="AV221">
-        <v>1.3</v>
+        <v>1.59</v>
       </c>
       <c r="AW221">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="AX221">
         <v>0</v>
@@ -43626,7 +43632,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>2833501</v>
+        <v>2833502</v>
       </c>
       <c r="C222" t="s">
         <v>63</v>
@@ -43641,10 +43647,10 @@
         <v>25</v>
       </c>
       <c r="G222" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H222" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I222">
         <v>0</v>
@@ -43707,13 +43713,13 @@
         <v>0</v>
       </c>
       <c r="AC222">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AD222">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="AE222">
-        <v>0</v>
+        <v>5.19</v>
       </c>
       <c r="AF222">
         <v>0</v>
@@ -43728,10 +43734,10 @@
         <v>0</v>
       </c>
       <c r="AJ222">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="AK222">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="AL222">
         <v>0</v>
@@ -43749,25 +43755,25 @@
         <v>0</v>
       </c>
       <c r="AQ222">
-        <v>1.09</v>
+        <v>1.9</v>
       </c>
       <c r="AR222">
-        <v>0.83</v>
+        <v>0.73</v>
       </c>
       <c r="AS222">
-        <v>1.15</v>
+        <v>2.08</v>
       </c>
       <c r="AT222">
-        <v>0.71</v>
+        <v>0.62</v>
       </c>
       <c r="AU222">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="AV222">
-        <v>1.59</v>
+        <v>1.3</v>
       </c>
       <c r="AW222">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AX222">
         <v>0</v>
@@ -44331,7 +44337,7 @@
         <v>2.21</v>
       </c>
       <c r="AT225">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU225">
         <v>1.49</v>
@@ -44623,7 +44629,7 @@
         <v>173</v>
       </c>
       <c r="P227" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q227">
         <v>3</v>
@@ -45005,7 +45011,7 @@
         <v>230</v>
       </c>
       <c r="P229" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q229">
         <v>2</v>
@@ -45095,7 +45101,7 @@
         <v>1.64</v>
       </c>
       <c r="AT229">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU229">
         <v>1.6</v>
@@ -45283,10 +45289,10 @@
         <v>1.09</v>
       </c>
       <c r="AS230">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT230">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU230">
         <v>1.46</v>
@@ -45345,7 +45351,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>2833514</v>
+        <v>2833518</v>
       </c>
       <c r="C231" t="s">
         <v>63</v>
@@ -45360,10 +45366,10 @@
         <v>26</v>
       </c>
       <c r="G231" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H231" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I231">
         <v>0</v>
@@ -45378,157 +45384,157 @@
         <v>0</v>
       </c>
       <c r="M231">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N231">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O231" t="s">
         <v>84</v>
       </c>
       <c r="P231" t="s">
-        <v>227</v>
+        <v>338</v>
       </c>
       <c r="Q231">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R231">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S231">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="T231">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="U231">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="V231">
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="W231">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X231">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y231">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Z231">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AA231">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AB231">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AC231">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AD231">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AE231">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AF231">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AG231">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH231">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AI231">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AJ231">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AK231">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AL231">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AM231">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AN231">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AO231">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AP231">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AQ231">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="AR231">
-        <v>1.36</v>
+        <v>0.83</v>
       </c>
       <c r="AS231">
-        <v>1.31</v>
+        <v>0.93</v>
       </c>
       <c r="AT231">
+        <v>1</v>
+      </c>
+      <c r="AU231">
+        <v>1.44</v>
+      </c>
+      <c r="AV231">
+        <v>1.23</v>
+      </c>
+      <c r="AW231">
+        <v>2.67</v>
+      </c>
+      <c r="AX231">
+        <v>2.7</v>
+      </c>
+      <c r="AY231">
+        <v>8.1</v>
+      </c>
+      <c r="AZ231">
         <v>1.62</v>
       </c>
-      <c r="AU231">
-        <v>1.57</v>
-      </c>
-      <c r="AV231">
-        <v>1.43</v>
-      </c>
-      <c r="AW231">
-        <v>3</v>
-      </c>
-      <c r="AX231">
-        <v>0</v>
-      </c>
-      <c r="AY231">
-        <v>0</v>
-      </c>
-      <c r="AZ231">
-        <v>0</v>
-      </c>
       <c r="BA231">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="BB231">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="BC231">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BD231">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="BE231">
         <v>0</v>
       </c>
       <c r="BF231">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG231">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH231">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BI231">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BJ231">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BK231">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:63">
@@ -45536,7 +45542,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>2833518</v>
+        <v>2833514</v>
       </c>
       <c r="C232" t="s">
         <v>63</v>
@@ -45551,10 +45557,10 @@
         <v>26</v>
       </c>
       <c r="G232" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H232" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I232">
         <v>0</v>
@@ -45569,157 +45575,157 @@
         <v>0</v>
       </c>
       <c r="M232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O232" t="s">
         <v>84</v>
       </c>
       <c r="P232" t="s">
-        <v>337</v>
+        <v>227</v>
       </c>
       <c r="Q232">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="R232">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="S232">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="T232">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="U232">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="V232">
-        <v>3.62</v>
+        <v>0</v>
       </c>
       <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+      <c r="AB232">
+        <v>0</v>
+      </c>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+      <c r="AD232">
+        <v>0</v>
+      </c>
+      <c r="AE232">
+        <v>0</v>
+      </c>
+      <c r="AF232">
+        <v>0</v>
+      </c>
+      <c r="AG232">
+        <v>0</v>
+      </c>
+      <c r="AH232">
+        <v>0</v>
+      </c>
+      <c r="AI232">
+        <v>0</v>
+      </c>
+      <c r="AJ232">
+        <v>0</v>
+      </c>
+      <c r="AK232">
+        <v>0</v>
+      </c>
+      <c r="AL232">
+        <v>0</v>
+      </c>
+      <c r="AM232">
+        <v>0</v>
+      </c>
+      <c r="AN232">
+        <v>0</v>
+      </c>
+      <c r="AO232">
+        <v>0</v>
+      </c>
+      <c r="AP232">
+        <v>0</v>
+      </c>
+      <c r="AQ232">
+        <v>1.42</v>
+      </c>
+      <c r="AR232">
         <v>1.36</v>
       </c>
-      <c r="X232">
-        <v>3</v>
-      </c>
-      <c r="Y232">
-        <v>2.63</v>
-      </c>
-      <c r="Z232">
-        <v>1.45</v>
-      </c>
-      <c r="AA232">
-        <v>6.5</v>
-      </c>
-      <c r="AB232">
-        <v>1.1</v>
-      </c>
-      <c r="AC232">
-        <v>3.1</v>
-      </c>
-      <c r="AD232">
-        <v>3.3</v>
-      </c>
-      <c r="AE232">
-        <v>2.3</v>
-      </c>
-      <c r="AF232">
-        <v>1.06</v>
-      </c>
-      <c r="AG232">
-        <v>8</v>
-      </c>
-      <c r="AH232">
-        <v>1.3</v>
-      </c>
-      <c r="AI232">
-        <v>3.4</v>
-      </c>
-      <c r="AJ232">
-        <v>2.05</v>
-      </c>
-      <c r="AK232">
-        <v>1.75</v>
-      </c>
-      <c r="AL232">
-        <v>1.73</v>
-      </c>
-      <c r="AM232">
-        <v>2.06</v>
-      </c>
-      <c r="AN232">
-        <v>1.33</v>
-      </c>
-      <c r="AO232">
-        <v>1.3</v>
-      </c>
-      <c r="AP232">
+      <c r="AS232">
+        <v>1.21</v>
+      </c>
+      <c r="AT232">
         <v>1.62</v>
       </c>
-      <c r="AQ232">
-        <v>1.08</v>
-      </c>
-      <c r="AR232">
-        <v>0.83</v>
-      </c>
-      <c r="AS232">
-        <v>0.93</v>
-      </c>
-      <c r="AT232">
-        <v>1</v>
-      </c>
       <c r="AU232">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AV232">
-        <v>1.23</v>
+        <v>1.43</v>
       </c>
       <c r="AW232">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="AX232">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AY232">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="AZ232">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="BA232">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="BB232">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="BC232">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BD232">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="BE232">
         <v>0</v>
       </c>
       <c r="BF232">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BG232">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BH232">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BI232">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BJ232">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BK232">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:63">
@@ -45769,7 +45775,7 @@
         <v>84</v>
       </c>
       <c r="P233" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q233">
         <v>11</v>
@@ -45856,7 +45862,7 @@
         <v>0.91</v>
       </c>
       <c r="AS233">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AT233">
         <v>1</v>
@@ -46050,7 +46056,7 @@
         <v>2.36</v>
       </c>
       <c r="AT234">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU234">
         <v>1.96</v>
@@ -46342,7 +46348,7 @@
         <v>233</v>
       </c>
       <c r="P236" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q236">
         <v>9</v>
@@ -46623,7 +46629,7 @@
         <v>0.62</v>
       </c>
       <c r="AT237">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU237">
         <v>1.35</v>
@@ -46682,7 +46688,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>2833522</v>
+        <v>2833519</v>
       </c>
       <c r="C238" t="s">
         <v>63</v>
@@ -46697,10 +46703,10 @@
         <v>27</v>
       </c>
       <c r="G238" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H238" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="I238">
         <v>0</v>
@@ -46712,160 +46718,160 @@
         <v>0</v>
       </c>
       <c r="L238">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N238">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O238" t="s">
+        <v>227</v>
+      </c>
+      <c r="P238" t="s">
         <v>84</v>
       </c>
-      <c r="P238" t="s">
-        <v>140</v>
-      </c>
       <c r="Q238">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="R238">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="S238">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="T238">
-        <v>3.7</v>
+        <v>2.38</v>
       </c>
       <c r="U238">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="V238">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="W238">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="X238">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="Y238">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="Z238">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AA238">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="AB238">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="AC238">
-        <v>3.6</v>
+        <v>1.73</v>
       </c>
       <c r="AD238">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AE238">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="AF238">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="AG238">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH238">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AI238">
-        <v>3.47</v>
+        <v>0</v>
       </c>
       <c r="AJ238">
+        <v>1.75</v>
+      </c>
+      <c r="AK238">
         <v>2.05</v>
       </c>
-      <c r="AK238">
-        <v>1.75</v>
-      </c>
       <c r="AL238">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AM238">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AN238">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AO238">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AP238">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AQ238">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AR238">
-        <v>1.58</v>
+        <v>0.77</v>
       </c>
       <c r="AS238">
-        <v>1.62</v>
+        <v>1.17</v>
       </c>
       <c r="AT238">
-        <v>1.69</v>
+        <v>0.71</v>
       </c>
       <c r="AU238">
-        <v>1.71</v>
+        <v>1.39</v>
       </c>
       <c r="AV238">
-        <v>1.42</v>
+        <v>1.59</v>
       </c>
       <c r="AW238">
-        <v>3.13</v>
+        <v>2.98</v>
       </c>
       <c r="AX238">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AY238">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="AZ238">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="BA238">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="BB238">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="BC238">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="BD238">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="BE238">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="BF238">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BG238">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BH238">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BI238">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BJ238">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BK238">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:63">
@@ -46873,7 +46879,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>2833519</v>
+        <v>2833520</v>
       </c>
       <c r="C239" t="s">
         <v>63</v>
@@ -46888,10 +46894,10 @@
         <v>27</v>
       </c>
       <c r="G239" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H239" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I239">
         <v>0</v>
@@ -46927,13 +46933,13 @@
         <v>-1</v>
       </c>
       <c r="T239">
-        <v>2.38</v>
+        <v>3.1</v>
       </c>
       <c r="U239">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V239">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="W239">
         <v>0</v>
@@ -46954,13 +46960,13 @@
         <v>0</v>
       </c>
       <c r="AC239">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="AD239">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AE239">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="AF239">
         <v>0</v>
@@ -46975,46 +46981,46 @@
         <v>0</v>
       </c>
       <c r="AJ239">
+        <v>1.85</v>
+      </c>
+      <c r="AK239">
+        <v>1.95</v>
+      </c>
+      <c r="AL239">
+        <v>0</v>
+      </c>
+      <c r="AM239">
+        <v>0</v>
+      </c>
+      <c r="AN239">
+        <v>0</v>
+      </c>
+      <c r="AO239">
+        <v>0</v>
+      </c>
+      <c r="AP239">
+        <v>0</v>
+      </c>
+      <c r="AQ239">
+        <v>1.64</v>
+      </c>
+      <c r="AR239">
+        <v>0.67</v>
+      </c>
+      <c r="AS239">
         <v>1.75</v>
       </c>
-      <c r="AK239">
-        <v>2.05</v>
-      </c>
-      <c r="AL239">
-        <v>0</v>
-      </c>
-      <c r="AM239">
-        <v>0</v>
-      </c>
-      <c r="AN239">
-        <v>0</v>
-      </c>
-      <c r="AO239">
-        <v>0</v>
-      </c>
-      <c r="AP239">
-        <v>0</v>
-      </c>
-      <c r="AQ239">
-        <v>1</v>
-      </c>
-      <c r="AR239">
-        <v>0.77</v>
-      </c>
-      <c r="AS239">
-        <v>1.17</v>
-      </c>
       <c r="AT239">
-        <v>0.71</v>
+        <v>0.62</v>
       </c>
       <c r="AU239">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="AV239">
-        <v>1.59</v>
+        <v>1.3</v>
       </c>
       <c r="AW239">
-        <v>2.98</v>
+        <v>2.75</v>
       </c>
       <c r="AX239">
         <v>0</v>
@@ -47064,7 +47070,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>2833520</v>
+        <v>2833522</v>
       </c>
       <c r="C240" t="s">
         <v>63</v>
@@ -47079,10 +47085,10 @@
         <v>27</v>
       </c>
       <c r="G240" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="H240" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I240">
         <v>0</v>
@@ -47094,160 +47100,160 @@
         <v>0</v>
       </c>
       <c r="L240">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N240">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O240" t="s">
-        <v>227</v>
+        <v>84</v>
       </c>
       <c r="P240" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="Q240">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R240">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S240">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T240">
+        <v>3.7</v>
+      </c>
+      <c r="U240">
+        <v>2.15</v>
+      </c>
+      <c r="V240">
+        <v>2.7</v>
+      </c>
+      <c r="W240">
+        <v>1.38</v>
+      </c>
+      <c r="X240">
+        <v>2.8</v>
+      </c>
+      <c r="Y240">
+        <v>2.7</v>
+      </c>
+      <c r="Z240">
+        <v>1.4</v>
+      </c>
+      <c r="AA240">
+        <v>6.25</v>
+      </c>
+      <c r="AB240">
+        <v>1.09</v>
+      </c>
+      <c r="AC240">
+        <v>3.6</v>
+      </c>
+      <c r="AD240">
         <v>3.1</v>
       </c>
-      <c r="U240">
-        <v>2.2</v>
-      </c>
-      <c r="V240">
-        <v>3.25</v>
-      </c>
-      <c r="W240">
-        <v>0</v>
-      </c>
-      <c r="X240">
-        <v>0</v>
-      </c>
-      <c r="Y240">
-        <v>0</v>
-      </c>
-      <c r="Z240">
-        <v>0</v>
-      </c>
-      <c r="AA240">
-        <v>0</v>
-      </c>
-      <c r="AB240">
-        <v>0</v>
-      </c>
-      <c r="AC240">
-        <v>2.4</v>
-      </c>
-      <c r="AD240">
-        <v>3.2</v>
-      </c>
       <c r="AE240">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="AF240">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AG240">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH240">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AI240">
-        <v>0</v>
+        <v>3.47</v>
       </c>
       <c r="AJ240">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="AK240">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AL240">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AM240">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AN240">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AO240">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AP240">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AQ240">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR240">
-        <v>0.67</v>
+        <v>1.58</v>
       </c>
       <c r="AS240">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT240">
-        <v>0.62</v>
+        <v>1.69</v>
       </c>
       <c r="AU240">
-        <v>1.45</v>
+        <v>1.71</v>
       </c>
       <c r="AV240">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="AW240">
-        <v>2.75</v>
+        <v>3.13</v>
       </c>
       <c r="AX240">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AY240">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AZ240">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="BA240">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="BB240">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="BC240">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="BD240">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="BE240">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="BF240">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG240">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH240">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BI240">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ240">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BK240">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:63">
@@ -47297,7 +47303,7 @@
         <v>234</v>
       </c>
       <c r="P241" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q241">
         <v>4</v>
@@ -47384,7 +47390,7 @@
         <v>1.75</v>
       </c>
       <c r="AS241">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AT241">
         <v>1.62</v>
@@ -47870,7 +47876,7 @@
         <v>237</v>
       </c>
       <c r="P244" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q244">
         <v>7</v>
@@ -48210,7 +48216,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>2833531</v>
+        <v>2833528</v>
       </c>
       <c r="C246" t="s">
         <v>63</v>
@@ -48225,175 +48231,175 @@
         <v>28</v>
       </c>
       <c r="G246" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H246" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="I246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J246">
         <v>1</v>
       </c>
       <c r="K246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L246">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M246">
         <v>2</v>
       </c>
       <c r="N246">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O246" t="s">
-        <v>84</v>
+        <v>239</v>
       </c>
       <c r="P246" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q246">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R246">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S246">
         <v>10</v>
       </c>
       <c r="T246">
-        <v>3.3</v>
+        <v>2.29</v>
       </c>
       <c r="U246">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V246">
-        <v>3.1</v>
+        <v>4.98</v>
       </c>
       <c r="W246">
+        <v>1.38</v>
+      </c>
+      <c r="X246">
+        <v>2.85</v>
+      </c>
+      <c r="Y246">
+        <v>2.65</v>
+      </c>
+      <c r="Z246">
         <v>1.42</v>
       </c>
-      <c r="X246">
-        <v>2.62</v>
-      </c>
-      <c r="Y246">
-        <v>2.88</v>
-      </c>
-      <c r="Z246">
-        <v>1.36</v>
-      </c>
       <c r="AA246">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB246">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AC246">
+        <v>1.93</v>
+      </c>
+      <c r="AD246">
+        <v>3.5</v>
+      </c>
+      <c r="AE246">
+        <v>3.8</v>
+      </c>
+      <c r="AF246">
+        <v>1.04</v>
+      </c>
+      <c r="AG246">
+        <v>13</v>
+      </c>
+      <c r="AH246">
+        <v>1.26</v>
+      </c>
+      <c r="AI246">
+        <v>3.52</v>
+      </c>
+      <c r="AJ246">
+        <v>1.91</v>
+      </c>
+      <c r="AK246">
+        <v>1.85</v>
+      </c>
+      <c r="AL246">
+        <v>1.78</v>
+      </c>
+      <c r="AM246">
+        <v>1.95</v>
+      </c>
+      <c r="AN246">
+        <v>1.2</v>
+      </c>
+      <c r="AO246">
+        <v>1.29</v>
+      </c>
+      <c r="AP246">
+        <v>1.95</v>
+      </c>
+      <c r="AQ246">
+        <v>1.92</v>
+      </c>
+      <c r="AR246">
+        <v>0.75</v>
+      </c>
+      <c r="AS246">
+        <v>1.86</v>
+      </c>
+      <c r="AT246">
+        <v>0.77</v>
+      </c>
+      <c r="AU246">
+        <v>1.51</v>
+      </c>
+      <c r="AV246">
+        <v>1.29</v>
+      </c>
+      <c r="AW246">
         <v>2.8</v>
       </c>
-      <c r="AD246">
-        <v>3.3</v>
-      </c>
-      <c r="AE246">
-        <v>2.45</v>
-      </c>
-      <c r="AF246">
-        <v>1.05</v>
-      </c>
-      <c r="AG246">
-        <v>11.25</v>
-      </c>
-      <c r="AH246">
-        <v>1.3</v>
-      </c>
-      <c r="AI246">
+      <c r="AX246">
+        <v>1.5</v>
+      </c>
+      <c r="AY246">
+        <v>6.25</v>
+      </c>
+      <c r="AZ246">
+        <v>3.5</v>
+      </c>
+      <c r="BA246">
+        <v>1.42</v>
+      </c>
+      <c r="BB246">
+        <v>1.76</v>
+      </c>
+      <c r="BC246">
+        <v>2.15</v>
+      </c>
+      <c r="BD246">
         <v>3.2</v>
       </c>
-      <c r="AJ246">
-        <v>2</v>
-      </c>
-      <c r="AK246">
-        <v>1.78</v>
-      </c>
-      <c r="AL246">
-        <v>1.73</v>
-      </c>
-      <c r="AM246">
-        <v>2</v>
-      </c>
-      <c r="AN246">
-        <v>1.5</v>
-      </c>
-      <c r="AO246">
-        <v>1.33</v>
-      </c>
-      <c r="AP246">
-        <v>1.4</v>
-      </c>
-      <c r="AQ246">
-        <v>1.08</v>
-      </c>
-      <c r="AR246">
-        <v>1.33</v>
-      </c>
-      <c r="AS246">
-        <v>1</v>
-      </c>
-      <c r="AT246">
-        <v>1.46</v>
-      </c>
-      <c r="AU246">
-        <v>1.26</v>
-      </c>
-      <c r="AV246">
-        <v>1.22</v>
-      </c>
-      <c r="AW246">
-        <v>2.48</v>
-      </c>
-      <c r="AX246">
-        <v>2.75</v>
-      </c>
-      <c r="AY246">
-        <v>5.2</v>
-      </c>
-      <c r="AZ246">
-        <v>1.8</v>
-      </c>
-      <c r="BA246">
-        <v>1.4</v>
-      </c>
-      <c r="BB246">
-        <v>1.8</v>
-      </c>
-      <c r="BC246">
-        <v>2.24</v>
-      </c>
-      <c r="BD246">
-        <v>3.08</v>
-      </c>
       <c r="BE246">
         <v>0</v>
       </c>
       <c r="BF246">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BG246">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH246">
         <v>8</v>
       </c>
       <c r="BI246">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BJ246">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BK246">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:63">
@@ -48401,7 +48407,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>2833528</v>
+        <v>2833531</v>
       </c>
       <c r="C247" t="s">
         <v>63</v>
@@ -48416,175 +48422,175 @@
         <v>28</v>
       </c>
       <c r="G247" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H247" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J247">
         <v>1</v>
       </c>
       <c r="K247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L247">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M247">
         <v>2</v>
       </c>
       <c r="N247">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O247" t="s">
-        <v>239</v>
+        <v>84</v>
       </c>
       <c r="P247" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q247">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R247">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S247">
         <v>10</v>
       </c>
       <c r="T247">
-        <v>2.29</v>
+        <v>3.3</v>
       </c>
       <c r="U247">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V247">
-        <v>4.98</v>
+        <v>3.1</v>
       </c>
       <c r="W247">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="X247">
-        <v>2.85</v>
+        <v>2.62</v>
       </c>
       <c r="Y247">
-        <v>2.65</v>
+        <v>2.88</v>
       </c>
       <c r="Z247">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AA247">
+        <v>6.5</v>
+      </c>
+      <c r="AB247">
+        <v>1.08</v>
+      </c>
+      <c r="AC247">
+        <v>2.8</v>
+      </c>
+      <c r="AD247">
+        <v>3.3</v>
+      </c>
+      <c r="AE247">
+        <v>2.45</v>
+      </c>
+      <c r="AF247">
+        <v>1.05</v>
+      </c>
+      <c r="AG247">
+        <v>11.25</v>
+      </c>
+      <c r="AH247">
+        <v>1.3</v>
+      </c>
+      <c r="AI247">
+        <v>3.2</v>
+      </c>
+      <c r="AJ247">
+        <v>2</v>
+      </c>
+      <c r="AK247">
+        <v>1.78</v>
+      </c>
+      <c r="AL247">
+        <v>1.73</v>
+      </c>
+      <c r="AM247">
+        <v>2</v>
+      </c>
+      <c r="AN247">
+        <v>1.5</v>
+      </c>
+      <c r="AO247">
+        <v>1.33</v>
+      </c>
+      <c r="AP247">
+        <v>1.4</v>
+      </c>
+      <c r="AQ247">
+        <v>1.08</v>
+      </c>
+      <c r="AR247">
+        <v>1.33</v>
+      </c>
+      <c r="AS247">
+        <v>1</v>
+      </c>
+      <c r="AT247">
+        <v>1.46</v>
+      </c>
+      <c r="AU247">
+        <v>1.26</v>
+      </c>
+      <c r="AV247">
+        <v>1.22</v>
+      </c>
+      <c r="AW247">
+        <v>2.48</v>
+      </c>
+      <c r="AX247">
+        <v>2.75</v>
+      </c>
+      <c r="AY247">
+        <v>5.2</v>
+      </c>
+      <c r="AZ247">
+        <v>1.8</v>
+      </c>
+      <c r="BA247">
+        <v>1.4</v>
+      </c>
+      <c r="BB247">
+        <v>1.8</v>
+      </c>
+      <c r="BC247">
+        <v>2.24</v>
+      </c>
+      <c r="BD247">
+        <v>3.08</v>
+      </c>
+      <c r="BE247">
+        <v>0</v>
+      </c>
+      <c r="BF247">
         <v>6</v>
       </c>
-      <c r="AB247">
-        <v>1.09</v>
-      </c>
-      <c r="AC247">
-        <v>1.93</v>
-      </c>
-      <c r="AD247">
-        <v>3.5</v>
-      </c>
-      <c r="AE247">
-        <v>3.8</v>
-      </c>
-      <c r="AF247">
-        <v>1.04</v>
-      </c>
-      <c r="AG247">
-        <v>13</v>
-      </c>
-      <c r="AH247">
-        <v>1.26</v>
-      </c>
-      <c r="AI247">
-        <v>3.52</v>
-      </c>
-      <c r="AJ247">
-        <v>1.91</v>
-      </c>
-      <c r="AK247">
-        <v>1.85</v>
-      </c>
-      <c r="AL247">
-        <v>1.78</v>
-      </c>
-      <c r="AM247">
-        <v>1.95</v>
-      </c>
-      <c r="AN247">
-        <v>1.2</v>
-      </c>
-      <c r="AO247">
-        <v>1.29</v>
-      </c>
-      <c r="AP247">
-        <v>1.95</v>
-      </c>
-      <c r="AQ247">
-        <v>1.92</v>
-      </c>
-      <c r="AR247">
-        <v>0.75</v>
-      </c>
-      <c r="AS247">
-        <v>1.86</v>
-      </c>
-      <c r="AT247">
-        <v>0.77</v>
-      </c>
-      <c r="AU247">
-        <v>1.51</v>
-      </c>
-      <c r="AV247">
-        <v>1.29</v>
-      </c>
-      <c r="AW247">
-        <v>2.8</v>
-      </c>
-      <c r="AX247">
-        <v>1.5</v>
-      </c>
-      <c r="AY247">
-        <v>6.25</v>
-      </c>
-      <c r="AZ247">
-        <v>3.5</v>
-      </c>
-      <c r="BA247">
-        <v>1.42</v>
-      </c>
-      <c r="BB247">
-        <v>1.76</v>
-      </c>
-      <c r="BC247">
-        <v>2.15</v>
-      </c>
-      <c r="BD247">
-        <v>3.2</v>
-      </c>
-      <c r="BE247">
-        <v>0</v>
-      </c>
-      <c r="BF247">
-        <v>2</v>
-      </c>
       <c r="BG247">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH247">
         <v>8</v>
       </c>
       <c r="BI247">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BJ247">
+        <v>14</v>
+      </c>
+      <c r="BK247">
         <v>10</v>
-      </c>
-      <c r="BK247">
-        <v>6</v>
       </c>
     </row>
     <row r="248" spans="1:63">
@@ -48634,7 +48640,7 @@
         <v>240</v>
       </c>
       <c r="P248" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q248">
         <v>0</v>
@@ -48967,6 +48973,770 @@
       </c>
       <c r="BK249">
         <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:63">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>2833534</v>
+      </c>
+      <c r="C250" t="s">
+        <v>63</v>
+      </c>
+      <c r="D250" t="s">
+        <v>64</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45011.5</v>
+      </c>
+      <c r="F250">
+        <v>28</v>
+      </c>
+      <c r="G250" t="s">
+        <v>72</v>
+      </c>
+      <c r="H250" t="s">
+        <v>71</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+      <c r="M250">
+        <v>3</v>
+      </c>
+      <c r="N250">
+        <v>3</v>
+      </c>
+      <c r="O250" t="s">
+        <v>84</v>
+      </c>
+      <c r="P250" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q250">
+        <v>-1</v>
+      </c>
+      <c r="R250">
+        <v>-1</v>
+      </c>
+      <c r="S250">
+        <v>-1</v>
+      </c>
+      <c r="T250">
+        <v>0</v>
+      </c>
+      <c r="U250">
+        <v>0</v>
+      </c>
+      <c r="V250">
+        <v>0</v>
+      </c>
+      <c r="W250">
+        <v>0</v>
+      </c>
+      <c r="X250">
+        <v>0</v>
+      </c>
+      <c r="Y250">
+        <v>0</v>
+      </c>
+      <c r="Z250">
+        <v>0</v>
+      </c>
+      <c r="AA250">
+        <v>0</v>
+      </c>
+      <c r="AB250">
+        <v>0</v>
+      </c>
+      <c r="AC250">
+        <v>0</v>
+      </c>
+      <c r="AD250">
+        <v>0</v>
+      </c>
+      <c r="AE250">
+        <v>0</v>
+      </c>
+      <c r="AF250">
+        <v>0</v>
+      </c>
+      <c r="AG250">
+        <v>0</v>
+      </c>
+      <c r="AH250">
+        <v>0</v>
+      </c>
+      <c r="AI250">
+        <v>0</v>
+      </c>
+      <c r="AJ250">
+        <v>0</v>
+      </c>
+      <c r="AK250">
+        <v>0</v>
+      </c>
+      <c r="AL250">
+        <v>0</v>
+      </c>
+      <c r="AM250">
+        <v>0</v>
+      </c>
+      <c r="AN250">
+        <v>0</v>
+      </c>
+      <c r="AO250">
+        <v>0</v>
+      </c>
+      <c r="AP250">
+        <v>0</v>
+      </c>
+      <c r="AQ250">
+        <v>1.31</v>
+      </c>
+      <c r="AR250">
+        <v>1.25</v>
+      </c>
+      <c r="AS250">
+        <v>1.21</v>
+      </c>
+      <c r="AT250">
+        <v>1.38</v>
+      </c>
+      <c r="AU250">
+        <v>1.57</v>
+      </c>
+      <c r="AV250">
+        <v>1.24</v>
+      </c>
+      <c r="AW250">
+        <v>2.81</v>
+      </c>
+      <c r="AX250">
+        <v>0</v>
+      </c>
+      <c r="AY250">
+        <v>0</v>
+      </c>
+      <c r="AZ250">
+        <v>0</v>
+      </c>
+      <c r="BA250">
+        <v>0</v>
+      </c>
+      <c r="BB250">
+        <v>0</v>
+      </c>
+      <c r="BC250">
+        <v>0</v>
+      </c>
+      <c r="BD250">
+        <v>0</v>
+      </c>
+      <c r="BE250">
+        <v>0</v>
+      </c>
+      <c r="BF250">
+        <v>-1</v>
+      </c>
+      <c r="BG250">
+        <v>-1</v>
+      </c>
+      <c r="BH250">
+        <v>-1</v>
+      </c>
+      <c r="BI250">
+        <v>-1</v>
+      </c>
+      <c r="BJ250">
+        <v>-1</v>
+      </c>
+      <c r="BK250">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:63">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>2833535</v>
+      </c>
+      <c r="C251" t="s">
+        <v>63</v>
+      </c>
+      <c r="D251" t="s">
+        <v>64</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45011.5</v>
+      </c>
+      <c r="F251">
+        <v>28</v>
+      </c>
+      <c r="G251" t="s">
+        <v>80</v>
+      </c>
+      <c r="H251" t="s">
+        <v>83</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251">
+        <v>3</v>
+      </c>
+      <c r="N251">
+        <v>3</v>
+      </c>
+      <c r="O251" t="s">
+        <v>84</v>
+      </c>
+      <c r="P251" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q251">
+        <v>-1</v>
+      </c>
+      <c r="R251">
+        <v>-1</v>
+      </c>
+      <c r="S251">
+        <v>-1</v>
+      </c>
+      <c r="T251">
+        <v>0</v>
+      </c>
+      <c r="U251">
+        <v>0</v>
+      </c>
+      <c r="V251">
+        <v>0</v>
+      </c>
+      <c r="W251">
+        <v>0</v>
+      </c>
+      <c r="X251">
+        <v>0</v>
+      </c>
+      <c r="Y251">
+        <v>0</v>
+      </c>
+      <c r="Z251">
+        <v>0</v>
+      </c>
+      <c r="AA251">
+        <v>0</v>
+      </c>
+      <c r="AB251">
+        <v>0</v>
+      </c>
+      <c r="AC251">
+        <v>0</v>
+      </c>
+      <c r="AD251">
+        <v>0</v>
+      </c>
+      <c r="AE251">
+        <v>0</v>
+      </c>
+      <c r="AF251">
+        <v>0</v>
+      </c>
+      <c r="AG251">
+        <v>0</v>
+      </c>
+      <c r="AH251">
+        <v>0</v>
+      </c>
+      <c r="AI251">
+        <v>0</v>
+      </c>
+      <c r="AJ251">
+        <v>0</v>
+      </c>
+      <c r="AK251">
+        <v>0</v>
+      </c>
+      <c r="AL251">
+        <v>0</v>
+      </c>
+      <c r="AM251">
+        <v>0</v>
+      </c>
+      <c r="AN251">
+        <v>0</v>
+      </c>
+      <c r="AO251">
+        <v>0</v>
+      </c>
+      <c r="AP251">
+        <v>0</v>
+      </c>
+      <c r="AQ251">
+        <v>0.75</v>
+      </c>
+      <c r="AR251">
+        <v>1.23</v>
+      </c>
+      <c r="AS251">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AT251">
+        <v>1.36</v>
+      </c>
+      <c r="AU251">
+        <v>1.46</v>
+      </c>
+      <c r="AV251">
+        <v>1.65</v>
+      </c>
+      <c r="AW251">
+        <v>3.11</v>
+      </c>
+      <c r="AX251">
+        <v>0</v>
+      </c>
+      <c r="AY251">
+        <v>0</v>
+      </c>
+      <c r="AZ251">
+        <v>0</v>
+      </c>
+      <c r="BA251">
+        <v>0</v>
+      </c>
+      <c r="BB251">
+        <v>0</v>
+      </c>
+      <c r="BC251">
+        <v>0</v>
+      </c>
+      <c r="BD251">
+        <v>0</v>
+      </c>
+      <c r="BE251">
+        <v>0</v>
+      </c>
+      <c r="BF251">
+        <v>-1</v>
+      </c>
+      <c r="BG251">
+        <v>-1</v>
+      </c>
+      <c r="BH251">
+        <v>-1</v>
+      </c>
+      <c r="BI251">
+        <v>-1</v>
+      </c>
+      <c r="BJ251">
+        <v>-1</v>
+      </c>
+      <c r="BK251">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:63">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>2833533</v>
+      </c>
+      <c r="C252" t="s">
+        <v>63</v>
+      </c>
+      <c r="D252" t="s">
+        <v>64</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45011.58333333334</v>
+      </c>
+      <c r="F252">
+        <v>28</v>
+      </c>
+      <c r="G252" t="s">
+        <v>69</v>
+      </c>
+      <c r="H252" t="s">
+        <v>67</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>1</v>
+      </c>
+      <c r="K252">
+        <v>1</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+      <c r="M252">
+        <v>1</v>
+      </c>
+      <c r="N252">
+        <v>1</v>
+      </c>
+      <c r="O252" t="s">
+        <v>84</v>
+      </c>
+      <c r="P252" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q252">
+        <v>5</v>
+      </c>
+      <c r="R252">
+        <v>6</v>
+      </c>
+      <c r="S252">
+        <v>11</v>
+      </c>
+      <c r="T252">
+        <v>2.4</v>
+      </c>
+      <c r="U252">
+        <v>2.15</v>
+      </c>
+      <c r="V252">
+        <v>4.5</v>
+      </c>
+      <c r="W252">
+        <v>1.42</v>
+      </c>
+      <c r="X252">
+        <v>2.62</v>
+      </c>
+      <c r="Y252">
+        <v>2.88</v>
+      </c>
+      <c r="Z252">
+        <v>1.36</v>
+      </c>
+      <c r="AA252">
+        <v>6.5</v>
+      </c>
+      <c r="AB252">
+        <v>1.08</v>
+      </c>
+      <c r="AC252">
+        <v>1.75</v>
+      </c>
+      <c r="AD252">
+        <v>3.25</v>
+      </c>
+      <c r="AE252">
+        <v>4.2</v>
+      </c>
+      <c r="AF252">
+        <v>1.05</v>
+      </c>
+      <c r="AG252">
+        <v>11.25</v>
+      </c>
+      <c r="AH252">
+        <v>1.29</v>
+      </c>
+      <c r="AI252">
+        <v>3.3</v>
+      </c>
+      <c r="AJ252">
+        <v>2</v>
+      </c>
+      <c r="AK252">
+        <v>1.67</v>
+      </c>
+      <c r="AL252">
+        <v>1.82</v>
+      </c>
+      <c r="AM252">
+        <v>1.88</v>
+      </c>
+      <c r="AN252">
+        <v>1.22</v>
+      </c>
+      <c r="AO252">
+        <v>1.25</v>
+      </c>
+      <c r="AP252">
+        <v>1.9</v>
+      </c>
+      <c r="AQ252">
+        <v>2.38</v>
+      </c>
+      <c r="AR252">
+        <v>1.62</v>
+      </c>
+      <c r="AS252">
+        <v>2.21</v>
+      </c>
+      <c r="AT252">
+        <v>1.71</v>
+      </c>
+      <c r="AU252">
+        <v>1.85</v>
+      </c>
+      <c r="AV252">
+        <v>1.44</v>
+      </c>
+      <c r="AW252">
+        <v>3.29</v>
+      </c>
+      <c r="AX252">
+        <v>1.63</v>
+      </c>
+      <c r="AY252">
+        <v>6.85</v>
+      </c>
+      <c r="AZ252">
+        <v>2.84</v>
+      </c>
+      <c r="BA252">
+        <v>1.33</v>
+      </c>
+      <c r="BB252">
+        <v>1.66</v>
+      </c>
+      <c r="BC252">
+        <v>1.87</v>
+      </c>
+      <c r="BD252">
+        <v>2.71</v>
+      </c>
+      <c r="BE252">
+        <v>3.74</v>
+      </c>
+      <c r="BF252">
+        <v>5</v>
+      </c>
+      <c r="BG252">
+        <v>8</v>
+      </c>
+      <c r="BH252">
+        <v>9</v>
+      </c>
+      <c r="BI252">
+        <v>9</v>
+      </c>
+      <c r="BJ252">
+        <v>14</v>
+      </c>
+      <c r="BK252">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="253" spans="1:63">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>2833545</v>
+      </c>
+      <c r="C253" t="s">
+        <v>63</v>
+      </c>
+      <c r="D253" t="s">
+        <v>64</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45013.35416666666</v>
+      </c>
+      <c r="F253">
+        <v>29</v>
+      </c>
+      <c r="G253" t="s">
+        <v>74</v>
+      </c>
+      <c r="H253" t="s">
+        <v>76</v>
+      </c>
+      <c r="I253">
+        <v>1</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>1</v>
+      </c>
+      <c r="L253">
+        <v>1</v>
+      </c>
+      <c r="M253">
+        <v>5</v>
+      </c>
+      <c r="N253">
+        <v>6</v>
+      </c>
+      <c r="O253" t="s">
+        <v>241</v>
+      </c>
+      <c r="P253" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q253">
+        <v>6</v>
+      </c>
+      <c r="R253">
+        <v>8</v>
+      </c>
+      <c r="S253">
+        <v>14</v>
+      </c>
+      <c r="T253">
+        <v>3.5</v>
+      </c>
+      <c r="U253">
+        <v>2.06</v>
+      </c>
+      <c r="V253">
+        <v>2.99</v>
+      </c>
+      <c r="W253">
+        <v>1.4</v>
+      </c>
+      <c r="X253">
+        <v>2.75</v>
+      </c>
+      <c r="Y253">
+        <v>2.75</v>
+      </c>
+      <c r="Z253">
+        <v>1.4</v>
+      </c>
+      <c r="AA253">
+        <v>7</v>
+      </c>
+      <c r="AB253">
+        <v>1.08</v>
+      </c>
+      <c r="AC253">
+        <v>2.77</v>
+      </c>
+      <c r="AD253">
+        <v>3.32</v>
+      </c>
+      <c r="AE253">
+        <v>2.42</v>
+      </c>
+      <c r="AF253">
+        <v>1.06</v>
+      </c>
+      <c r="AG253">
+        <v>8</v>
+      </c>
+      <c r="AH253">
+        <v>1.33</v>
+      </c>
+      <c r="AI253">
+        <v>3.25</v>
+      </c>
+      <c r="AJ253">
+        <v>1.99</v>
+      </c>
+      <c r="AK253">
+        <v>1.81</v>
+      </c>
+      <c r="AL253">
+        <v>1.8</v>
+      </c>
+      <c r="AM253">
+        <v>1.91</v>
+      </c>
+      <c r="AN253">
+        <v>1.52</v>
+      </c>
+      <c r="AO253">
+        <v>1.3</v>
+      </c>
+      <c r="AP253">
+        <v>1.41</v>
+      </c>
+      <c r="AQ253">
+        <v>2.08</v>
+      </c>
+      <c r="AR253">
+        <v>1.85</v>
+      </c>
+      <c r="AS253">
+        <v>1.93</v>
+      </c>
+      <c r="AT253">
+        <v>1.93</v>
+      </c>
+      <c r="AU253">
+        <v>1.66</v>
+      </c>
+      <c r="AV253">
+        <v>1.55</v>
+      </c>
+      <c r="AW253">
+        <v>3.21</v>
+      </c>
+      <c r="AX253">
+        <v>3</v>
+      </c>
+      <c r="AY253">
+        <v>6</v>
+      </c>
+      <c r="AZ253">
+        <v>1.5</v>
+      </c>
+      <c r="BA253">
+        <v>1.33</v>
+      </c>
+      <c r="BB253">
+        <v>1.66</v>
+      </c>
+      <c r="BC253">
+        <v>1.95</v>
+      </c>
+      <c r="BD253">
+        <v>2.75</v>
+      </c>
+      <c r="BE253">
+        <v>3.9</v>
+      </c>
+      <c r="BF253">
+        <v>2</v>
+      </c>
+      <c r="BG253">
+        <v>14</v>
+      </c>
+      <c r="BH253">
+        <v>4</v>
+      </c>
+      <c r="BI253">
+        <v>5</v>
+      </c>
+      <c r="BJ253">
+        <v>6</v>
+      </c>
+      <c r="BK253">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey 1. Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey 1. Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK260"/>
+  <dimension ref="A1:BK270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT2" t="n">
         <v>1.93</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT4" t="n">
         <v>1.5</v>
@@ -1512,7 +1512,7 @@
         <v>0.79</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AT6" t="n">
         <v>0.5</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT9" t="n">
         <v>1.21</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>1.08</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.08</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.93</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.07</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT15" t="n">
         <v>1.57</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT17" t="n">
         <v>0.57</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT19" t="n">
         <v>1.71</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AT20" t="n">
         <v>0.67</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT21" t="n">
         <v>0.5</v>
@@ -5166,7 +5166,7 @@
         <v>1.93</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU23" t="n">
         <v>1.12</v>
@@ -5369,7 +5369,7 @@
         <v>1.62</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>0.79</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU26" t="n">
         <v>2.2</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT27" t="n">
         <v>1.5</v>
@@ -6178,10 +6178,10 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU28" t="n">
         <v>1.78</v>
@@ -6384,7 +6384,7 @@
         <v>1.69</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU29" t="n">
         <v>1.34</v>
@@ -6790,7 +6790,7 @@
         <v>1.64</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU31" t="n">
         <v>1.77</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT32" t="n">
         <v>1.71</v>
@@ -7196,7 +7196,7 @@
         <v>1.93</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU33" t="n">
         <v>1.7</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU34" t="n">
         <v>1.05</v>
@@ -7599,10 +7599,10 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU35" t="n">
         <v>1.3</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT36" t="n">
         <v>1.14</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT37" t="n">
         <v>1.5</v>
@@ -8211,7 +8211,7 @@
         <v>1.93</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU38" t="n">
         <v>1.4</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT40" t="n">
         <v>0.5</v>
@@ -8820,7 +8820,7 @@
         <v>0.79</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU41" t="n">
         <v>1.81</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT42" t="n">
         <v>0.67</v>
@@ -9223,7 +9223,7 @@
         <v>2</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT43" t="n">
         <v>1.93</v>
@@ -9426,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AT44" t="n">
         <v>0.57</v>
@@ -9629,7 +9629,7 @@
         <v>3</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT45" t="n">
         <v>1.57</v>
@@ -9835,7 +9835,7 @@
         <v>1.07</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU46" t="n">
         <v>1.64</v>
@@ -10035,7 +10035,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT47" t="n">
         <v>1.14</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT48" t="n">
         <v>1</v>
@@ -10441,10 +10441,10 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU49" t="n">
         <v>1.48</v>
@@ -10644,7 +10644,7 @@
         <v>2</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT50" t="n">
         <v>1.71</v>
@@ -10847,10 +10847,10 @@
         <v>3</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU51" t="n">
         <v>1.8</v>
@@ -11053,7 +11053,7 @@
         <v>1</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU52" t="n">
         <v>0.93</v>
@@ -11456,10 +11456,10 @@
         <v>1.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU54" t="n">
         <v>1.4</v>
@@ -11662,7 +11662,7 @@
         <v>1.69</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU55" t="n">
         <v>1.26</v>
@@ -11865,7 +11865,7 @@
         <v>1.93</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU56" t="n">
         <v>1.74</v>
@@ -12065,7 +12065,7 @@
         <v>0.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT57" t="n">
         <v>0.67</v>
@@ -12268,7 +12268,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT58" t="n">
         <v>1.57</v>
@@ -12471,10 +12471,10 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU59" t="n">
         <v>1.11</v>
@@ -12674,7 +12674,7 @@
         <v>0.67</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT60" t="n">
         <v>0.57</v>
@@ -13083,7 +13083,7 @@
         <v>1.93</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU62" t="n">
         <v>1.42</v>
@@ -13689,10 +13689,10 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU65" t="n">
         <v>1.51</v>
@@ -13892,10 +13892,10 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU66" t="n">
         <v>1.6</v>
@@ -14098,7 +14098,7 @@
         <v>1.64</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU67" t="n">
         <v>1.44</v>
@@ -14298,7 +14298,7 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AT68" t="n">
         <v>1.5</v>
@@ -14501,10 +14501,10 @@
         <v>1.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU69" t="n">
         <v>1.54</v>
@@ -14707,7 +14707,7 @@
         <v>1</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU70" t="n">
         <v>1.14</v>
@@ -14907,7 +14907,7 @@
         <v>0.33</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT71" t="n">
         <v>1</v>
@@ -15110,10 +15110,10 @@
         <v>1.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU72" t="n">
         <v>1.57</v>
@@ -15313,7 +15313,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT73" t="n">
         <v>1.71</v>
@@ -15719,7 +15719,7 @@
         <v>0.67</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT75" t="n">
         <v>1.14</v>
@@ -15922,10 +15922,10 @@
         <v>0.67</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU76" t="n">
         <v>1.41</v>
@@ -16940,7 +16940,7 @@
         <v>1.69</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU81" t="n">
         <v>1.73</v>
@@ -17140,7 +17140,7 @@
         <v>0.5</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT82" t="n">
         <v>0.57</v>
@@ -17343,10 +17343,10 @@
         <v>0.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU83" t="n">
         <v>1.87</v>
@@ -17546,7 +17546,7 @@
         <v>1.75</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT84" t="n">
         <v>1.71</v>
@@ -17749,10 +17749,10 @@
         <v>1.8</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU85" t="n">
         <v>1.52</v>
@@ -17952,7 +17952,7 @@
         <v>1</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT86" t="n">
         <v>1</v>
@@ -18155,10 +18155,10 @@
         <v>1.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU87" t="n">
         <v>1.28</v>
@@ -18361,7 +18361,7 @@
         <v>1.64</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU88" t="n">
         <v>1.53</v>
@@ -18561,10 +18561,10 @@
         <v>0.75</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU89" t="n">
         <v>1.22</v>
@@ -18764,10 +18764,10 @@
         <v>2.33</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU90" t="n">
         <v>1.71</v>
@@ -18967,10 +18967,10 @@
         <v>1.25</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU91" t="n">
         <v>1.4</v>
@@ -19779,7 +19779,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT95" t="n">
         <v>1.14</v>
@@ -20391,7 +20391,7 @@
         <v>1.08</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU98" t="n">
         <v>1.6</v>
@@ -20997,7 +20997,7 @@
         <v>1</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT101" t="n">
         <v>1</v>
@@ -21200,10 +21200,10 @@
         <v>0.6</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU102" t="n">
         <v>1.8</v>
@@ -21406,7 +21406,7 @@
         <v>1.64</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU103" t="n">
         <v>1.54</v>
@@ -21606,10 +21606,10 @@
         <v>1</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU104" t="n">
         <v>1.42</v>
@@ -21809,10 +21809,10 @@
         <v>2</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU105" t="n">
         <v>1.43</v>
@@ -22012,10 +22012,10 @@
         <v>1.6</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU106" t="n">
         <v>1.02</v>
@@ -22215,10 +22215,10 @@
         <v>1.6</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU107" t="n">
         <v>1.42</v>
@@ -22418,10 +22418,10 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU108" t="n">
         <v>1.68</v>
@@ -22621,10 +22621,10 @@
         <v>1.6</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU109" t="n">
         <v>1.9</v>
@@ -24045,7 +24045,7 @@
         <v>0.79</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU116" t="n">
         <v>1.45</v>
@@ -24448,7 +24448,7 @@
         <v>1.5</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT118" t="n">
         <v>1.71</v>
@@ -24651,10 +24651,10 @@
         <v>1.71</v>
       </c>
       <c r="AS119" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU119" t="n">
         <v>1.44</v>
@@ -24854,7 +24854,7 @@
         <v>0.83</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT120" t="n">
         <v>1</v>
@@ -25057,7 +25057,7 @@
         <v>0</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT121" t="n">
         <v>0.5</v>
@@ -25260,10 +25260,10 @@
         <v>1.33</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU122" t="n">
         <v>1.36</v>
@@ -25466,7 +25466,7 @@
         <v>1.64</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU123" t="n">
         <v>1.47</v>
@@ -25666,10 +25666,10 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU124" t="n">
         <v>1.86</v>
@@ -25869,10 +25869,10 @@
         <v>1.6</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU125" t="n">
         <v>1.42</v>
@@ -26072,10 +26072,10 @@
         <v>1.5</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU126" t="n">
         <v>1.41</v>
@@ -26275,10 +26275,10 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU127" t="n">
         <v>1.04</v>
@@ -26478,7 +26478,7 @@
         <v>1.2</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT128" t="n">
         <v>1.57</v>
@@ -26887,7 +26887,7 @@
         <v>1.93</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU130" t="n">
         <v>1.59</v>
@@ -27293,7 +27293,7 @@
         <v>1.93</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU132" t="n">
         <v>1.51</v>
@@ -27493,7 +27493,7 @@
         <v>1.71</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT133" t="n">
         <v>1.93</v>
@@ -27699,7 +27699,7 @@
         <v>1.08</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU134" t="n">
         <v>1.51</v>
@@ -28102,10 +28102,10 @@
         <v>1.57</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU136" t="n">
         <v>1.8</v>
@@ -28308,7 +28308,7 @@
         <v>1.64</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU137" t="n">
         <v>1.54</v>
@@ -28511,7 +28511,7 @@
         <v>1.62</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU138" t="n">
         <v>1.3</v>
@@ -28711,7 +28711,7 @@
         <v>0</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT139" t="n">
         <v>0.5</v>
@@ -28914,7 +28914,7 @@
         <v>0.86</v>
       </c>
       <c r="AS140" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT140" t="n">
         <v>1</v>
@@ -29117,7 +29117,7 @@
         <v>2</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT141" t="n">
         <v>1.5</v>
@@ -29320,10 +29320,10 @@
         <v>0.86</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU142" t="n">
         <v>1.46</v>
@@ -29523,10 +29523,10 @@
         <v>1.33</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU143" t="n">
         <v>1.04</v>
@@ -29726,10 +29726,10 @@
         <v>1.88</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU144" t="n">
         <v>1.32</v>
@@ -29929,7 +29929,7 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT145" t="n">
         <v>0.67</v>
@@ -30335,7 +30335,7 @@
         <v>0.29</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT147" t="n">
         <v>0.57</v>
@@ -30538,7 +30538,7 @@
         <v>1.5</v>
       </c>
       <c r="AS148" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT148" t="n">
         <v>1.14</v>
@@ -30947,7 +30947,7 @@
         <v>1.93</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU150" t="n">
         <v>1.6</v>
@@ -31556,7 +31556,7 @@
         <v>1.93</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU153" t="n">
         <v>1.46</v>
@@ -31756,10 +31756,10 @@
         <v>0.88</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU154" t="n">
         <v>1.33</v>
@@ -32162,10 +32162,10 @@
         <v>1.38</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU156" t="n">
         <v>1.73</v>
@@ -32365,10 +32365,10 @@
         <v>0.75</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU157" t="n">
         <v>1.46</v>
@@ -32568,7 +32568,7 @@
         <v>1.88</v>
       </c>
       <c r="AS158" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT158" t="n">
         <v>1.5</v>
@@ -32771,10 +32771,10 @@
         <v>1.14</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU159" t="n">
         <v>1.8</v>
@@ -32977,7 +32977,7 @@
         <v>1.62</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU160" t="n">
         <v>1.25</v>
@@ -33180,7 +33180,7 @@
         <v>1.08</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU161" t="n">
         <v>1.44</v>
@@ -33380,7 +33380,7 @@
         <v>0</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT162" t="n">
         <v>0.5</v>
@@ -33786,7 +33786,7 @@
         <v>1</v>
       </c>
       <c r="AS164" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT164" t="n">
         <v>0.67</v>
@@ -34395,10 +34395,10 @@
         <v>1.43</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU167" t="n">
         <v>1.55</v>
@@ -34601,7 +34601,7 @@
         <v>0.79</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU168" t="n">
         <v>1.26</v>
@@ -34801,7 +34801,7 @@
         <v>0.25</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT169" t="n">
         <v>0.57</v>
@@ -35410,10 +35410,10 @@
         <v>1.25</v>
       </c>
       <c r="AS172" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU172" t="n">
         <v>1.46</v>
@@ -35816,7 +35816,7 @@
         <v>1.7</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT174" t="n">
         <v>1.71</v>
@@ -36019,7 +36019,7 @@
         <v>1.13</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT175" t="n">
         <v>1.14</v>
@@ -36225,7 +36225,7 @@
         <v>1.69</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU176" t="n">
         <v>1.72</v>
@@ -36628,7 +36628,7 @@
         <v>1.63</v>
       </c>
       <c r="AS178" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT178" t="n">
         <v>1.57</v>
@@ -36834,7 +36834,7 @@
         <v>1.07</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU179" t="n">
         <v>1.3</v>
@@ -37237,10 +37237,10 @@
         <v>0.89</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU181" t="n">
         <v>1.48</v>
@@ -37443,7 +37443,7 @@
         <v>1.08</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU182" t="n">
         <v>1.47</v>
@@ -37646,7 +37646,7 @@
         <v>1.62</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU183" t="n">
         <v>1.33</v>
@@ -37849,7 +37849,7 @@
         <v>0.79</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU184" t="n">
         <v>1.26</v>
@@ -38049,10 +38049,10 @@
         <v>1.6</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU185" t="n">
         <v>1.15</v>
@@ -38455,7 +38455,7 @@
         <v>1.56</v>
       </c>
       <c r="AS187" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AT187" t="n">
         <v>1.93</v>
@@ -38658,7 +38658,7 @@
         <v>0.9</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT188" t="n">
         <v>0.67</v>
@@ -38861,7 +38861,7 @@
         <v>0.33</v>
       </c>
       <c r="AS189" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT189" t="n">
         <v>0.5</v>
@@ -39067,7 +39067,7 @@
         <v>1.69</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU190" t="n">
         <v>1.69</v>
@@ -39270,7 +39270,7 @@
         <v>1</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU191" t="n">
         <v>1.31</v>
@@ -39473,7 +39473,7 @@
         <v>1.07</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU192" t="n">
         <v>1.33</v>
@@ -39676,7 +39676,7 @@
         <v>1.93</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU193" t="n">
         <v>1.5</v>
@@ -39876,7 +39876,7 @@
         <v>1</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT194" t="n">
         <v>1.14</v>
@@ -40079,7 +40079,7 @@
         <v>1.78</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT195" t="n">
         <v>1.57</v>
@@ -40282,10 +40282,10 @@
         <v>1.44</v>
       </c>
       <c r="AS196" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU196" t="n">
         <v>1.47</v>
@@ -40485,7 +40485,7 @@
         <v>1.22</v>
       </c>
       <c r="AS197" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT197" t="n">
         <v>1.5</v>
@@ -40688,7 +40688,7 @@
         <v>0.91</v>
       </c>
       <c r="AS198" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT198" t="n">
         <v>1</v>
@@ -40891,7 +40891,7 @@
         <v>0.5</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT199" t="n">
         <v>0.57</v>
@@ -41300,7 +41300,7 @@
         <v>1.08</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU201" t="n">
         <v>1.47</v>
@@ -41503,7 +41503,7 @@
         <v>1.93</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU202" t="n">
         <v>1.64</v>
@@ -41703,7 +41703,7 @@
         <v>0.91</v>
       </c>
       <c r="AS203" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT203" t="n">
         <v>0.67</v>
@@ -41906,7 +41906,7 @@
         <v>1.7</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT204" t="n">
         <v>1.93</v>
@@ -42112,7 +42112,7 @@
         <v>0.79</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU205" t="n">
         <v>1.32</v>
@@ -42312,7 +42312,7 @@
         <v>1.8</v>
       </c>
       <c r="AS206" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT206" t="n">
         <v>1.5</v>
@@ -42515,7 +42515,7 @@
         <v>1.9</v>
       </c>
       <c r="AS207" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AT207" t="n">
         <v>1.57</v>
@@ -42721,7 +42721,7 @@
         <v>1.69</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU208" t="n">
         <v>1.67</v>
@@ -42924,7 +42924,7 @@
         <v>1.93</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU209" t="n">
         <v>1.56</v>
@@ -43127,7 +43127,7 @@
         <v>1</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU210" t="n">
         <v>1.29</v>
@@ -43327,10 +43327,10 @@
         <v>1.45</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU211" t="n">
         <v>1.41</v>
@@ -43530,7 +43530,7 @@
         <v>1.64</v>
       </c>
       <c r="AS212" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT212" t="n">
         <v>1.71</v>
@@ -43936,10 +43936,10 @@
         <v>0.9</v>
       </c>
       <c r="AS214" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU214" t="n">
         <v>1.45</v>
@@ -44139,10 +44139,10 @@
         <v>1.3</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU215" t="n">
         <v>1.57</v>
@@ -44342,7 +44342,7 @@
         <v>1.2</v>
       </c>
       <c r="AS216" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT216" t="n">
         <v>1.5</v>
@@ -44548,7 +44548,7 @@
         <v>1.93</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU217" t="n">
         <v>1.63</v>
@@ -44751,7 +44751,7 @@
         <v>1.07</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU218" t="n">
         <v>1.39</v>
@@ -44951,7 +44951,7 @@
         <v>1.73</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT219" t="n">
         <v>1.57</v>
@@ -45357,7 +45357,7 @@
         <v>0.83</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT221" t="n">
         <v>0.67</v>
@@ -45560,7 +45560,7 @@
         <v>0.73</v>
       </c>
       <c r="AS222" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT222" t="n">
         <v>0.57</v>
@@ -45969,7 +45969,7 @@
         <v>1.62</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU224" t="n">
         <v>1.44</v>
@@ -46169,7 +46169,7 @@
         <v>1.64</v>
       </c>
       <c r="AS225" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT225" t="n">
         <v>1.93</v>
@@ -46375,7 +46375,7 @@
         <v>1</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU226" t="n">
         <v>1.28</v>
@@ -46578,7 +46578,7 @@
         <v>1.69</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU227" t="n">
         <v>1.65</v>
@@ -46778,10 +46778,10 @@
         <v>0.73</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU228" t="n">
         <v>1.49</v>
@@ -47184,10 +47184,10 @@
         <v>1.09</v>
       </c>
       <c r="AS230" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU230" t="n">
         <v>1.46</v>
@@ -47387,7 +47387,7 @@
         <v>0.83</v>
       </c>
       <c r="AS231" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT231" t="n">
         <v>1</v>
@@ -47590,7 +47590,7 @@
         <v>1.36</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT232" t="n">
         <v>1.5</v>
@@ -47793,7 +47793,7 @@
         <v>0.91</v>
       </c>
       <c r="AS233" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AT233" t="n">
         <v>1.14</v>
@@ -47996,10 +47996,10 @@
         <v>1.33</v>
       </c>
       <c r="AS234" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU234" t="n">
         <v>1.96</v>
@@ -48202,7 +48202,7 @@
         <v>1.07</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU235" t="n">
         <v>1.4</v>
@@ -48402,7 +48402,7 @@
         <v>1.08</v>
       </c>
       <c r="AS236" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT236" t="n">
         <v>1.14</v>
@@ -49214,10 +49214,10 @@
         <v>1.58</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU240" t="n">
         <v>1.71</v>
@@ -49823,7 +49823,7 @@
         <v>1.58</v>
       </c>
       <c r="AS243" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AT243" t="n">
         <v>1.57</v>
@@ -50026,10 +50026,10 @@
         <v>0.92</v>
       </c>
       <c r="AS244" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU244" t="n">
         <v>1.44</v>
@@ -50229,10 +50229,10 @@
         <v>0.67</v>
       </c>
       <c r="AS245" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AT245" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU245" t="n">
         <v>2.04</v>
@@ -50432,10 +50432,10 @@
         <v>0.75</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT246" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU246" t="n">
         <v>1.51</v>
@@ -50638,7 +50638,7 @@
         <v>1</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU247" t="n">
         <v>1.26</v>
@@ -50838,7 +50838,7 @@
         <v>1.5</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT248" t="n">
         <v>1.5</v>
@@ -51244,10 +51244,10 @@
         <v>1.25</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU250" t="n">
         <v>1.57</v>
@@ -51447,10 +51447,10 @@
         <v>1.23</v>
       </c>
       <c r="AS251" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU251" t="n">
         <v>1.46</v>
@@ -51650,7 +51650,7 @@
         <v>1.62</v>
       </c>
       <c r="AS252" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AT252" t="n">
         <v>1.71</v>
@@ -52665,7 +52665,7 @@
         <v>1.62</v>
       </c>
       <c r="AS257" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AT257" t="n">
         <v>1.5</v>
@@ -53329,6 +53329,2036 @@
       </c>
       <c r="BK260" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="n">
+        <v>2833540</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Turkey 1. Lig</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E261" s="2" t="n">
+        <v>45015.60416666666</v>
+      </c>
+      <c r="F261" t="n">
+        <v>29</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Eyüpspor</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>2</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>2</v>
+      </c>
+      <c r="L261" t="n">
+        <v>2</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N261" t="n">
+        <v>2</v>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>['16', '42']</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q261" t="n">
+        <v>8</v>
+      </c>
+      <c r="R261" t="n">
+        <v>5</v>
+      </c>
+      <c r="S261" t="n">
+        <v>13</v>
+      </c>
+      <c r="T261" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U261" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V261" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W261" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X261" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE261" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AF261" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG261" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH261" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI261" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ261" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK261" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL261" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM261" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN261" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO261" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP261" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ261" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AR261" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS261" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AT261" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU261" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV261" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW261" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX261" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY261" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AZ261" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA261" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB261" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC261" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD261" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF261" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG261" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH261" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI261" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ261" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK261" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="n">
+        <v>2833550</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Turkey 1. Lig</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="n">
+        <v>45017.3125</v>
+      </c>
+      <c r="F262" t="n">
+        <v>30</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Denizlispor</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Göztepe</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>1</v>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M262" t="n">
+        <v>2</v>
+      </c>
+      <c r="N262" t="n">
+        <v>2</v>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>['39', '83']</t>
+        </is>
+      </c>
+      <c r="Q262" t="n">
+        <v>4</v>
+      </c>
+      <c r="R262" t="n">
+        <v>4</v>
+      </c>
+      <c r="S262" t="n">
+        <v>8</v>
+      </c>
+      <c r="T262" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U262" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V262" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W262" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X262" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI262" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AJ262" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK262" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL262" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AM262" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN262" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO262" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP262" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ262" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR262" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS262" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AT262" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU262" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV262" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW262" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX262" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY262" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="AZ262" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BA262" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB262" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC262" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD262" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE262" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BF262" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG262" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH262" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI262" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ262" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK262" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="n">
+        <v>2833549</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Turkey 1. Lig</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>45017.60416666666</v>
+      </c>
+      <c r="F263" t="n">
+        <v>30</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>2</v>
+      </c>
+      <c r="J263" t="n">
+        <v>1</v>
+      </c>
+      <c r="K263" t="n">
+        <v>3</v>
+      </c>
+      <c r="L263" t="n">
+        <v>4</v>
+      </c>
+      <c r="M263" t="n">
+        <v>2</v>
+      </c>
+      <c r="N263" t="n">
+        <v>6</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>['2', '31', '83', '90']</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>['45', '55']</t>
+        </is>
+      </c>
+      <c r="Q263" t="n">
+        <v>4</v>
+      </c>
+      <c r="R263" t="n">
+        <v>6</v>
+      </c>
+      <c r="S263" t="n">
+        <v>10</v>
+      </c>
+      <c r="T263" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U263" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V263" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W263" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X263" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI263" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ263" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK263" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL263" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM263" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN263" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO263" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP263" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ263" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AR263" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS263" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT263" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU263" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV263" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW263" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AX263" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY263" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ263" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA263" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB263" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BC263" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BD263" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BE263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF263" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG263" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH263" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI263" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ263" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK263" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="n">
+        <v>2833546</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Turkey 1. Lig</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>45018.3125</v>
+      </c>
+      <c r="F264" t="n">
+        <v>30</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Manisa BBSK</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Gençlerbirliği</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>1</v>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="n">
+        <v>2</v>
+      </c>
+      <c r="M264" t="n">
+        <v>1</v>
+      </c>
+      <c r="N264" t="n">
+        <v>3</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>['47', '80']</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q264" t="n">
+        <v>4</v>
+      </c>
+      <c r="R264" t="n">
+        <v>2</v>
+      </c>
+      <c r="S264" t="n">
+        <v>6</v>
+      </c>
+      <c r="T264" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U264" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V264" t="n">
+        <v>5</v>
+      </c>
+      <c r="W264" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X264" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI264" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ264" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK264" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL264" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM264" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN264" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO264" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP264" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ264" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AR264" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AS264" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT264" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU264" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV264" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW264" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX264" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY264" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="AZ264" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA264" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB264" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC264" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD264" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE264" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF264" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG264" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH264" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI264" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ264" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK264" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="n">
+        <v>2833551</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Turkey 1. Lig</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>45018.3125</v>
+      </c>
+      <c r="F265" t="n">
+        <v>30</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Keçiörengücü</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Tuzlaspor</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>1</v>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M265" t="n">
+        <v>1</v>
+      </c>
+      <c r="N265" t="n">
+        <v>1</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q265" t="n">
+        <v>12</v>
+      </c>
+      <c r="R265" t="n">
+        <v>3</v>
+      </c>
+      <c r="S265" t="n">
+        <v>15</v>
+      </c>
+      <c r="T265" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U265" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="V265" t="n">
+        <v>5</v>
+      </c>
+      <c r="W265" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X265" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI265" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ265" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK265" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL265" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AM265" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN265" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO265" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP265" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AQ265" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR265" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS265" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT265" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU265" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV265" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW265" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX265" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY265" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ265" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA265" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB265" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC265" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BD265" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BE265" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="BF265" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG265" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH265" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI265" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ265" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK265" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="n">
+        <v>2833548</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Turkey 1. Lig</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="n">
+        <v>45018.375</v>
+      </c>
+      <c r="F266" t="n">
+        <v>30</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Yeni Malatyaspor</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Altınordu</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M266" t="n">
+        <v>3</v>
+      </c>
+      <c r="N266" t="n">
+        <v>3</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>['-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="Q266" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R266" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S266" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T266" t="n">
+        <v>0</v>
+      </c>
+      <c r="U266" t="n">
+        <v>0</v>
+      </c>
+      <c r="V266" t="n">
+        <v>0</v>
+      </c>
+      <c r="W266" t="n">
+        <v>0</v>
+      </c>
+      <c r="X266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ266" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR266" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AS266" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AT266" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU266" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV266" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW266" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF266" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG266" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH266" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI266" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ266" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK266" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="n">
+        <v>2833547</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Turkey 1. Lig</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E267" s="2" t="n">
+        <v>45018.5</v>
+      </c>
+      <c r="F267" t="n">
+        <v>30</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Adanaspor</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M267" t="n">
+        <v>3</v>
+      </c>
+      <c r="N267" t="n">
+        <v>3</v>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>['-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="Q267" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R267" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S267" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T267" t="n">
+        <v>0</v>
+      </c>
+      <c r="U267" t="n">
+        <v>0</v>
+      </c>
+      <c r="V267" t="n">
+        <v>0</v>
+      </c>
+      <c r="W267" t="n">
+        <v>0</v>
+      </c>
+      <c r="X267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ267" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR267" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS267" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT267" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU267" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV267" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW267" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ267" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA267" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB267" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC267" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD267" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE267" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF267" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG267" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH267" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI267" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ267" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK267" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="n">
+        <v>2833553</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Turkey 1. Lig</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E268" s="2" t="n">
+        <v>45018.60416666666</v>
+      </c>
+      <c r="F268" t="n">
+        <v>30</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Rizespor</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Bandırmaspor</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0</v>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q268" t="n">
+        <v>9</v>
+      </c>
+      <c r="R268" t="n">
+        <v>0</v>
+      </c>
+      <c r="S268" t="n">
+        <v>9</v>
+      </c>
+      <c r="T268" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U268" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V268" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="W268" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X268" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB268" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC268" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD268" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE268" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AF268" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG268" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH268" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI268" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ268" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK268" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL268" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM268" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN268" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO268" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP268" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ268" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AR268" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS268" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT268" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU268" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV268" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW268" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX268" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AY268" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ268" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BA268" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB268" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC268" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BD268" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BE268" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF268" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG268" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH268" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI268" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ268" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK268" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="n">
+        <v>2833552</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Turkey 1. Lig</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E269" s="2" t="n">
+        <v>45019.60416666666</v>
+      </c>
+      <c r="F269" t="n">
+        <v>30</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Altay</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="I269" t="n">
+        <v>1</v>
+      </c>
+      <c r="J269" t="n">
+        <v>1</v>
+      </c>
+      <c r="K269" t="n">
+        <v>2</v>
+      </c>
+      <c r="L269" t="n">
+        <v>3</v>
+      </c>
+      <c r="M269" t="n">
+        <v>1</v>
+      </c>
+      <c r="N269" t="n">
+        <v>4</v>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>['26', '50', '64']</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q269" t="n">
+        <v>2</v>
+      </c>
+      <c r="R269" t="n">
+        <v>7</v>
+      </c>
+      <c r="S269" t="n">
+        <v>9</v>
+      </c>
+      <c r="T269" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U269" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V269" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W269" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X269" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y269" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z269" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA269" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB269" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC269" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD269" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE269" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF269" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG269" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH269" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI269" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ269" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK269" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL269" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM269" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN269" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO269" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP269" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ269" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AR269" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS269" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT269" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU269" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV269" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW269" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX269" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AY269" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ269" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BA269" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BB269" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC269" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD269" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BE269" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF269" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG269" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH269" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI269" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ269" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK269" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="n">
+        <v>2833554</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Turkey 1. Lig</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="n">
+        <v>45019.60416666666</v>
+      </c>
+      <c r="F270" t="n">
+        <v>30</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Eyüpspor</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>BB Erzurumspor</t>
+        </is>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>1</v>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="n">
+        <v>1</v>
+      </c>
+      <c r="N270" t="n">
+        <v>2</v>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q270" t="n">
+        <v>8</v>
+      </c>
+      <c r="R270" t="n">
+        <v>0</v>
+      </c>
+      <c r="S270" t="n">
+        <v>8</v>
+      </c>
+      <c r="T270" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U270" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V270" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W270" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X270" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y270" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z270" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB270" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC270" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD270" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE270" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF270" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG270" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AH270" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI270" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AJ270" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK270" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL270" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM270" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN270" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO270" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP270" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ270" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AR270" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS270" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT270" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU270" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV270" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW270" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX270" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY270" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ270" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA270" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BB270" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC270" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD270" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE270" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF270" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG270" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH270" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI270" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ270" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK270" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey 1. Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey 1. Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK270"/>
+  <dimension ref="A1:BK275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.29</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2.13</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT8" t="n">
         <v>1.57</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT11" t="n">
         <v>0.71</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT12" t="n">
         <v>1.33</v>
@@ -3136,7 +3136,7 @@
         <v>2.4</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT14" t="n">
         <v>1.29</v>
@@ -3542,7 +3542,7 @@
         <v>1.73</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT18" t="n">
         <v>1</v>
@@ -4760,7 +4760,7 @@
         <v>1.71</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU21" t="n">
         <v>1.35</v>
@@ -4963,7 +4963,7 @@
         <v>1.08</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU22" t="n">
         <v>1.8</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT23" t="n">
         <v>0.79</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT28" t="n">
         <v>1.21</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT29" t="n">
         <v>0.71</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT30" t="n">
         <v>1</v>
@@ -6790,7 +6790,7 @@
         <v>1.64</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU31" t="n">
         <v>1.77</v>
@@ -8008,7 +8008,7 @@
         <v>2.4</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU37" t="n">
         <v>1.19</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT38" t="n">
         <v>1.57</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU40" t="n">
         <v>1.68</v>
@@ -9226,7 +9226,7 @@
         <v>2.07</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU43" t="n">
         <v>1.51</v>
@@ -9632,7 +9632,7 @@
         <v>1.29</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU45" t="n">
         <v>1.2</v>
@@ -9832,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT46" t="n">
         <v>1.64</v>
@@ -11050,7 +11050,7 @@
         <v>1.67</v>
       </c>
       <c r="AS52" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT52" t="n">
         <v>1.64</v>
@@ -11256,7 +11256,7 @@
         <v>1.64</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU53" t="n">
         <v>1.51</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT55" t="n">
         <v>0.79</v>
@@ -12065,7 +12065,7 @@
         <v>0.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT57" t="n">
         <v>0.67</v>
@@ -12271,7 +12271,7 @@
         <v>2.07</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU58" t="n">
         <v>1.46</v>
@@ -12474,7 +12474,7 @@
         <v>1.29</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU59" t="n">
         <v>1.11</v>
@@ -12880,7 +12880,7 @@
         <v>1.62</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU61" t="n">
         <v>1.35</v>
@@ -13080,7 +13080,7 @@
         <v>1.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT62" t="n">
         <v>1.21</v>
@@ -13283,7 +13283,7 @@
         <v>1.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT63" t="n">
         <v>1.5</v>
@@ -13489,7 +13489,7 @@
         <v>1.08</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU64" t="n">
         <v>1.42</v>
@@ -14301,7 +14301,7 @@
         <v>2.13</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU68" t="n">
         <v>1.75</v>
@@ -14704,7 +14704,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT70" t="n">
         <v>0.79</v>
@@ -15516,10 +15516,10 @@
         <v>0</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU74" t="n">
         <v>1.41</v>
@@ -15925,7 +15925,7 @@
         <v>2.07</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU76" t="n">
         <v>1.41</v>
@@ -16328,10 +16328,10 @@
         <v>1.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU78" t="n">
         <v>1.51</v>
@@ -16737,7 +16737,7 @@
         <v>1.08</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU80" t="n">
         <v>1.85</v>
@@ -16937,7 +16937,7 @@
         <v>1.25</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT81" t="n">
         <v>1.21</v>
@@ -17140,7 +17140,7 @@
         <v>0.5</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT82" t="n">
         <v>0.57</v>
@@ -19170,7 +19170,7 @@
         <v>0.8</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT92" t="n">
         <v>0.67</v>
@@ -19579,7 +19579,7 @@
         <v>1.93</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU94" t="n">
         <v>1.88</v>
@@ -19779,7 +19779,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT95" t="n">
         <v>1.14</v>
@@ -19982,10 +19982,10 @@
         <v>0</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU96" t="n">
         <v>1.76</v>
@@ -20185,7 +20185,7 @@
         <v>2.2</v>
       </c>
       <c r="AS97" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT97" t="n">
         <v>1.5</v>
@@ -20391,7 +20391,7 @@
         <v>1.08</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU98" t="n">
         <v>1.6</v>
@@ -20591,7 +20591,7 @@
         <v>0.4</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT99" t="n">
         <v>0.57</v>
@@ -20797,7 +20797,7 @@
         <v>0.79</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU100" t="n">
         <v>1.49</v>
@@ -22827,7 +22827,7 @@
         <v>1.93</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU110" t="n">
         <v>1.65</v>
@@ -23230,7 +23230,7 @@
         <v>1.17</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT112" t="n">
         <v>0.67</v>
@@ -23433,10 +23433,10 @@
         <v>1.5</v>
       </c>
       <c r="AS113" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU113" t="n">
         <v>1.08</v>
@@ -23639,7 +23639,7 @@
         <v>1.62</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU114" t="n">
         <v>1.23</v>
@@ -23839,7 +23839,7 @@
         <v>1.2</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT115" t="n">
         <v>1.14</v>
@@ -24045,7 +24045,7 @@
         <v>0.79</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU116" t="n">
         <v>1.45</v>
@@ -24245,7 +24245,7 @@
         <v>2.33</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT117" t="n">
         <v>1.5</v>
@@ -24448,7 +24448,7 @@
         <v>1.5</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT118" t="n">
         <v>1.71</v>
@@ -25060,7 +25060,7 @@
         <v>1.73</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU121" t="n">
         <v>1.47</v>
@@ -26072,7 +26072,7 @@
         <v>1.5</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT126" t="n">
         <v>1.33</v>
@@ -26481,7 +26481,7 @@
         <v>0.87</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU128" t="n">
         <v>1.43</v>
@@ -26681,7 +26681,7 @@
         <v>1</v>
       </c>
       <c r="AS129" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT129" t="n">
         <v>0.67</v>
@@ -26884,7 +26884,7 @@
         <v>0.5</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT130" t="n">
         <v>1.29</v>
@@ -27293,7 +27293,7 @@
         <v>1.93</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU132" t="n">
         <v>1.51</v>
@@ -27496,7 +27496,7 @@
         <v>1.73</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU133" t="n">
         <v>1.54</v>
@@ -27899,10 +27899,10 @@
         <v>1.4</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU135" t="n">
         <v>1.37</v>
@@ -28714,7 +28714,7 @@
         <v>2.4</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU139" t="n">
         <v>1.64</v>
@@ -28914,7 +28914,7 @@
         <v>0.86</v>
       </c>
       <c r="AS140" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT140" t="n">
         <v>1</v>
@@ -30132,7 +30132,7 @@
         <v>1.63</v>
       </c>
       <c r="AS146" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT146" t="n">
         <v>1.71</v>
@@ -30741,10 +30741,10 @@
         <v>1.67</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU149" t="n">
         <v>1.81</v>
@@ -30944,7 +30944,7 @@
         <v>1.5</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT150" t="n">
         <v>1.33</v>
@@ -31350,10 +31350,10 @@
         <v>1.17</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU152" t="n">
         <v>1.28</v>
@@ -31962,7 +31962,7 @@
         <v>1.64</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU155" t="n">
         <v>1.6</v>
@@ -32365,7 +32365,7 @@
         <v>0.75</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT157" t="n">
         <v>0.71</v>
@@ -33383,7 +33383,7 @@
         <v>1.13</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU162" t="n">
         <v>1.55</v>
@@ -33583,7 +33583,7 @@
         <v>1.29</v>
       </c>
       <c r="AS163" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT163" t="n">
         <v>1.14</v>
@@ -33992,7 +33992,7 @@
         <v>1.93</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU165" t="n">
         <v>1.44</v>
@@ -34192,7 +34192,7 @@
         <v>1</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT166" t="n">
         <v>1</v>
@@ -34398,7 +34398,7 @@
         <v>1.73</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU167" t="n">
         <v>1.55</v>
@@ -35004,7 +35004,7 @@
         <v>1.78</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT170" t="n">
         <v>1.71</v>
@@ -35207,10 +35207,10 @@
         <v>1.43</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU171" t="n">
         <v>1.74</v>
@@ -35413,7 +35413,7 @@
         <v>0.87</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU172" t="n">
         <v>1.46</v>
@@ -35613,10 +35613,10 @@
         <v>1.38</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU173" t="n">
         <v>1.64</v>
@@ -36222,7 +36222,7 @@
         <v>0.38</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT176" t="n">
         <v>1.29</v>
@@ -36425,7 +36425,7 @@
         <v>0.22</v>
       </c>
       <c r="AS177" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT177" t="n">
         <v>0.57</v>
@@ -36631,7 +36631,7 @@
         <v>0.64</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU178" t="n">
         <v>1.45</v>
@@ -36831,7 +36831,7 @@
         <v>0.67</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT179" t="n">
         <v>0.71</v>
@@ -37237,7 +37237,7 @@
         <v>0.89</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT181" t="n">
         <v>0.79</v>
@@ -38458,7 +38458,7 @@
         <v>2.13</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU187" t="n">
         <v>1.85</v>
@@ -38864,7 +38864,7 @@
         <v>2.07</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU189" t="n">
         <v>1.34</v>
@@ -39064,7 +39064,7 @@
         <v>1.6</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT190" t="n">
         <v>1.33</v>
@@ -39267,7 +39267,7 @@
         <v>0.67</v>
       </c>
       <c r="AS191" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT191" t="n">
         <v>1.29</v>
@@ -39470,7 +39470,7 @@
         <v>1</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT192" t="n">
         <v>1.21</v>
@@ -40082,7 +40082,7 @@
         <v>1.13</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU195" t="n">
         <v>1.61</v>
@@ -40285,7 +40285,7 @@
         <v>0.64</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU196" t="n">
         <v>1.47</v>
@@ -40488,7 +40488,7 @@
         <v>0.87</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU197" t="n">
         <v>1.41</v>
@@ -41097,7 +41097,7 @@
         <v>1.62</v>
       </c>
       <c r="AT200" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU200" t="n">
         <v>1.4</v>
@@ -41500,7 +41500,7 @@
         <v>1.73</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT202" t="n">
         <v>1.64</v>
@@ -41909,7 +41909,7 @@
         <v>1.71</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU204" t="n">
         <v>1.72</v>
@@ -42312,7 +42312,7 @@
         <v>1.8</v>
       </c>
       <c r="AS206" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT206" t="n">
         <v>1.5</v>
@@ -42518,7 +42518,7 @@
         <v>2.13</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU207" t="n">
         <v>1.78</v>
@@ -42718,7 +42718,7 @@
         <v>1</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT208" t="n">
         <v>1.21</v>
@@ -43124,7 +43124,7 @@
         <v>0.82</v>
       </c>
       <c r="AS210" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT210" t="n">
         <v>0.71</v>
@@ -44142,7 +44142,7 @@
         <v>1.13</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU215" t="n">
         <v>1.57</v>
@@ -44345,7 +44345,7 @@
         <v>0.64</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU216" t="n">
         <v>1.46</v>
@@ -44748,7 +44748,7 @@
         <v>1.18</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT218" t="n">
         <v>1.57</v>
@@ -44954,7 +44954,7 @@
         <v>1.71</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU219" t="n">
         <v>1.72</v>
@@ -45766,7 +45766,7 @@
         <v>0.79</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU223" t="n">
         <v>1.35</v>
@@ -45969,7 +45969,7 @@
         <v>1.62</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU224" t="n">
         <v>1.44</v>
@@ -46169,10 +46169,10 @@
         <v>1.64</v>
       </c>
       <c r="AS225" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU225" t="n">
         <v>1.49</v>
@@ -46372,7 +46372,7 @@
         <v>1</v>
       </c>
       <c r="AS226" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT226" t="n">
         <v>1.21</v>
@@ -46575,7 +46575,7 @@
         <v>1.83</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT227" t="n">
         <v>1.64</v>
@@ -47593,7 +47593,7 @@
         <v>1.13</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU232" t="n">
         <v>1.57</v>
@@ -48199,7 +48199,7 @@
         <v>1.17</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT235" t="n">
         <v>1.21</v>
@@ -48608,7 +48608,7 @@
         <v>0.79</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU237" t="n">
         <v>1.35</v>
@@ -49217,7 +49217,7 @@
         <v>1.71</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU240" t="n">
         <v>1.71</v>
@@ -49417,7 +49417,7 @@
         <v>1.75</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT241" t="n">
         <v>1.5</v>
@@ -49623,7 +49623,7 @@
         <v>1.93</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU242" t="n">
         <v>1.7</v>
@@ -49823,10 +49823,10 @@
         <v>1.58</v>
       </c>
       <c r="AS243" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU243" t="n">
         <v>1.53</v>
@@ -50635,7 +50635,7 @@
         <v>1.33</v>
       </c>
       <c r="AS247" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT247" t="n">
         <v>1.57</v>
@@ -50841,7 +50841,7 @@
         <v>1.29</v>
       </c>
       <c r="AT248" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU248" t="n">
         <v>1.19</v>
@@ -51853,10 +51853,10 @@
         <v>1.85</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AT253" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AU253" t="n">
         <v>1.66</v>
@@ -52056,10 +52056,10 @@
         <v>0.54</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT254" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU254" t="n">
         <v>1.43</v>
@@ -52465,7 +52465,7 @@
         <v>1.62</v>
       </c>
       <c r="AT256" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU256" t="n">
         <v>1.45</v>
@@ -52668,7 +52668,7 @@
         <v>2.07</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU257" t="n">
         <v>1.59</v>
@@ -53071,7 +53071,7 @@
         <v>0.71</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT259" t="n">
         <v>0.67</v>
@@ -53477,10 +53477,10 @@
         <v>1.69</v>
       </c>
       <c r="AS261" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT261" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU261" t="n">
         <v>1.57</v>
@@ -55359,6 +55359,1021 @@
       </c>
       <c r="BK270" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="n">
+        <v>2833562</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Turkey 1. Lig</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="n">
+        <v>45023.41666666666</v>
+      </c>
+      <c r="F271" t="n">
+        <v>31</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Tuzlaspor</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Denizlispor</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>1</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="n">
+        <v>3</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N271" t="n">
+        <v>3</v>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>['34', '59', '69']</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q271" t="n">
+        <v>3</v>
+      </c>
+      <c r="R271" t="n">
+        <v>3</v>
+      </c>
+      <c r="S271" t="n">
+        <v>6</v>
+      </c>
+      <c r="T271" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U271" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V271" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="W271" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X271" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z271" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB271" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC271" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD271" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE271" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AF271" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG271" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH271" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI271" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AJ271" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK271" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL271" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM271" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN271" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO271" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP271" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ271" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR271" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS271" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT271" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AU271" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV271" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW271" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX271" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY271" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ271" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BA271" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB271" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC271" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BD271" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BE271" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF271" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG271" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH271" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI271" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ271" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK271" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>2833563</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Turkey 1. Lig</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>45023.60416666666</v>
+      </c>
+      <c r="F272" t="n">
+        <v>31</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Göztepe</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N272" t="n">
+        <v>1</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q272" t="n">
+        <v>2</v>
+      </c>
+      <c r="R272" t="n">
+        <v>3</v>
+      </c>
+      <c r="S272" t="n">
+        <v>5</v>
+      </c>
+      <c r="T272" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U272" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V272" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W272" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X272" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ272" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR272" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW272" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX272" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ272" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BA272" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB272" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC272" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD272" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE272" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF272" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG272" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH272" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI272" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ272" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK272" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>2833557</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Turkey 1. Lig</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="n">
+        <v>45023.60416666666</v>
+      </c>
+      <c r="F273" t="n">
+        <v>31</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>BB Bodrumspor</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>1</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="n">
+        <v>4</v>
+      </c>
+      <c r="N273" t="n">
+        <v>5</v>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>['53', '57', '65', '73']</t>
+        </is>
+      </c>
+      <c r="Q273" t="n">
+        <v>1</v>
+      </c>
+      <c r="R273" t="n">
+        <v>9</v>
+      </c>
+      <c r="S273" t="n">
+        <v>10</v>
+      </c>
+      <c r="T273" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U273" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V273" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W273" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X273" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE273" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH273" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI273" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AJ273" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK273" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL273" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM273" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN273" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO273" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP273" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ273" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR273" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS273" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT273" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU273" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW273" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX273" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AY273" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AZ273" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BA273" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB273" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BC273" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD273" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE273" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF273" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG273" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH273" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI273" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ273" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK273" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="n">
+        <v>2833560</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Turkey 1. Lig</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="n">
+        <v>45024.41666666666</v>
+      </c>
+      <c r="F274" t="n">
+        <v>31</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Manisa BBSK</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>1</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="n">
+        <v>2</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N274" t="n">
+        <v>2</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>['45+1', '90+2']</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q274" t="n">
+        <v>3</v>
+      </c>
+      <c r="R274" t="n">
+        <v>7</v>
+      </c>
+      <c r="S274" t="n">
+        <v>10</v>
+      </c>
+      <c r="T274" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U274" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V274" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W274" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X274" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD274" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE274" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF274" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG274" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH274" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI274" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ274" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK274" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL274" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM274" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN274" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO274" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP274" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ274" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AR274" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS274" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AT274" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU274" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV274" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW274" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX274" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY274" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ274" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA274" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB274" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC274" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD274" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BE274" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF274" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG274" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH274" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI274" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ274" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK274" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="n">
+        <v>2833558</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Turkey 1. Lig</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="n">
+        <v>45024.60416666666</v>
+      </c>
+      <c r="F275" t="n">
+        <v>31</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Altınordu</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Eyüpspor</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="n">
+        <v>1</v>
+      </c>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="n">
+        <v>2</v>
+      </c>
+      <c r="N275" t="n">
+        <v>3</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>['29', '54']</t>
+        </is>
+      </c>
+      <c r="Q275" t="n">
+        <v>5</v>
+      </c>
+      <c r="R275" t="n">
+        <v>0</v>
+      </c>
+      <c r="S275" t="n">
+        <v>5</v>
+      </c>
+      <c r="T275" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U275" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V275" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W275" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X275" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="AD275" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE275" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF275" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG275" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH275" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI275" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AJ275" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK275" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL275" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM275" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN275" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO275" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP275" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ275" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR275" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS275" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW275" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX275" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AY275" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ275" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BA275" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB275" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC275" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD275" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE275" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF275" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG275" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH275" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI275" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ275" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK275" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey 1. Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey 1. Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK275"/>
+  <dimension ref="A1:BK279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AT5" t="n">
         <v>0.79</v>
@@ -1918,7 +1918,7 @@
         <v>1.64</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT10" t="n">
         <v>1.64</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0.64</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>0.87</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>2.13</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU20" t="n">
         <v>1.7</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT22" t="n">
         <v>1.8</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT24" t="n">
         <v>1.57</v>
@@ -5572,7 +5572,7 @@
         <v>1.64</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU25" t="n">
         <v>2.42</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AT26" t="n">
         <v>1.64</v>
@@ -6993,7 +6993,7 @@
         <v>0.64</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU32" t="n">
         <v>1.84</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT33" t="n">
         <v>1.21</v>
@@ -7805,7 +7805,7 @@
         <v>1.13</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU36" t="n">
         <v>1.4</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT39" t="n">
         <v>1.5</v>
@@ -8817,7 +8817,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AT41" t="n">
         <v>1.21</v>
@@ -9023,7 +9023,7 @@
         <v>1.71</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU42" t="n">
         <v>1.89</v>
@@ -9429,7 +9429,7 @@
         <v>2.13</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU44" t="n">
         <v>1.97</v>
@@ -10038,7 +10038,7 @@
         <v>0.64</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU47" t="n">
         <v>1.38</v>
@@ -10647,7 +10647,7 @@
         <v>1.13</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU50" t="n">
         <v>1.47</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT56" t="n">
         <v>1.57</v>
@@ -12068,7 +12068,7 @@
         <v>2.31</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU57" t="n">
         <v>1.49</v>
@@ -12677,7 +12677,7 @@
         <v>1.71</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU60" t="n">
         <v>1.88</v>
@@ -12877,7 +12877,7 @@
         <v>1.67</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT61" t="n">
         <v>1.8</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT64" t="n">
         <v>0.47</v>
@@ -15316,7 +15316,7 @@
         <v>1.29</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU73" t="n">
         <v>1.1</v>
@@ -15722,7 +15722,7 @@
         <v>1.71</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU75" t="n">
         <v>1.69</v>
@@ -16125,7 +16125,7 @@
         <v>2</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AT77" t="n">
         <v>1.5</v>
@@ -16531,10 +16531,10 @@
         <v>0.25</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU79" t="n">
         <v>1.32</v>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT80" t="n">
         <v>1.67</v>
@@ -17143,7 +17143,7 @@
         <v>2.31</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU82" t="n">
         <v>1.45</v>
@@ -17549,7 +17549,7 @@
         <v>1.71</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU84" t="n">
         <v>1.84</v>
@@ -19173,7 +19173,7 @@
         <v>1</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU92" t="n">
         <v>1.47</v>
@@ -19373,10 +19373,10 @@
         <v>1.6</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU93" t="n">
         <v>1.33</v>
@@ -19576,7 +19576,7 @@
         <v>1.2</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT94" t="n">
         <v>1.8</v>
@@ -19782,7 +19782,7 @@
         <v>2.31</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU95" t="n">
         <v>1.51</v>
@@ -20388,7 +20388,7 @@
         <v>0.75</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT98" t="n">
         <v>1.67</v>
@@ -20594,7 +20594,7 @@
         <v>1.8</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU99" t="n">
         <v>1.62</v>
@@ -20794,7 +20794,7 @@
         <v>1.33</v>
       </c>
       <c r="AS100" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AT100" t="n">
         <v>1.4</v>
@@ -22824,7 +22824,7 @@
         <v>1.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT110" t="n">
         <v>1.67</v>
@@ -23027,10 +23027,10 @@
         <v>0.33</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU111" t="n">
         <v>1.53</v>
@@ -23233,7 +23233,7 @@
         <v>1.8</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU112" t="n">
         <v>1.68</v>
@@ -23636,7 +23636,7 @@
         <v>1.75</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT114" t="n">
         <v>1.4</v>
@@ -23842,7 +23842,7 @@
         <v>1</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU115" t="n">
         <v>1.43</v>
@@ -24042,7 +24042,7 @@
         <v>1.2</v>
       </c>
       <c r="AS116" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AT116" t="n">
         <v>1.67</v>
@@ -24451,7 +24451,7 @@
         <v>2.31</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU118" t="n">
         <v>1.41</v>
@@ -26684,7 +26684,7 @@
         <v>1.13</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU129" t="n">
         <v>1.01</v>
@@ -27087,10 +27087,10 @@
         <v>1.43</v>
       </c>
       <c r="AS131" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU131" t="n">
         <v>1.33</v>
@@ -27290,7 +27290,7 @@
         <v>1.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT132" t="n">
         <v>1.67</v>
@@ -27696,7 +27696,7 @@
         <v>1.29</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT134" t="n">
         <v>1.33</v>
@@ -28508,7 +28508,7 @@
         <v>1.14</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT138" t="n">
         <v>0.79</v>
@@ -29932,7 +29932,7 @@
         <v>2.4</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU145" t="n">
         <v>1.82</v>
@@ -30135,7 +30135,7 @@
         <v>1.13</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU146" t="n">
         <v>1.02</v>
@@ -30338,7 +30338,7 @@
         <v>1.73</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU147" t="n">
         <v>1.51</v>
@@ -30541,7 +30541,7 @@
         <v>0.87</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU148" t="n">
         <v>1.41</v>
@@ -31147,7 +31147,7 @@
         <v>0.75</v>
       </c>
       <c r="AS151" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AT151" t="n">
         <v>1</v>
@@ -31553,7 +31553,7 @@
         <v>0.43</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT153" t="n">
         <v>1.29</v>
@@ -32974,7 +32974,7 @@
         <v>1.78</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT160" t="n">
         <v>1.64</v>
@@ -33177,7 +33177,7 @@
         <v>1</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT161" t="n">
         <v>0.79</v>
@@ -33586,7 +33586,7 @@
         <v>1.13</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU163" t="n">
         <v>1.13</v>
@@ -33789,7 +33789,7 @@
         <v>0.87</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU164" t="n">
         <v>1.41</v>
@@ -33989,7 +33989,7 @@
         <v>1.43</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT165" t="n">
         <v>1.4</v>
@@ -34598,7 +34598,7 @@
         <v>1.44</v>
       </c>
       <c r="AS168" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AT168" t="n">
         <v>1.33</v>
@@ -34804,7 +34804,7 @@
         <v>2.4</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU169" t="n">
         <v>1.95</v>
@@ -35007,7 +35007,7 @@
         <v>1</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU170" t="n">
         <v>1.3</v>
@@ -35819,7 +35819,7 @@
         <v>1.73</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU174" t="n">
         <v>1.52</v>
@@ -36022,7 +36022,7 @@
         <v>2.4</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU175" t="n">
         <v>1.92</v>
@@ -36428,7 +36428,7 @@
         <v>1.13</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU177" t="n">
         <v>1.28</v>
@@ -37034,7 +37034,7 @@
         <v>0.9</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT180" t="n">
         <v>1</v>
@@ -37440,7 +37440,7 @@
         <v>1.11</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT182" t="n">
         <v>1.57</v>
@@ -37643,7 +37643,7 @@
         <v>1.22</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT183" t="n">
         <v>1.21</v>
@@ -37846,7 +37846,7 @@
         <v>1.13</v>
       </c>
       <c r="AS184" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AT184" t="n">
         <v>1.21</v>
@@ -38661,7 +38661,7 @@
         <v>1.13</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU188" t="n">
         <v>1.61</v>
@@ -39673,7 +39673,7 @@
         <v>0.6</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT193" t="n">
         <v>0.71</v>
@@ -39879,7 +39879,7 @@
         <v>1.73</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU194" t="n">
         <v>1.45</v>
@@ -40894,7 +40894,7 @@
         <v>1.29</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU199" t="n">
         <v>1.19</v>
@@ -41094,7 +41094,7 @@
         <v>0.3</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT200" t="n">
         <v>0.47</v>
@@ -41297,7 +41297,7 @@
         <v>1.1</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT201" t="n">
         <v>1.21</v>
@@ -41706,7 +41706,7 @@
         <v>2.07</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU203" t="n">
         <v>1.46</v>
@@ -42109,7 +42109,7 @@
         <v>1.3</v>
       </c>
       <c r="AS205" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AT205" t="n">
         <v>1.57</v>
@@ -42921,7 +42921,7 @@
         <v>0.8</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT209" t="n">
         <v>0.79</v>
@@ -43533,7 +43533,7 @@
         <v>2.4</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU212" t="n">
         <v>2</v>
@@ -43736,7 +43736,7 @@
         <v>1.64</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU213" t="n">
         <v>1.58</v>
@@ -44545,7 +44545,7 @@
         <v>1.27</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT217" t="n">
         <v>1.21</v>
@@ -45154,7 +45154,7 @@
         <v>1.64</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT220" t="n">
         <v>1.5</v>
@@ -45360,7 +45360,7 @@
         <v>1.29</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU221" t="n">
         <v>1.19</v>
@@ -45563,7 +45563,7 @@
         <v>2.07</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU222" t="n">
         <v>1.5</v>
@@ -45763,7 +45763,7 @@
         <v>0.55</v>
       </c>
       <c r="AS223" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AT223" t="n">
         <v>0.47</v>
@@ -45966,7 +45966,7 @@
         <v>1.45</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT224" t="n">
         <v>1.67</v>
@@ -46984,7 +46984,7 @@
         <v>1.64</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU229" t="n">
         <v>1.6</v>
@@ -47796,7 +47796,7 @@
         <v>2.13</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU233" t="n">
         <v>1.86</v>
@@ -48405,7 +48405,7 @@
         <v>2.07</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU236" t="n">
         <v>1.5</v>
@@ -48605,7 +48605,7 @@
         <v>1.75</v>
       </c>
       <c r="AS237" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AT237" t="n">
         <v>1.8</v>
@@ -48808,10 +48808,10 @@
         <v>0.77</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT238" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU238" t="n">
         <v>1.39</v>
@@ -49011,10 +49011,10 @@
         <v>0.67</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT239" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU239" t="n">
         <v>1.45</v>
@@ -49620,7 +49620,7 @@
         <v>0.58</v>
       </c>
       <c r="AS242" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT242" t="n">
         <v>0.47</v>
@@ -51653,7 +51653,7 @@
         <v>2.13</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU252" t="n">
         <v>1.85</v>
@@ -52259,7 +52259,7 @@
         <v>1.62</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT255" t="n">
         <v>1.5</v>
@@ -52462,7 +52462,7 @@
         <v>1.46</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT256" t="n">
         <v>1.67</v>
@@ -52868,10 +52868,10 @@
         <v>0.62</v>
       </c>
       <c r="AS258" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AT258" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU258" t="n">
         <v>1.35</v>
@@ -53074,7 +53074,7 @@
         <v>1.79</v>
       </c>
       <c r="AT259" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU259" t="n">
         <v>1.63</v>
@@ -53274,10 +53274,10 @@
         <v>1</v>
       </c>
       <c r="AS260" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU260" t="n">
         <v>1.39</v>
@@ -56374,6 +56374,818 @@
       </c>
       <c r="BK275" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="n">
+        <v>2833559</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Turkey 1. Lig</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="n">
+        <v>45025.41666666666</v>
+      </c>
+      <c r="F276" t="n">
+        <v>31</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Bandırmaspor</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Altay</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>1</v>
+      </c>
+      <c r="J276" t="n">
+        <v>1</v>
+      </c>
+      <c r="K276" t="n">
+        <v>2</v>
+      </c>
+      <c r="L276" t="n">
+        <v>2</v>
+      </c>
+      <c r="M276" t="n">
+        <v>1</v>
+      </c>
+      <c r="N276" t="n">
+        <v>3</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>['2', '78']</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>['45+6']</t>
+        </is>
+      </c>
+      <c r="Q276" t="n">
+        <v>4</v>
+      </c>
+      <c r="R276" t="n">
+        <v>5</v>
+      </c>
+      <c r="S276" t="n">
+        <v>9</v>
+      </c>
+      <c r="T276" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U276" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V276" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W276" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X276" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH276" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI276" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ276" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK276" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL276" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM276" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN276" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO276" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP276" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ276" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AR276" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS276" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT276" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU276" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV276" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW276" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX276" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY276" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ276" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA276" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB276" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC276" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD276" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE276" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF276" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG276" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH276" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI276" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ276" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK276" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>2833556</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Turkey 1. Lig</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="n">
+        <v>45025.54166666666</v>
+      </c>
+      <c r="F277" t="n">
+        <v>31</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Adanaspor</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L277" t="n">
+        <v>3</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N277" t="n">
+        <v>3</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>['-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q277" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R277" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S277" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T277" t="n">
+        <v>0</v>
+      </c>
+      <c r="U277" t="n">
+        <v>0</v>
+      </c>
+      <c r="V277" t="n">
+        <v>0</v>
+      </c>
+      <c r="W277" t="n">
+        <v>0</v>
+      </c>
+      <c r="X277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ277" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR277" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS277" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT277" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AU277" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV277" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW277" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ277" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA277" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB277" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC277" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD277" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE277" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF277" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG277" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH277" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI277" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ277" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK277" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="n">
+        <v>2833555</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Turkey 1. Lig</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="n">
+        <v>45025.54166666666</v>
+      </c>
+      <c r="F278" t="n">
+        <v>31</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Gençlerbirliği</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Yeni Malatyaspor</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L278" t="n">
+        <v>3</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N278" t="n">
+        <v>3</v>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>['-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q278" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R278" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S278" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T278" t="n">
+        <v>0</v>
+      </c>
+      <c r="U278" t="n">
+        <v>0</v>
+      </c>
+      <c r="V278" t="n">
+        <v>0</v>
+      </c>
+      <c r="W278" t="n">
+        <v>0</v>
+      </c>
+      <c r="X278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ278" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AR278" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS278" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT278" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU278" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV278" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW278" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ278" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA278" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB278" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC278" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD278" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE278" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF278" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG278" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH278" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI278" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ278" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK278" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="n">
+        <v>2833561</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Turkey 1. Lig</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E279" s="2" t="n">
+        <v>45025.60416666666</v>
+      </c>
+      <c r="F279" t="n">
+        <v>31</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>BB Erzurumspor</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Rizespor</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>1</v>
+      </c>
+      <c r="J279" t="n">
+        <v>1</v>
+      </c>
+      <c r="K279" t="n">
+        <v>2</v>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="n">
+        <v>1</v>
+      </c>
+      <c r="N279" t="n">
+        <v>2</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="Q279" t="n">
+        <v>3</v>
+      </c>
+      <c r="R279" t="n">
+        <v>4</v>
+      </c>
+      <c r="S279" t="n">
+        <v>7</v>
+      </c>
+      <c r="T279" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U279" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V279" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W279" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X279" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC279" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD279" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE279" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF279" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG279" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH279" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI279" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ279" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK279" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL279" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM279" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN279" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO279" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP279" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ279" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR279" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS279" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT279" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU279" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV279" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW279" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX279" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY279" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ279" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA279" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB279" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC279" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD279" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE279" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF279" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG279" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH279" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI279" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ279" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK279" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey 1. Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey 1. Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK279"/>
+  <dimension ref="A1:BK281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT7" t="n">
         <v>0.63</v>
@@ -2121,7 +2121,7 @@
         <v>2.31</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.07</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT15" t="n">
         <v>1.67</v>
@@ -5369,7 +5369,7 @@
         <v>1.71</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT25" t="n">
         <v>0.53</v>
@@ -5775,7 +5775,7 @@
         <v>0.93</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU26" t="n">
         <v>2.2</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT31" t="n">
         <v>1.67</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT34" t="n">
         <v>1.29</v>
@@ -8211,7 +8211,7 @@
         <v>1.8</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU38" t="n">
         <v>1.4</v>
@@ -9835,7 +9835,7 @@
         <v>1</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU46" t="n">
         <v>1.64</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT48" t="n">
         <v>1</v>
@@ -11053,7 +11053,7 @@
         <v>1.13</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU52" t="n">
         <v>0.93</v>
@@ -11253,7 +11253,7 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT53" t="n">
         <v>1.4</v>
@@ -11865,7 +11865,7 @@
         <v>2</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU56" t="n">
         <v>1.74</v>
@@ -13892,7 +13892,7 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT66" t="n">
         <v>1.21</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT67" t="n">
         <v>1.29</v>
@@ -15113,7 +15113,7 @@
         <v>0.87</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU72" t="n">
         <v>1.57</v>
@@ -17749,10 +17749,10 @@
         <v>1.8</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU85" t="n">
         <v>1.52</v>
@@ -18358,7 +18358,7 @@
         <v>1.75</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT88" t="n">
         <v>1.33</v>
@@ -18564,7 +18564,7 @@
         <v>0.64</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU89" t="n">
         <v>1.22</v>
@@ -21403,7 +21403,7 @@
         <v>2</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT103" t="n">
         <v>1.21</v>
@@ -21812,7 +21812,7 @@
         <v>1.13</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU105" t="n">
         <v>1.43</v>
@@ -22421,7 +22421,7 @@
         <v>2.4</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU108" t="n">
         <v>1.68</v>
@@ -24654,7 +24654,7 @@
         <v>0.64</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU119" t="n">
         <v>1.44</v>
@@ -25057,7 +25057,7 @@
         <v>0</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT121" t="n">
         <v>0.47</v>
@@ -25463,7 +25463,7 @@
         <v>1.33</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT123" t="n">
         <v>1.21</v>
@@ -25669,7 +25669,7 @@
         <v>2.13</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU124" t="n">
         <v>1.86</v>
@@ -27493,7 +27493,7 @@
         <v>1.71</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT133" t="n">
         <v>1.8</v>
@@ -28305,7 +28305,7 @@
         <v>0.86</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT137" t="n">
         <v>0.71</v>
@@ -29323,7 +29323,7 @@
         <v>1.13</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU142" t="n">
         <v>1.46</v>
@@ -29729,7 +29729,7 @@
         <v>2.07</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU144" t="n">
         <v>1.32</v>
@@ -30335,7 +30335,7 @@
         <v>0.29</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT147" t="n">
         <v>0.53</v>
@@ -31759,7 +31759,7 @@
         <v>2.07</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU154" t="n">
         <v>1.33</v>
@@ -31959,7 +31959,7 @@
         <v>1.63</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT155" t="n">
         <v>1.8</v>
@@ -32977,7 +32977,7 @@
         <v>1.71</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU160" t="n">
         <v>1.25</v>
@@ -34395,7 +34395,7 @@
         <v>1.43</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT167" t="n">
         <v>1.67</v>
@@ -35816,7 +35816,7 @@
         <v>1.7</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT174" t="n">
         <v>1.67</v>
@@ -37443,7 +37443,7 @@
         <v>1.07</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU182" t="n">
         <v>1.47</v>
@@ -38052,7 +38052,7 @@
         <v>1.29</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU185" t="n">
         <v>1.15</v>
@@ -38252,7 +38252,7 @@
         <v>1.67</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT186" t="n">
         <v>1.5</v>
@@ -39876,7 +39876,7 @@
         <v>1</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT194" t="n">
         <v>1.07</v>
@@ -41503,7 +41503,7 @@
         <v>1.8</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU202" t="n">
         <v>1.64</v>
@@ -42112,7 +42112,7 @@
         <v>0.93</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU205" t="n">
         <v>1.32</v>
@@ -43327,7 +43327,7 @@
         <v>1.45</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT211" t="n">
         <v>1.33</v>
@@ -43733,7 +43733,7 @@
         <v>1</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT213" t="n">
         <v>1.07</v>
@@ -44751,7 +44751,7 @@
         <v>1</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU218" t="n">
         <v>1.39</v>
@@ -46578,7 +46578,7 @@
         <v>1.79</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU227" t="n">
         <v>1.65</v>
@@ -46778,7 +46778,7 @@
         <v>0.73</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT228" t="n">
         <v>0.79</v>
@@ -46981,7 +46981,7 @@
         <v>1.5</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT229" t="n">
         <v>1.67</v>
@@ -50432,7 +50432,7 @@
         <v>0.75</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT246" t="n">
         <v>0.71</v>
@@ -50638,7 +50638,7 @@
         <v>1.13</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU247" t="n">
         <v>1.26</v>
@@ -51041,7 +51041,7 @@
         <v>1</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT249" t="n">
         <v>1</v>
@@ -53683,7 +53683,7 @@
         <v>0.87</v>
       </c>
       <c r="AT262" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU262" t="n">
         <v>1.47</v>
@@ -53886,7 +53886,7 @@
         <v>2.4</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU263" t="n">
         <v>2</v>
@@ -54289,7 +54289,7 @@
         <v>1.08</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT265" t="n">
         <v>1.21</v>
@@ -57186,6 +57186,412 @@
       </c>
       <c r="BK279" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="n">
+        <v>2833568</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Turkey 1. Lig</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E280" s="2" t="n">
+        <v>45027.3125</v>
+      </c>
+      <c r="F280" t="n">
+        <v>32</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Keçiörengücü</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Göztepe</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="n">
+        <v>1</v>
+      </c>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="n">
+        <v>2</v>
+      </c>
+      <c r="M280" t="n">
+        <v>3</v>
+      </c>
+      <c r="N280" t="n">
+        <v>5</v>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>['64', '66']</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>['10', '52', '82']</t>
+        </is>
+      </c>
+      <c r="Q280" t="n">
+        <v>4</v>
+      </c>
+      <c r="R280" t="n">
+        <v>3</v>
+      </c>
+      <c r="S280" t="n">
+        <v>7</v>
+      </c>
+      <c r="T280" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U280" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V280" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W280" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X280" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD280" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE280" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF280" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG280" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH280" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI280" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ280" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK280" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL280" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM280" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN280" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO280" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP280" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ280" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR280" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS280" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT280" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU280" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV280" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW280" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX280" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY280" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AZ280" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BA280" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB280" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC280" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD280" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BE280" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF280" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG280" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH280" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI280" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ280" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK280" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="n">
+        <v>2833567</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Turkey 1. Lig</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E281" s="2" t="n">
+        <v>45027.41666666666</v>
+      </c>
+      <c r="F281" t="n">
+        <v>32</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>BB Bodrumspor</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>2</v>
+      </c>
+      <c r="J281" t="n">
+        <v>1</v>
+      </c>
+      <c r="K281" t="n">
+        <v>3</v>
+      </c>
+      <c r="L281" t="n">
+        <v>2</v>
+      </c>
+      <c r="M281" t="n">
+        <v>2</v>
+      </c>
+      <c r="N281" t="n">
+        <v>4</v>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>['14', '28']</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>['42', '69']</t>
+        </is>
+      </c>
+      <c r="Q281" t="n">
+        <v>1</v>
+      </c>
+      <c r="R281" t="n">
+        <v>4</v>
+      </c>
+      <c r="S281" t="n">
+        <v>5</v>
+      </c>
+      <c r="T281" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U281" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V281" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W281" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X281" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC281" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD281" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE281" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF281" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG281" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH281" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI281" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ281" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK281" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL281" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM281" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN281" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO281" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP281" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ281" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR281" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS281" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT281" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU281" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV281" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW281" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX281" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY281" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ281" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA281" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BB281" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BC281" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BD281" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BE281" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BF281" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG281" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH281" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI281" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ281" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK281" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
